--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$108</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -304,17 +304,23 @@
   <si>
     <t>Bareinzahlung von Barkasse</t>
   </si>
+  <si>
+    <t>Miete April 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-2];&quot;-&quot;#,##0.00&quot; &quot;[$€-2]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -666,7 +672,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -747,6 +783,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1854,18 +1895,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:IK168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="41" customWidth="1"/>
     <col min="2" max="2" width="4" style="41" bestFit="1" customWidth="1"/>
@@ -1881,7 +1922,7 @@
     <col min="12" max="245" width="10.85546875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="41" customFormat="1" ht="29.25" customHeight="1">
+    <row r="2" spans="1:11" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1931,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43100</v>
       </c>
@@ -1960,7 +2001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>43109</v>
       </c>
@@ -1985,7 +2026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>43130</v>
       </c>
@@ -2010,7 +2051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>43130</v>
       </c>
@@ -2035,7 +2076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43130</v>
       </c>
@@ -2060,7 +2101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43130</v>
       </c>
@@ -2085,7 +2126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43131</v>
       </c>
@@ -2110,7 +2151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43134</v>
       </c>
@@ -2135,7 +2176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43137</v>
       </c>
@@ -2160,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43137</v>
       </c>
@@ -2185,7 +2226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>43137</v>
       </c>
@@ -2210,7 +2251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>43145</v>
       </c>
@@ -2235,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>43145</v>
       </c>
@@ -2260,7 +2301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>43146</v>
       </c>
@@ -2285,7 +2326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>43146</v>
       </c>
@@ -2310,7 +2351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>43147</v>
       </c>
@@ -2335,7 +2376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>43151</v>
       </c>
@@ -2358,7 +2399,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>43172</v>
       </c>
@@ -2381,7 +2422,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>43172</v>
       </c>
@@ -2404,7 +2445,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>43175</v>
       </c>
@@ -2427,7 +2468,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>43179</v>
       </c>
@@ -2450,7 +2491,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>43186</v>
       </c>
@@ -2473,7 +2514,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>43186</v>
       </c>
@@ -2496,7 +2537,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>43186</v>
       </c>
@@ -2519,7 +2560,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>43188</v>
       </c>
@@ -2542,7 +2583,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="44"/>
@@ -2555,7 +2596,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="44"/>
@@ -2568,7 +2609,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="44"/>
@@ -2581,7 +2622,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="44"/>
@@ -2594,7 +2635,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="44"/>
@@ -2607,7 +2648,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="44"/>
@@ -2620,7 +2661,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="44"/>
@@ -2633,7 +2674,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="44"/>
@@ -2646,7 +2687,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="44"/>
@@ -2659,7 +2700,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="16"/>
       <c r="C37" s="44"/>
@@ -2672,7 +2713,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="44"/>
@@ -2685,7 +2726,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="44"/>
@@ -2698,7 +2739,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="44"/>
@@ -2711,7 +2752,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="44"/>
@@ -2724,7 +2765,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="44"/>
@@ -2737,7 +2778,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="44"/>
@@ -2750,7 +2791,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="44"/>
@@ -2763,7 +2804,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="16"/>
       <c r="C45" s="44"/>
@@ -2776,7 +2817,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="44"/>
@@ -2789,7 +2830,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="44"/>
@@ -2802,7 +2843,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="44"/>
@@ -2815,7 +2856,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="44"/>
@@ -2828,7 +2869,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="44"/>
@@ -2841,7 +2882,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -2854,7 +2895,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="44"/>
@@ -2867,7 +2908,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="B53" s="16"/>
       <c r="C53" s="44"/>
@@ -2880,7 +2921,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="44"/>
@@ -2893,7 +2934,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2906,7 +2947,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="44"/>
@@ -2919,7 +2960,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="44"/>
@@ -2932,7 +2973,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="44"/>
@@ -2945,7 +2986,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="44"/>
@@ -2958,7 +2999,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="44"/>
@@ -2971,7 +3012,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="44"/>
@@ -2984,7 +3025,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2997,7 +3038,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="44"/>
@@ -3010,7 +3051,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="44"/>
@@ -3023,7 +3064,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="44"/>
@@ -3036,7 +3077,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="44"/>
@@ -3049,7 +3090,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="44"/>
@@ -3062,7 +3103,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45"/>
       <c r="B68" s="16"/>
       <c r="C68" s="44"/>
@@ -3075,7 +3116,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="44"/>
@@ -3088,7 +3129,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="44"/>
@@ -3101,7 +3142,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="44"/>
@@ -3114,7 +3155,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="44"/>
@@ -3127,7 +3168,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="44"/>
@@ -3140,7 +3181,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="44"/>
@@ -3153,7 +3194,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="44"/>
@@ -3166,7 +3207,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="44"/>
@@ -3179,7 +3220,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45"/>
       <c r="B77" s="16"/>
       <c r="C77" s="44"/>
@@ -3192,7 +3233,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="44"/>
@@ -3205,7 +3246,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45"/>
       <c r="B79" s="16"/>
       <c r="C79" s="44"/>
@@ -3218,7 +3259,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45"/>
       <c r="B80" s="16"/>
       <c r="C80" s="44"/>
@@ -3231,7 +3272,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45"/>
       <c r="B81" s="16"/>
       <c r="C81" s="44"/>
@@ -3244,7 +3285,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="44"/>
@@ -3257,7 +3298,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="44"/>
@@ -3270,7 +3311,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="44"/>
@@ -3283,7 +3324,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="44"/>
@@ -3296,7 +3337,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="44"/>
@@ -3309,7 +3350,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="44"/>
@@ -3322,7 +3363,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="44"/>
@@ -3335,7 +3376,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45"/>
       <c r="B89" s="16"/>
       <c r="C89" s="44"/>
@@ -3348,7 +3389,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="44"/>
@@ -3361,7 +3402,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="44"/>
@@ -3374,7 +3415,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="44"/>
@@ -3387,7 +3428,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="44"/>
@@ -3400,7 +3441,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="44"/>
@@ -3413,7 +3454,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="44"/>
@@ -3426,7 +3467,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="44"/>
@@ -3439,7 +3480,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="44"/>
@@ -3452,7 +3493,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="44"/>
@@ -3465,7 +3506,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="44"/>
@@ -3478,7 +3519,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="44"/>
@@ -3491,7 +3532,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="44"/>
@@ -3504,7 +3545,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="44"/>
@@ -3517,7 +3558,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="44"/>
@@ -3530,7 +3571,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>16</v>
       </c>
@@ -3560,7 +3601,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="105" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -3573,7 +3614,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="106" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>17</v>
       </c>
@@ -3586,7 +3627,7 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>2136.7800000000066</v>
+        <v>1407.2100000000066</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -3603,7 +3644,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="107" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
@@ -3616,7 +3657,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="108" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>18</v>
       </c>
@@ -3624,7 +3665,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>6385.2500000000082</v>
+        <v>5655.6800000000076</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -3634,7 +3675,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
@@ -3647,7 +3688,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="110" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3660,7 +3701,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3673,7 +3714,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3686,7 +3727,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3699,7 +3740,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3712,7 +3753,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3725,7 +3766,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3738,7 +3779,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3751,7 +3792,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3764,7 +3805,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3777,7 +3818,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3790,7 +3831,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3803,7 +3844,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="122" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3816,7 +3857,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="123" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3829,7 +3870,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="124" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3842,7 +3883,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3855,7 +3896,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="126" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3868,7 +3909,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="127" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3881,7 +3922,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="128" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3894,7 +3935,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3907,7 +3948,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3920,7 +3961,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3933,7 +3974,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3946,7 +3987,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3959,7 +4000,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3972,7 +4013,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3985,7 +4026,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3998,7 +4039,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4011,7 +4052,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4024,7 +4065,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4037,7 +4078,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4050,7 +4091,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4063,7 +4104,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4076,7 +4117,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4089,7 +4130,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4102,7 +4143,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4115,7 +4156,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4128,7 +4169,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4141,7 +4182,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4154,7 +4195,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4167,7 +4208,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4180,7 +4221,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="151" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4193,7 +4234,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="152" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4206,7 +4247,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4219,7 +4260,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="154" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4232,7 +4273,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="155" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4245,7 +4286,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="156" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4258,7 +4299,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="157" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4271,7 +4312,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="158" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4284,7 +4325,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4297,7 +4338,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4310,7 +4351,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="161" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4323,7 +4364,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="162" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4336,7 +4377,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="163" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4349,7 +4390,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="164" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4362,7 +4403,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="165" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4375,7 +4416,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4388,7 +4429,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4401,7 +4442,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4419,7 +4460,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G103 H4:I103">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4441,17 +4482,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="51" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
@@ -4468,7 +4509,7 @@
     <col min="14" max="247" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="70" t="s">
         <v>2</v>
@@ -4487,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1">
+    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -4522,7 +4563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="15">
         <v>43102</v>
@@ -4549,7 +4590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="45">
         <v>43102</v>
@@ -4576,7 +4617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="15">
         <v>43102</v>
@@ -4603,7 +4644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="15">
         <v>43102</v>
@@ -4630,7 +4671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="45">
         <v>43104</v>
@@ -4657,7 +4698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="15">
         <v>43105</v>
@@ -4684,7 +4725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="15">
         <v>43109</v>
@@ -4711,7 +4752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="15">
         <v>43117</v>
@@ -4738,7 +4779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="45">
         <v>43115</v>
@@ -4765,7 +4806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="15">
         <v>43130</v>
@@ -4792,7 +4833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="15">
         <v>43130</v>
@@ -4819,7 +4860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="15">
         <v>43130</v>
@@ -4846,7 +4887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="45" t="s">
         <v>50</v>
@@ -4873,7 +4914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="15">
         <v>43134</v>
@@ -4900,7 +4941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="45">
         <v>43134</v>
@@ -4927,7 +4968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="15">
         <v>43137</v>
@@ -4954,7 +4995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="15">
         <v>43145</v>
@@ -4979,7 +5020,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="15">
         <v>43145</v>
@@ -5004,7 +5045,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="15">
         <v>43145</v>
@@ -5029,7 +5070,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="15">
         <v>43145</v>
@@ -5054,7 +5095,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="45">
         <v>43146</v>
@@ -5079,7 +5120,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="15">
         <v>43146</v>
@@ -5104,7 +5145,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="15">
         <v>43147</v>
@@ -5129,7 +5170,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="45">
         <v>43160</v>
@@ -5154,7 +5195,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="45">
         <v>43161</v>
@@ -5179,7 +5220,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="15">
         <v>43165</v>
@@ -5204,7 +5245,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="15">
         <v>43174</v>
@@ -5229,7 +5270,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="15">
         <v>43174</v>
@@ -5254,7 +5295,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="15">
         <v>43175</v>
@@ -5279,7 +5320,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="15">
         <v>43188</v>
@@ -5304,7 +5345,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="45">
         <v>43188</v>
@@ -5329,7 +5370,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="15">
         <v>43188</v>
@@ -5354,7 +5395,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="15">
         <v>43188</v>
@@ -5379,7 +5420,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="15">
         <v>43188</v>
@@ -5404,7 +5445,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="45">
         <v>43188</v>
@@ -5429,7 +5470,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
       <c r="B38" s="15">
         <v>43188</v>
@@ -5454,7 +5495,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
       <c r="B39" s="15">
         <v>43188</v>
@@ -5475,7 +5516,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="15">
         <v>43188</v>
@@ -5500,7 +5541,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="15">
         <v>43188</v>
@@ -5525,7 +5566,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="15">
         <v>43188</v>
@@ -5550,7 +5591,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="15">
         <v>43188</v>
@@ -5575,7 +5616,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="45">
         <v>43188</v>
@@ -5600,14 +5641,24 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="15">
+        <v>43194</v>
+      </c>
+      <c r="C45" s="65">
+        <v>43</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="G45" s="22">
+        <v>-407.57</v>
+      </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="23"/>
@@ -5615,14 +5666,24 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="20"/>
+      <c r="B46" s="15">
+        <v>43194</v>
+      </c>
+      <c r="C46" s="65">
+        <v>44</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="G46" s="22">
+        <v>-30</v>
+      </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
       <c r="J46" s="23"/>
@@ -5630,14 +5691,24 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="20"/>
+      <c r="B47" s="15">
+        <v>43194</v>
+      </c>
+      <c r="C47" s="65">
+        <v>45</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="G47" s="22">
+        <v>-12</v>
+      </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="23"/>
@@ -5645,14 +5716,24 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="20"/>
+      <c r="B48" s="15">
+        <v>43195</v>
+      </c>
+      <c r="C48" s="65">
+        <v>46</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="G48" s="22">
+        <v>-280</v>
+      </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="23"/>
@@ -5660,7 +5741,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:247" ht="15" customHeight="1">
+    <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="15"/>
       <c r="C49" s="65"/>
@@ -5675,7 +5756,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:247" ht="15" customHeight="1">
+    <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="15"/>
       <c r="C50" s="65"/>
@@ -5690,7 +5771,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:247" ht="15" customHeight="1">
+    <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
       <c r="B51" s="15"/>
       <c r="C51" s="65"/>
@@ -5705,7 +5786,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:247" ht="15" customHeight="1">
+    <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
       <c r="B52" s="15"/>
       <c r="C52" s="65"/>
@@ -5720,7 +5801,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:247" ht="15" customHeight="1">
+    <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
       <c r="B53" s="15"/>
       <c r="C53" s="65"/>
@@ -5735,7 +5816,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:247" ht="15" customHeight="1">
+    <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
       <c r="B54" s="15"/>
       <c r="C54" s="65"/>
@@ -5750,7 +5831,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:247" ht="15" customHeight="1">
+    <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="B55" s="15"/>
       <c r="C55" s="65"/>
@@ -5765,7 +5846,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:247" ht="15" customHeight="1">
+    <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
       <c r="B56" s="15"/>
       <c r="C56" s="65"/>
@@ -5780,7 +5861,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:247" ht="15" customHeight="1">
+    <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
       <c r="B57" s="15"/>
       <c r="C57" s="65"/>
@@ -5795,7 +5876,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:247" ht="15" customHeight="1">
+    <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
       <c r="B58" s="15"/>
       <c r="C58" s="65"/>
@@ -5810,7 +5891,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:247" ht="15" customHeight="1">
+    <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
       <c r="B59" s="15"/>
       <c r="C59" s="65"/>
@@ -5825,7 +5906,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:247" ht="15" customHeight="1">
+    <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
       <c r="B60" s="15"/>
       <c r="C60" s="65"/>
@@ -6074,7 +6155,7 @@
       <c r="IL60" s="41"/>
       <c r="IM60" s="41"/>
     </row>
-    <row r="61" spans="1:247" ht="15" customHeight="1">
+    <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
       <c r="B61" s="15"/>
       <c r="C61" s="65"/>
@@ -6323,7 +6404,7 @@
       <c r="IL61" s="41"/>
       <c r="IM61" s="41"/>
     </row>
-    <row r="62" spans="1:247" ht="15" customHeight="1">
+    <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
       <c r="B62" s="15"/>
       <c r="C62" s="65"/>
@@ -6572,7 +6653,7 @@
       <c r="IL62" s="41"/>
       <c r="IM62" s="41"/>
     </row>
-    <row r="63" spans="1:247" ht="15" customHeight="1">
+    <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
       <c r="B63" s="15"/>
       <c r="C63" s="66"/>
@@ -6821,7 +6902,7 @@
       <c r="IL63" s="41"/>
       <c r="IM63" s="41"/>
     </row>
-    <row r="64" spans="1:247" ht="15" customHeight="1">
+    <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
       <c r="B64" s="15"/>
       <c r="C64" s="65"/>
@@ -7070,7 +7151,7 @@
       <c r="IL64" s="41"/>
       <c r="IM64" s="41"/>
     </row>
-    <row r="65" spans="1:247" ht="15" customHeight="1">
+    <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
       <c r="B65" s="15"/>
       <c r="C65" s="65"/>
@@ -7319,7 +7400,7 @@
       <c r="IL65" s="41"/>
       <c r="IM65" s="41"/>
     </row>
-    <row r="66" spans="1:247" ht="15" customHeight="1">
+    <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
       <c r="B66" s="15"/>
       <c r="C66" s="65"/>
@@ -7568,7 +7649,7 @@
       <c r="IL66" s="41"/>
       <c r="IM66" s="41"/>
     </row>
-    <row r="67" spans="1:247" ht="15" customHeight="1">
+    <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
       <c r="B67" s="15"/>
       <c r="C67" s="65"/>
@@ -7817,7 +7898,7 @@
       <c r="IL67" s="41"/>
       <c r="IM67" s="41"/>
     </row>
-    <row r="68" spans="1:247" ht="15" customHeight="1">
+    <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
       <c r="B68" s="15"/>
       <c r="C68" s="65"/>
@@ -8066,7 +8147,7 @@
       <c r="IL68" s="41"/>
       <c r="IM68" s="41"/>
     </row>
-    <row r="69" spans="1:247" ht="15" customHeight="1">
+    <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
       <c r="B69" s="15"/>
       <c r="C69" s="65"/>
@@ -8315,7 +8396,7 @@
       <c r="IL69" s="41"/>
       <c r="IM69" s="41"/>
     </row>
-    <row r="70" spans="1:247" ht="15" customHeight="1">
+    <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="15"/>
       <c r="C70" s="65"/>
@@ -8564,7 +8645,7 @@
       <c r="IL70" s="41"/>
       <c r="IM70" s="41"/>
     </row>
-    <row r="71" spans="1:247" ht="15" customHeight="1">
+    <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
       <c r="B71" s="15"/>
       <c r="C71" s="65"/>
@@ -8813,7 +8894,7 @@
       <c r="IL71" s="41"/>
       <c r="IM71" s="41"/>
     </row>
-    <row r="72" spans="1:247" ht="15" customHeight="1">
+    <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
       <c r="B72" s="15"/>
       <c r="C72" s="65"/>
@@ -9062,7 +9143,7 @@
       <c r="IL72" s="41"/>
       <c r="IM72" s="41"/>
     </row>
-    <row r="73" spans="1:247" ht="15" customHeight="1">
+    <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
       <c r="B73" s="15"/>
       <c r="C73" s="65"/>
@@ -9311,7 +9392,7 @@
       <c r="IL73" s="41"/>
       <c r="IM73" s="41"/>
     </row>
-    <row r="74" spans="1:247" ht="15" customHeight="1">
+    <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="15"/>
       <c r="C74" s="65"/>
@@ -9560,7 +9641,7 @@
       <c r="IL74" s="41"/>
       <c r="IM74" s="41"/>
     </row>
-    <row r="75" spans="1:247" ht="15" customHeight="1">
+    <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="15"/>
       <c r="C75" s="65"/>
@@ -9809,7 +9890,7 @@
       <c r="IL75" s="41"/>
       <c r="IM75" s="41"/>
     </row>
-    <row r="76" spans="1:247" ht="15" customHeight="1">
+    <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
       <c r="B76" s="15"/>
       <c r="C76" s="65"/>
@@ -10058,7 +10139,7 @@
       <c r="IL76" s="41"/>
       <c r="IM76" s="41"/>
     </row>
-    <row r="77" spans="1:247" ht="15" customHeight="1">
+    <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
       <c r="B77" s="15"/>
       <c r="C77" s="65"/>
@@ -10307,7 +10388,7 @@
       <c r="IL77" s="41"/>
       <c r="IM77" s="41"/>
     </row>
-    <row r="78" spans="1:247" ht="15" customHeight="1">
+    <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
       <c r="B78" s="15"/>
       <c r="C78" s="65"/>
@@ -10556,7 +10637,7 @@
       <c r="IL78" s="41"/>
       <c r="IM78" s="41"/>
     </row>
-    <row r="79" spans="1:247" ht="15" customHeight="1">
+    <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
       <c r="B79" s="15"/>
       <c r="C79" s="65"/>
@@ -10805,7 +10886,7 @@
       <c r="IL79" s="41"/>
       <c r="IM79" s="41"/>
     </row>
-    <row r="80" spans="1:247" ht="15" customHeight="1">
+    <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
       <c r="B80" s="15"/>
       <c r="C80" s="65"/>
@@ -11054,7 +11135,7 @@
       <c r="IL80" s="41"/>
       <c r="IM80" s="41"/>
     </row>
-    <row r="81" spans="1:247" ht="15" customHeight="1">
+    <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="15"/>
       <c r="C81" s="65"/>
@@ -11303,7 +11384,7 @@
       <c r="IL81" s="41"/>
       <c r="IM81" s="41"/>
     </row>
-    <row r="82" spans="1:247" ht="15" customHeight="1">
+    <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49"/>
       <c r="B82" s="15"/>
       <c r="C82" s="65"/>
@@ -11552,7 +11633,7 @@
       <c r="IL82" s="41"/>
       <c r="IM82" s="41"/>
     </row>
-    <row r="83" spans="1:247" ht="15" customHeight="1">
+    <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49"/>
       <c r="B83" s="15"/>
       <c r="C83" s="65"/>
@@ -11801,7 +11882,7 @@
       <c r="IL83" s="41"/>
       <c r="IM83" s="41"/>
     </row>
-    <row r="84" spans="1:247" ht="15" customHeight="1">
+    <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
       <c r="B84" s="15"/>
       <c r="C84" s="65"/>
@@ -12050,7 +12131,7 @@
       <c r="IL84" s="41"/>
       <c r="IM84" s="41"/>
     </row>
-    <row r="85" spans="1:247" ht="15" customHeight="1">
+    <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49"/>
       <c r="B85" s="45"/>
       <c r="C85" s="65"/>
@@ -12299,7 +12380,7 @@
       <c r="IL85" s="41"/>
       <c r="IM85" s="41"/>
     </row>
-    <row r="86" spans="1:247" ht="15" customHeight="1">
+    <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49"/>
       <c r="B86" s="15"/>
       <c r="C86" s="65"/>
@@ -12548,7 +12629,7 @@
       <c r="IL86" s="41"/>
       <c r="IM86" s="41"/>
     </row>
-    <row r="87" spans="1:247" ht="15" customHeight="1">
+    <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49"/>
       <c r="B87" s="15"/>
       <c r="C87" s="65"/>
@@ -12797,7 +12878,7 @@
       <c r="IL87" s="41"/>
       <c r="IM87" s="41"/>
     </row>
-    <row r="88" spans="1:247" ht="15" customHeight="1">
+    <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49"/>
       <c r="B88" s="15"/>
       <c r="C88" s="65"/>
@@ -13046,7 +13127,7 @@
       <c r="IL88" s="41"/>
       <c r="IM88" s="41"/>
     </row>
-    <row r="89" spans="1:247" ht="15" customHeight="1">
+    <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="15"/>
       <c r="C89" s="65"/>
@@ -13295,7 +13376,7 @@
       <c r="IL89" s="41"/>
       <c r="IM89" s="41"/>
     </row>
-    <row r="90" spans="1:247" ht="15" customHeight="1">
+    <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="15"/>
       <c r="C90" s="65"/>
@@ -13544,7 +13625,7 @@
       <c r="IL90" s="41"/>
       <c r="IM90" s="41"/>
     </row>
-    <row r="91" spans="1:247" ht="15" customHeight="1">
+    <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
       <c r="B91" s="15"/>
       <c r="C91" s="65"/>
@@ -13793,7 +13874,7 @@
       <c r="IL91" s="41"/>
       <c r="IM91" s="41"/>
     </row>
-    <row r="92" spans="1:247" ht="15" customHeight="1">
+    <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49"/>
       <c r="B92" s="15"/>
       <c r="C92" s="65"/>
@@ -14042,7 +14123,7 @@
       <c r="IL92" s="41"/>
       <c r="IM92" s="41"/>
     </row>
-    <row r="93" spans="1:247" ht="15" customHeight="1">
+    <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
       <c r="B93" s="15"/>
       <c r="C93" s="65"/>
@@ -14291,7 +14372,7 @@
       <c r="IL93" s="41"/>
       <c r="IM93" s="41"/>
     </row>
-    <row r="94" spans="1:247" ht="15" customHeight="1">
+    <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
       <c r="B94" s="15"/>
       <c r="C94" s="65"/>
@@ -14540,7 +14621,7 @@
       <c r="IL94" s="41"/>
       <c r="IM94" s="41"/>
     </row>
-    <row r="95" spans="1:247" ht="15" customHeight="1">
+    <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49"/>
       <c r="B95" s="15"/>
       <c r="C95" s="65"/>
@@ -14789,7 +14870,7 @@
       <c r="IL95" s="41"/>
       <c r="IM95" s="41"/>
     </row>
-    <row r="96" spans="1:247" ht="15" customHeight="1">
+    <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49"/>
       <c r="B96" s="15"/>
       <c r="C96" s="65"/>
@@ -15038,7 +15119,7 @@
       <c r="IL96" s="41"/>
       <c r="IM96" s="41"/>
     </row>
-    <row r="97" spans="1:247" ht="15" customHeight="1">
+    <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49"/>
       <c r="B97" s="15"/>
       <c r="C97" s="65"/>
@@ -15287,7 +15368,7 @@
       <c r="IL97" s="41"/>
       <c r="IM97" s="41"/>
     </row>
-    <row r="98" spans="1:247" ht="15" customHeight="1">
+    <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49"/>
       <c r="B98" s="15"/>
       <c r="C98" s="65"/>
@@ -15536,7 +15617,7 @@
       <c r="IL98" s="41"/>
       <c r="IM98" s="41"/>
     </row>
-    <row r="99" spans="1:247" ht="15" customHeight="1">
+    <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49"/>
       <c r="B99" s="15"/>
       <c r="C99" s="65"/>
@@ -15785,7 +15866,7 @@
       <c r="IL99" s="41"/>
       <c r="IM99" s="41"/>
     </row>
-    <row r="100" spans="1:247" ht="15" customHeight="1">
+    <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49"/>
       <c r="B100" s="15"/>
       <c r="C100" s="65"/>
@@ -16034,7 +16115,7 @@
       <c r="IL100"/>
       <c r="IM100"/>
     </row>
-    <row r="101" spans="1:247" ht="15" customHeight="1">
+    <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49"/>
       <c r="B101" s="15"/>
       <c r="C101" s="65"/>
@@ -16283,7 +16364,7 @@
       <c r="IL101" s="41"/>
       <c r="IM101" s="41"/>
     </row>
-    <row r="102" spans="1:247" ht="15" customHeight="1">
+    <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49"/>
       <c r="B102" s="15"/>
       <c r="C102" s="65"/>
@@ -16532,7 +16613,7 @@
       <c r="IL102" s="41"/>
       <c r="IM102" s="41"/>
     </row>
-    <row r="103" spans="1:247" ht="15" customHeight="1">
+    <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49"/>
       <c r="B103" s="15"/>
       <c r="C103" s="65"/>
@@ -16781,7 +16862,7 @@
       <c r="IL103" s="41"/>
       <c r="IM103" s="41"/>
     </row>
-    <row r="104" spans="1:247" ht="15" customHeight="1">
+    <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
       <c r="B104" s="15"/>
       <c r="C104" s="65"/>
@@ -17030,7 +17111,7 @@
       <c r="IL104" s="41"/>
       <c r="IM104" s="41"/>
     </row>
-    <row r="105" spans="1:247" ht="15" customHeight="1">
+    <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
       <c r="B105" s="15"/>
       <c r="C105" s="65"/>
@@ -17279,7 +17360,7 @@
       <c r="IL105" s="41"/>
       <c r="IM105" s="41"/>
     </row>
-    <row r="106" spans="1:247" ht="15" customHeight="1">
+    <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49"/>
       <c r="B106" s="15"/>
       <c r="C106" s="65"/>
@@ -17528,7 +17609,7 @@
       <c r="IL106" s="41"/>
       <c r="IM106" s="41"/>
     </row>
-    <row r="107" spans="1:247" ht="15" customHeight="1">
+    <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49"/>
       <c r="B107" s="15"/>
       <c r="C107" s="65"/>
@@ -17777,7 +17858,7 @@
       <c r="IL107" s="41"/>
       <c r="IM107" s="41"/>
     </row>
-    <row r="108" spans="1:247" ht="15" customHeight="1">
+    <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49"/>
       <c r="B108" s="15"/>
       <c r="C108" s="65"/>
@@ -18026,7 +18107,7 @@
       <c r="IL108" s="41"/>
       <c r="IM108" s="41"/>
     </row>
-    <row r="109" spans="1:247" ht="15" customHeight="1">
+    <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49"/>
       <c r="B109" s="15"/>
       <c r="C109" s="65"/>
@@ -18275,7 +18356,7 @@
       <c r="IL109" s="41"/>
       <c r="IM109" s="41"/>
     </row>
-    <row r="110" spans="1:247" ht="15" customHeight="1">
+    <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
       <c r="B110" s="15"/>
       <c r="C110" s="65"/>
@@ -18524,7 +18605,7 @@
       <c r="IL110" s="41"/>
       <c r="IM110" s="41"/>
     </row>
-    <row r="111" spans="1:247" ht="15" customHeight="1">
+    <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49"/>
       <c r="B111" s="15"/>
       <c r="C111" s="65"/>
@@ -18773,7 +18854,7 @@
       <c r="IL111" s="41"/>
       <c r="IM111" s="41"/>
     </row>
-    <row r="112" spans="1:247" ht="15" customHeight="1">
+    <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49"/>
       <c r="B112" s="15"/>
       <c r="C112" s="65"/>
@@ -19022,7 +19103,7 @@
       <c r="IL112" s="41"/>
       <c r="IM112" s="41"/>
     </row>
-    <row r="113" spans="1:247" ht="15" customHeight="1">
+    <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49"/>
       <c r="B113" s="15"/>
       <c r="C113" s="65"/>
@@ -19271,7 +19352,7 @@
       <c r="IL113" s="41"/>
       <c r="IM113" s="41"/>
     </row>
-    <row r="114" spans="1:247" ht="15" customHeight="1">
+    <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49"/>
       <c r="B114" s="15"/>
       <c r="C114" s="65"/>
@@ -19520,7 +19601,7 @@
       <c r="IL114" s="41"/>
       <c r="IM114" s="41"/>
     </row>
-    <row r="115" spans="1:247" ht="15" customHeight="1">
+    <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="49"/>
       <c r="B115" s="15"/>
       <c r="C115" s="65"/>
@@ -19769,7 +19850,7 @@
       <c r="IL115" s="41"/>
       <c r="IM115" s="41"/>
     </row>
-    <row r="116" spans="1:247" ht="15" customHeight="1">
+    <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
       <c r="B116" s="15"/>
       <c r="C116" s="65"/>
@@ -20018,7 +20099,7 @@
       <c r="IL116" s="41"/>
       <c r="IM116" s="41"/>
     </row>
-    <row r="117" spans="1:247" ht="15" customHeight="1">
+    <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49"/>
       <c r="B117" s="15"/>
       <c r="C117" s="65"/>
@@ -20267,7 +20348,7 @@
       <c r="IL117" s="41"/>
       <c r="IM117" s="41"/>
     </row>
-    <row r="118" spans="1:247" ht="15" customHeight="1">
+    <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49"/>
       <c r="B118" s="15"/>
       <c r="C118" s="65"/>
@@ -20516,7 +20597,7 @@
       <c r="IL118" s="41"/>
       <c r="IM118" s="41"/>
     </row>
-    <row r="119" spans="1:247" ht="15" customHeight="1">
+    <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49"/>
       <c r="B119" s="15"/>
       <c r="C119" s="65"/>
@@ -20765,7 +20846,7 @@
       <c r="IL119" s="41"/>
       <c r="IM119" s="41"/>
     </row>
-    <row r="120" spans="1:247" ht="15" customHeight="1">
+    <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49"/>
       <c r="B120" s="45"/>
       <c r="C120" s="65"/>
@@ -21014,7 +21095,7 @@
       <c r="IL120" s="41"/>
       <c r="IM120" s="41"/>
     </row>
-    <row r="121" spans="1:247" ht="15" customHeight="1">
+    <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49"/>
       <c r="B121" s="15"/>
       <c r="C121" s="65"/>
@@ -21263,7 +21344,7 @@
       <c r="IL121" s="41"/>
       <c r="IM121" s="41"/>
     </row>
-    <row r="122" spans="1:247" ht="15" customHeight="1">
+    <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49"/>
       <c r="B122" s="15"/>
       <c r="C122" s="65"/>
@@ -21512,7 +21593,7 @@
       <c r="IL122" s="41"/>
       <c r="IM122" s="41"/>
     </row>
-    <row r="123" spans="1:247" ht="15" customHeight="1">
+    <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49"/>
       <c r="B123" s="15"/>
       <c r="C123" s="65"/>
@@ -21761,7 +21842,7 @@
       <c r="IL123" s="41"/>
       <c r="IM123" s="41"/>
     </row>
-    <row r="124" spans="1:247" ht="15" customHeight="1">
+    <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49"/>
       <c r="B124" s="15"/>
       <c r="C124" s="65"/>
@@ -22010,7 +22091,7 @@
       <c r="IL124" s="41"/>
       <c r="IM124" s="41"/>
     </row>
-    <row r="125" spans="1:247" ht="15" customHeight="1">
+    <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="49"/>
       <c r="B125" s="15"/>
       <c r="C125" s="65"/>
@@ -22259,7 +22340,7 @@
       <c r="IL125" s="41"/>
       <c r="IM125" s="41"/>
     </row>
-    <row r="126" spans="1:247" ht="15" customHeight="1">
+    <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49"/>
       <c r="B126" s="15"/>
       <c r="C126" s="65"/>
@@ -22508,7 +22589,7 @@
       <c r="IL126" s="41"/>
       <c r="IM126" s="41"/>
     </row>
-    <row r="127" spans="1:247" ht="15" customHeight="1">
+    <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49"/>
       <c r="B127" s="15"/>
       <c r="C127" s="65"/>
@@ -22757,7 +22838,7 @@
       <c r="IL127" s="41"/>
       <c r="IM127" s="41"/>
     </row>
-    <row r="128" spans="1:247" ht="15" customHeight="1">
+    <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49"/>
       <c r="B128" s="15"/>
       <c r="C128" s="65"/>
@@ -23006,7 +23087,7 @@
       <c r="IL128" s="41"/>
       <c r="IM128" s="41"/>
     </row>
-    <row r="129" spans="1:247" ht="15" customHeight="1">
+    <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="49"/>
       <c r="B129" s="15"/>
       <c r="C129" s="65"/>
@@ -23255,7 +23336,7 @@
       <c r="IL129" s="41"/>
       <c r="IM129" s="41"/>
     </row>
-    <row r="130" spans="1:247" ht="15" customHeight="1">
+    <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="15"/>
       <c r="C130" s="65"/>
@@ -23504,7 +23585,7 @@
       <c r="IL130" s="41"/>
       <c r="IM130" s="41"/>
     </row>
-    <row r="131" spans="1:247" ht="15" customHeight="1">
+    <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="49"/>
       <c r="B131" s="15"/>
       <c r="C131" s="65"/>
@@ -23753,7 +23834,7 @@
       <c r="IL131" s="41"/>
       <c r="IM131" s="41"/>
     </row>
-    <row r="132" spans="1:247" ht="15" customHeight="1">
+    <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49"/>
       <c r="B132" s="15"/>
       <c r="C132" s="65"/>
@@ -24002,7 +24083,7 @@
       <c r="IL132" s="41"/>
       <c r="IM132" s="41"/>
     </row>
-    <row r="133" spans="1:247" ht="15" customHeight="1">
+    <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49"/>
       <c r="B133" s="15"/>
       <c r="C133" s="65"/>
@@ -24251,7 +24332,7 @@
       <c r="IL133" s="41"/>
       <c r="IM133" s="41"/>
     </row>
-    <row r="134" spans="1:247" ht="15" customHeight="1">
+    <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="B134" s="15"/>
       <c r="C134" s="65"/>
@@ -24500,7 +24581,7 @@
       <c r="IL134" s="41"/>
       <c r="IM134" s="41"/>
     </row>
-    <row r="135" spans="1:247" ht="15" customHeight="1">
+    <row r="135" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="B135" s="15"/>
       <c r="C135" s="65"/>
@@ -24749,7 +24830,7 @@
       <c r="IL135" s="41"/>
       <c r="IM135" s="41"/>
     </row>
-    <row r="136" spans="1:247" ht="15" customHeight="1">
+    <row r="136" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="B136" s="15"/>
       <c r="C136" s="65"/>
@@ -24998,7 +25079,7 @@
       <c r="IL136" s="41"/>
       <c r="IM136" s="41"/>
     </row>
-    <row r="137" spans="1:247" ht="15" customHeight="1">
+    <row r="137" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="49"/>
       <c r="B137" s="15"/>
       <c r="C137" s="65"/>
@@ -25247,7 +25328,7 @@
       <c r="IL137" s="41"/>
       <c r="IM137" s="41"/>
     </row>
-    <row r="138" spans="1:247" ht="15" customHeight="1">
+    <row r="138" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
       <c r="B138" s="15"/>
       <c r="C138" s="65"/>
@@ -25496,7 +25577,7 @@
       <c r="IL138" s="41"/>
       <c r="IM138" s="41"/>
     </row>
-    <row r="139" spans="1:247" ht="15" customHeight="1">
+    <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
       <c r="B139" s="15"/>
       <c r="C139" s="65"/>
@@ -25745,7 +25826,7 @@
       <c r="IL139" s="41"/>
       <c r="IM139" s="41"/>
     </row>
-    <row r="140" spans="1:247" ht="15" customHeight="1">
+    <row r="140" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
       <c r="B140" s="15"/>
       <c r="C140" s="65"/>
@@ -25994,7 +26075,7 @@
       <c r="IL140" s="41"/>
       <c r="IM140" s="41"/>
     </row>
-    <row r="141" spans="1:247" ht="15" customHeight="1">
+    <row r="141" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49"/>
       <c r="B141" s="15"/>
       <c r="C141" s="65"/>
@@ -26243,7 +26324,7 @@
       <c r="IL141" s="41"/>
       <c r="IM141" s="41"/>
     </row>
-    <row r="142" spans="1:247" ht="15" customHeight="1">
+    <row r="142" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="15"/>
       <c r="C142" s="65"/>
@@ -26492,7 +26573,7 @@
       <c r="IL142" s="41"/>
       <c r="IM142" s="41"/>
     </row>
-    <row r="143" spans="1:247" ht="15" customHeight="1">
+    <row r="143" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
       <c r="B143" s="15"/>
       <c r="C143" s="65"/>
@@ -26741,7 +26822,7 @@
       <c r="IL143" s="41"/>
       <c r="IM143" s="41"/>
     </row>
-    <row r="144" spans="1:247" ht="15" customHeight="1">
+    <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49"/>
       <c r="B144" s="15"/>
       <c r="C144" s="65"/>
@@ -26990,7 +27071,7 @@
       <c r="IL144" s="41"/>
       <c r="IM144" s="41"/>
     </row>
-    <row r="145" spans="1:247" ht="15" customHeight="1">
+    <row r="145" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
       <c r="B145" s="15"/>
       <c r="C145" s="65"/>
@@ -27239,7 +27320,7 @@
       <c r="IL145" s="41"/>
       <c r="IM145" s="41"/>
     </row>
-    <row r="146" spans="1:247" ht="15" customHeight="1">
+    <row r="146" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
       <c r="B146" s="15"/>
       <c r="C146" s="65"/>
@@ -27488,7 +27569,7 @@
       <c r="IL146" s="41"/>
       <c r="IM146" s="41"/>
     </row>
-    <row r="147" spans="1:247" ht="15" customHeight="1">
+    <row r="147" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49"/>
       <c r="B147" s="45"/>
       <c r="C147" s="65"/>
@@ -27737,7 +27818,7 @@
       <c r="IL147" s="41"/>
       <c r="IM147" s="41"/>
     </row>
-    <row r="148" spans="1:247" ht="15" customHeight="1">
+    <row r="148" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49"/>
       <c r="B148" s="15"/>
       <c r="C148" s="65"/>
@@ -27986,7 +28067,7 @@
       <c r="IL148" s="41"/>
       <c r="IM148" s="41"/>
     </row>
-    <row r="149" spans="1:247" ht="15" customHeight="1">
+    <row r="149" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49"/>
       <c r="B149" s="15"/>
       <c r="C149" s="65"/>
@@ -28235,7 +28316,7 @@
       <c r="IL149" s="41"/>
       <c r="IM149" s="41"/>
     </row>
-    <row r="150" spans="1:247" ht="15" customHeight="1">
+    <row r="150" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="15"/>
       <c r="C150" s="65"/>
@@ -28484,7 +28565,7 @@
       <c r="IL150" s="41"/>
       <c r="IM150" s="41"/>
     </row>
-    <row r="151" spans="1:247" ht="15" customHeight="1">
+    <row r="151" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="15"/>
       <c r="C151" s="65"/>
@@ -28733,7 +28814,7 @@
       <c r="IL151" s="41"/>
       <c r="IM151" s="41"/>
     </row>
-    <row r="152" spans="1:247" ht="15" customHeight="1">
+    <row r="152" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="15"/>
       <c r="C152" s="65"/>
@@ -28982,7 +29063,7 @@
       <c r="IL152" s="41"/>
       <c r="IM152" s="41"/>
     </row>
-    <row r="153" spans="1:247" ht="15" customHeight="1">
+    <row r="153" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="15"/>
       <c r="C153" s="65"/>
@@ -29231,7 +29312,7 @@
       <c r="IL153" s="41"/>
       <c r="IM153" s="41"/>
     </row>
-    <row r="154" spans="1:247" ht="15" customHeight="1">
+    <row r="154" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="15"/>
       <c r="C154" s="65"/>
@@ -29480,7 +29561,7 @@
       <c r="IL154" s="41"/>
       <c r="IM154" s="41"/>
     </row>
-    <row r="155" spans="1:247" ht="15" customHeight="1">
+    <row r="155" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="15"/>
       <c r="C155" s="65"/>
@@ -29729,7 +29810,7 @@
       <c r="IL155" s="41"/>
       <c r="IM155" s="41"/>
     </row>
-    <row r="156" spans="1:247" ht="15" customHeight="1">
+    <row r="156" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="49"/>
       <c r="B156" s="15"/>
       <c r="C156" s="65"/>
@@ -29978,7 +30059,7 @@
       <c r="IL156" s="41"/>
       <c r="IM156" s="41"/>
     </row>
-    <row r="157" spans="1:247" ht="15" customHeight="1">
+    <row r="157" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="15"/>
       <c r="C157" s="65"/>
@@ -30227,7 +30308,7 @@
       <c r="IL157" s="41"/>
       <c r="IM157" s="41"/>
     </row>
-    <row r="158" spans="1:247" ht="15" customHeight="1">
+    <row r="158" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="15"/>
       <c r="C158" s="65"/>
@@ -30476,7 +30557,7 @@
       <c r="IL158" s="41"/>
       <c r="IM158" s="41"/>
     </row>
-    <row r="159" spans="1:247" ht="15" customHeight="1">
+    <row r="159" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="15"/>
       <c r="C159" s="65"/>
@@ -30725,7 +30806,7 @@
       <c r="IL159" s="41"/>
       <c r="IM159" s="41"/>
     </row>
-    <row r="160" spans="1:247" ht="15" customHeight="1">
+    <row r="160" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
       <c r="B160" s="15"/>
       <c r="C160" s="65"/>
@@ -30974,7 +31055,7 @@
       <c r="IL160" s="41"/>
       <c r="IM160" s="41"/>
     </row>
-    <row r="161" spans="1:247" ht="15" customHeight="1">
+    <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
       <c r="B161" s="15"/>
       <c r="C161" s="65"/>
@@ -31223,7 +31304,7 @@
       <c r="IL161" s="41"/>
       <c r="IM161" s="41"/>
     </row>
-    <row r="162" spans="1:247" ht="15" customHeight="1">
+    <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
       <c r="B162" s="15"/>
       <c r="C162" s="65"/>
@@ -31472,7 +31553,7 @@
       <c r="IL162" s="41"/>
       <c r="IM162" s="41"/>
     </row>
-    <row r="163" spans="1:247" ht="15" customHeight="1">
+    <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
       <c r="B163" s="15"/>
       <c r="C163" s="65"/>
@@ -31721,7 +31802,7 @@
       <c r="IL163" s="41"/>
       <c r="IM163" s="41"/>
     </row>
-    <row r="164" spans="1:247" ht="15" customHeight="1">
+    <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="49"/>
       <c r="B164" s="15"/>
       <c r="C164" s="65"/>
@@ -31970,7 +32051,7 @@
       <c r="IL164" s="41"/>
       <c r="IM164" s="41"/>
     </row>
-    <row r="165" spans="1:247" ht="15" customHeight="1">
+    <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="15"/>
       <c r="C165" s="65"/>
@@ -32219,7 +32300,7 @@
       <c r="IL165" s="41"/>
       <c r="IM165" s="41"/>
     </row>
-    <row r="166" spans="1:247" ht="15" customHeight="1">
+    <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="15"/>
       <c r="C166" s="65"/>
@@ -32468,7 +32549,7 @@
       <c r="IL166" s="41"/>
       <c r="IM166" s="41"/>
     </row>
-    <row r="167" spans="1:247" ht="15" customHeight="1">
+    <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="15"/>
       <c r="C167" s="65"/>
@@ -32717,7 +32798,7 @@
       <c r="IL167" s="41"/>
       <c r="IM167" s="41"/>
     </row>
-    <row r="168" spans="1:247" ht="15" customHeight="1">
+    <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49"/>
       <c r="B168" s="45"/>
       <c r="C168" s="65"/>
@@ -32966,7 +33047,7 @@
       <c r="IL168" s="41"/>
       <c r="IM168" s="41"/>
     </row>
-    <row r="169" spans="1:247" ht="15" customHeight="1">
+    <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="15"/>
       <c r="C169" s="65"/>
@@ -33215,7 +33296,7 @@
       <c r="IL169" s="41"/>
       <c r="IM169" s="41"/>
     </row>
-    <row r="170" spans="1:247" ht="15" customHeight="1">
+    <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="31" t="s">
         <v>16</v>
@@ -33229,7 +33310,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-1231.04</v>
+        <v>-1960.61</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -33248,7 +33329,7 @@
       <c r="M170" s="2"/>
       <c r="IM170"/>
     </row>
-    <row r="171" spans="1:247" ht="15" customHeight="1">
+    <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="50"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -33497,7 +33578,7 @@
       <c r="IL171" s="41"/>
       <c r="IM171" s="41"/>
     </row>
-    <row r="172" spans="1:247" ht="15" customHeight="1">
+    <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="50"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -33746,7 +33827,7 @@
       <c r="IL172" s="41"/>
       <c r="IM172" s="41"/>
     </row>
-    <row r="173" spans="1:247" ht="15" customHeight="1">
+    <row r="173" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="50"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -33995,7 +34076,7 @@
       <c r="IL173" s="41"/>
       <c r="IM173" s="41"/>
     </row>
-    <row r="174" spans="1:247" ht="15" customHeight="1">
+    <row r="174" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="50"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -34010,7 +34091,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="1:247" ht="15" customHeight="1">
+    <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="50"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -34259,7 +34340,7 @@
       <c r="IL175" s="41"/>
       <c r="IM175" s="41"/>
     </row>
-    <row r="176" spans="1:247" ht="15" customHeight="1">
+    <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="50"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -34274,7 +34355,7 @@
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="1:13" ht="15" customHeight="1">
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="50"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -34289,7 +34370,7 @@
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="1:13" ht="15" customHeight="1">
+    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="50"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -34304,7 +34385,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="1:13" ht="15" customHeight="1">
+    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="50"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -34319,7 +34400,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:13" ht="15" customHeight="1">
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="50"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -34334,7 +34415,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="1:13" ht="15" customHeight="1">
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="50"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -34349,7 +34430,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:13" ht="15" customHeight="1">
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="50"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -34364,7 +34445,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="1:13" ht="15" customHeight="1">
+    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="50"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -34379,7 +34460,7 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" ht="15" customHeight="1">
+    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="50"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -34394,7 +34475,7 @@
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="1:13" ht="15" customHeight="1">
+    <row r="185" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="50"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -34409,7 +34490,7 @@
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="1:13" ht="15" customHeight="1">
+    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="50"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -34424,7 +34505,7 @@
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="1:13" ht="15" customHeight="1">
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="50"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -34439,7 +34520,7 @@
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" ht="15" customHeight="1">
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="50"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -34454,7 +34535,7 @@
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13" ht="15" customHeight="1">
+    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="50"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -34469,7 +34550,7 @@
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13" ht="15" customHeight="1">
+    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="50"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -34484,7 +34565,7 @@
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:13" ht="15" customHeight="1">
+    <row r="191" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="50"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -34499,7 +34580,7 @@
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="1:13" ht="15" customHeight="1">
+    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="50"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -34514,7 +34595,7 @@
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="1:13" ht="15" customHeight="1">
+    <row r="193" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="50"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -34529,7 +34610,7 @@
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="1:13" ht="15" customHeight="1">
+    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="50"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -34544,7 +34625,7 @@
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="1:13" ht="15" customHeight="1">
+    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="50"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -34559,7 +34640,7 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="1:13" ht="15" customHeight="1">
+    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="50"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -34574,7 +34655,7 @@
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="1:13" ht="15" customHeight="1">
+    <row r="197" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="50"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -34589,7 +34670,7 @@
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="1:13" ht="15" customHeight="1">
+    <row r="198" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="50"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -34604,7 +34685,7 @@
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="1:13" ht="15" customHeight="1">
+    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="50"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -34619,7 +34700,7 @@
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="1:13" ht="15" customHeight="1">
+    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="50"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -34634,7 +34715,7 @@
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="1:13" ht="15" customHeight="1">
+    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="50"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -34649,7 +34730,7 @@
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="1:13" ht="15" customHeight="1">
+    <row r="202" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="50"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -34664,7 +34745,7 @@
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="1:13" ht="15" customHeight="1">
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="50"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -34679,7 +34760,7 @@
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="1:13" ht="15" customHeight="1">
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="50"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -34694,7 +34775,7 @@
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="1:13" ht="15" customHeight="1">
+    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="50"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -34709,7 +34790,7 @@
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="1:13" ht="15" customHeight="1">
+    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="50"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -34724,7 +34805,7 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="1:13" ht="15" customHeight="1">
+    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="50"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -34739,7 +34820,7 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="1:13" ht="15" customHeight="1">
+    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="50"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -34754,7 +34835,7 @@
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="1:13" ht="15" customHeight="1">
+    <row r="209" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="50"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -34769,7 +34850,7 @@
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="1:13" ht="15" customHeight="1">
+    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="50"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -34784,7 +34865,7 @@
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="1:13" ht="15" customHeight="1">
+    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="50"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -34799,7 +34880,7 @@
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="1:13" ht="15" customHeight="1">
+    <row r="212" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="50"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -34814,7 +34895,7 @@
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="1:13" ht="15" customHeight="1">
+    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="50"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -34829,7 +34910,7 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="1:13" ht="15" customHeight="1">
+    <row r="214" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="50"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -34844,7 +34925,7 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="1:13" ht="15" customHeight="1">
+    <row r="215" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="50"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -34859,7 +34940,7 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="1:13" ht="15" customHeight="1">
+    <row r="216" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="50"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -34874,7 +34955,7 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="1:13" ht="15" customHeight="1">
+    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="50"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -34889,7 +34970,7 @@
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="1:13" ht="15" customHeight="1">
+    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="50"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -34904,7 +34985,7 @@
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="1:13" ht="15" customHeight="1">
+    <row r="219" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="50"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -34919,7 +35000,7 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="1:13" ht="15" customHeight="1">
+    <row r="220" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="50"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -34934,7 +35015,7 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="1:13" ht="15" customHeight="1">
+    <row r="221" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="50"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -34949,7 +35030,7 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" spans="1:13" ht="15" customHeight="1">
+    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="50"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -34964,7 +35045,7 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" spans="1:13" ht="15" customHeight="1">
+    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="50"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -34979,7 +35060,7 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" spans="1:13" ht="15" customHeight="1">
+    <row r="224" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="50"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -34994,7 +35075,7 @@
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" spans="1:13" ht="15" customHeight="1">
+    <row r="225" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="50"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -35009,7 +35090,7 @@
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="1:13" ht="15" customHeight="1">
+    <row r="226" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="50"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -35024,7 +35105,7 @@
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="1:13" ht="15" customHeight="1">
+    <row r="227" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="50"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -35039,7 +35120,7 @@
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" spans="1:13" ht="15" customHeight="1">
+    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="50"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -35054,7 +35135,7 @@
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" spans="1:13" ht="15" customHeight="1">
+    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="50"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -35069,7 +35150,7 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="1:13" ht="15" customHeight="1">
+    <row r="230" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="50"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -35084,7 +35165,7 @@
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" spans="1:13" ht="15" customHeight="1">
+    <row r="231" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="50"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -35099,7 +35180,7 @@
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" spans="1:13" ht="15" customHeight="1">
+    <row r="232" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="50"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -35114,7 +35195,7 @@
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" spans="1:13" ht="15" customHeight="1">
+    <row r="233" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="50"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -35129,7 +35210,7 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="1:13" ht="15" customHeight="1">
+    <row r="234" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="50"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -35144,14 +35225,14 @@
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" spans="1:13" ht="15" customHeight="1">
+    <row r="235" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="50"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
       <c r="I235" s="19"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:13" ht="15" customHeight="1">
+    <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
       <c r="I236" s="19"/>
     </row>
@@ -35159,8 +35240,23 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E169 C106:C235 B106:B236 A3:A235">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A235 E49:E169">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35179,80 +35275,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -35269,80 +35365,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="256" width="10.85546875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="110">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -309,6 +309,51 @@
   </si>
   <si>
     <t>Wasser</t>
+  </si>
+  <si>
+    <t>Rechnung nicht Auffindbar, H.Steinfurt?!</t>
+  </si>
+  <si>
+    <t>Adressänderung</t>
+  </si>
+  <si>
+    <t>Enbw</t>
+  </si>
+  <si>
+    <t>Awo bb</t>
+  </si>
+  <si>
+    <t>wasser wabu</t>
+  </si>
+  <si>
+    <t>miete wabu</t>
+  </si>
+  <si>
+    <t>vereinsring</t>
+  </si>
+  <si>
+    <t>awo württemberg</t>
+  </si>
+  <si>
+    <t>telekom</t>
+  </si>
+  <si>
+    <t>wgv</t>
+  </si>
+  <si>
+    <t>gez</t>
+  </si>
+  <si>
+    <t>Zinsen Awo BB</t>
+  </si>
+  <si>
+    <t>Telekom</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>alex</t>
   </si>
 </sst>
 </file>
@@ -672,7 +717,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1902,8 +1967,8 @@
   <dimension ref="A1:IK168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2584,12 +2649,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="45">
+        <v>43206</v>
+      </c>
+      <c r="B28" s="16">
+        <v>25</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>55</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="20"/>
@@ -2597,12 +2672,22 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="45">
+        <v>43206</v>
+      </c>
+      <c r="B29" s="16">
+        <v>26</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19">
+        <v>250</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="20"/>
@@ -3584,7 +3669,7 @@
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
-        <v>3367.8200000000065</v>
+        <v>3672.8200000000065</v>
       </c>
       <c r="G104" s="29">
         <f>SUM(G3:G103)</f>
@@ -3627,7 +3712,7 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>1407.2100000000066</v>
+        <v>1677.4500000000066</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -3665,7 +3750,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5655.6800000000076</v>
+        <v>5925.9200000000083</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4459,8 +4544,23 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G103 H4:I103">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 D30:G103 E28:G28 G29">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4488,8 +4588,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5512,7 +5613,9 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
       <c r="J39" s="23"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
@@ -5537,9 +5640,13 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
@@ -5562,7 +5669,9 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="23"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
@@ -5587,9 +5696,13 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="23"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
@@ -5612,9 +5725,13 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
@@ -5637,9 +5754,13 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
@@ -5659,10 +5780,14 @@
       <c r="G45" s="22">
         <v>-407.57</v>
       </c>
-      <c r="H45" s="22"/>
+      <c r="H45" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="I45" s="22"/>
       <c r="J45" s="23"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
@@ -5684,12 +5809,18 @@
       <c r="G46" s="22">
         <v>-30</v>
       </c>
-      <c r="H46" s="22"/>
+      <c r="H46" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="I46" s="22"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
@@ -5712,7 +5843,9 @@
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
@@ -5737,18 +5870,30 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="15">
+        <v>43206</v>
+      </c>
+      <c r="C49" s="65">
+        <v>47</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
+      <c r="G49" s="22">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="23"/>
@@ -5758,12 +5903,22 @@
     </row>
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="20"/>
+      <c r="B50" s="15">
+        <v>43208</v>
+      </c>
+      <c r="C50" s="65">
+        <v>48</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="G50" s="22">
+        <v>-17.27</v>
+      </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="23"/>
@@ -33310,7 +33465,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-1960.61</v>
+        <v>-1995.37</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -35240,23 +35395,33 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A235 E49:E169">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A235 E51:E169">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -347,13 +347,31 @@
     <t>Zinsen Awo BB</t>
   </si>
   <si>
-    <t>Telekom</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
     <t>alex</t>
+  </si>
+  <si>
+    <t>Miete Mai 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 10.04.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 17.04.2018</t>
+  </si>
+  <si>
+    <t>Trauerfall Weingart 20.4.2018</t>
+  </si>
+  <si>
+    <t>Jubiläum Fr.Lustig 11.4.2018</t>
+  </si>
+  <si>
+    <t>Fahrtgeld Alex</t>
+  </si>
+  <si>
+    <t>Telekom April</t>
   </si>
 </sst>
 </file>
@@ -717,7 +735,127 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1967,8 +2105,8 @@
   <dimension ref="A1:IK168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2695,11 +2833,21 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18"/>
+      <c r="A30" s="15">
+        <v>43223</v>
+      </c>
+      <c r="B30" s="16">
+        <v>27</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>173.9</v>
+      </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -2708,11 +2856,21 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="15">
+        <v>43223</v>
+      </c>
+      <c r="B31" s="65">
+        <v>28</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>227.11</v>
+      </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -2721,11 +2879,21 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="15">
+        <v>43223</v>
+      </c>
+      <c r="B32" s="16">
+        <v>29</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>36.200000000000003</v>
+      </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -3665,7 +3833,7 @@
       <c r="D104" s="27"/>
       <c r="E104" s="28">
         <f>SUM(E3:E103)</f>
-        <v>2322.880000000001</v>
+        <v>2760.0900000000011</v>
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
@@ -3708,11 +3876,11 @@
       <c r="D106" s="56"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>168.6800000000012</v>
+        <v>462.98000000000138</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>1677.4500000000066</v>
+        <v>829.76000000000658</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -3750,7 +3918,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5925.9200000000083</v>
+        <v>5372.5300000000079</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4544,23 +4712,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 D30:G103 E28:G28 G29">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 D33:G103 E28:G28 G29 E30:G32">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4589,8 +4772,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5645,7 +5828,7 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5701,7 +5884,7 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,7 +5913,7 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5759,7 +5942,7 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,7 +6002,7 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,7 +6093,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>22</v>
@@ -5928,12 +6111,22 @@
     </row>
     <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="20"/>
+      <c r="B51" s="15">
+        <v>43222</v>
+      </c>
+      <c r="C51" s="65">
+        <v>49</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="G51" s="22">
+        <v>-12</v>
+      </c>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="23"/>
@@ -5943,12 +6136,22 @@
     </row>
     <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="20"/>
+      <c r="B52" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C52" s="65">
+        <v>50</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="G52" s="22">
+        <v>-280</v>
+      </c>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="23"/>
@@ -5958,12 +6161,22 @@
     </row>
     <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="20"/>
+      <c r="B53" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C53" s="65">
+        <v>51</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="G53" s="22">
+        <v>-55.69</v>
+      </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="23"/>
@@ -5973,11 +6186,21 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="21"/>
+      <c r="B54" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C54" s="65">
+        <v>52</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21">
+        <v>-46</v>
+      </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -5985,14 +6208,258 @@
       <c r="K54" s="4"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="41"/>
+      <c r="AI54" s="41"/>
+      <c r="AJ54" s="41"/>
+      <c r="AK54" s="41"/>
+      <c r="AL54" s="41"/>
+      <c r="AM54" s="41"/>
+      <c r="AN54" s="41"/>
+      <c r="AO54" s="41"/>
+      <c r="AP54" s="41"/>
+      <c r="AQ54" s="41"/>
+      <c r="AR54" s="41"/>
+      <c r="AS54" s="41"/>
+      <c r="AT54" s="41"/>
+      <c r="AU54" s="41"/>
+      <c r="AV54" s="41"/>
+      <c r="AW54" s="41"/>
+      <c r="AX54" s="41"/>
+      <c r="AY54" s="41"/>
+      <c r="AZ54" s="41"/>
+      <c r="BA54" s="41"/>
+      <c r="BB54" s="41"/>
+      <c r="BC54" s="41"/>
+      <c r="BD54" s="41"/>
+      <c r="BE54" s="41"/>
+      <c r="BF54" s="41"/>
+      <c r="BG54" s="41"/>
+      <c r="BH54" s="41"/>
+      <c r="BI54" s="41"/>
+      <c r="BJ54" s="41"/>
+      <c r="BK54" s="41"/>
+      <c r="BL54" s="41"/>
+      <c r="BM54" s="41"/>
+      <c r="BN54" s="41"/>
+      <c r="BO54" s="41"/>
+      <c r="BP54" s="41"/>
+      <c r="BQ54" s="41"/>
+      <c r="BR54" s="41"/>
+      <c r="BS54" s="41"/>
+      <c r="BT54" s="41"/>
+      <c r="BU54" s="41"/>
+      <c r="BV54" s="41"/>
+      <c r="BW54" s="41"/>
+      <c r="BX54" s="41"/>
+      <c r="BY54" s="41"/>
+      <c r="BZ54" s="41"/>
+      <c r="CA54" s="41"/>
+      <c r="CB54" s="41"/>
+      <c r="CC54" s="41"/>
+      <c r="CD54" s="41"/>
+      <c r="CE54" s="41"/>
+      <c r="CF54" s="41"/>
+      <c r="CG54" s="41"/>
+      <c r="CH54" s="41"/>
+      <c r="CI54" s="41"/>
+      <c r="CJ54" s="41"/>
+      <c r="CK54" s="41"/>
+      <c r="CL54" s="41"/>
+      <c r="CM54" s="41"/>
+      <c r="CN54" s="41"/>
+      <c r="CO54" s="41"/>
+      <c r="CP54" s="41"/>
+      <c r="CQ54" s="41"/>
+      <c r="CR54" s="41"/>
+      <c r="CS54" s="41"/>
+      <c r="CT54" s="41"/>
+      <c r="CU54" s="41"/>
+      <c r="CV54" s="41"/>
+      <c r="CW54" s="41"/>
+      <c r="CX54" s="41"/>
+      <c r="CY54" s="41"/>
+      <c r="CZ54" s="41"/>
+      <c r="DA54" s="41"/>
+      <c r="DB54" s="41"/>
+      <c r="DC54" s="41"/>
+      <c r="DD54" s="41"/>
+      <c r="DE54" s="41"/>
+      <c r="DF54" s="41"/>
+      <c r="DG54" s="41"/>
+      <c r="DH54" s="41"/>
+      <c r="DI54" s="41"/>
+      <c r="DJ54" s="41"/>
+      <c r="DK54" s="41"/>
+      <c r="DL54" s="41"/>
+      <c r="DM54" s="41"/>
+      <c r="DN54" s="41"/>
+      <c r="DO54" s="41"/>
+      <c r="DP54" s="41"/>
+      <c r="DQ54" s="41"/>
+      <c r="DR54" s="41"/>
+      <c r="DS54" s="41"/>
+      <c r="DT54" s="41"/>
+      <c r="DU54" s="41"/>
+      <c r="DV54" s="41"/>
+      <c r="DW54" s="41"/>
+      <c r="DX54" s="41"/>
+      <c r="DY54" s="41"/>
+      <c r="DZ54" s="41"/>
+      <c r="EA54" s="41"/>
+      <c r="EB54" s="41"/>
+      <c r="EC54" s="41"/>
+      <c r="ED54" s="41"/>
+      <c r="EE54" s="41"/>
+      <c r="EF54" s="41"/>
+      <c r="EG54" s="41"/>
+      <c r="EH54" s="41"/>
+      <c r="EI54" s="41"/>
+      <c r="EJ54" s="41"/>
+      <c r="EK54" s="41"/>
+      <c r="EL54" s="41"/>
+      <c r="EM54" s="41"/>
+      <c r="EN54" s="41"/>
+      <c r="EO54" s="41"/>
+      <c r="EP54" s="41"/>
+      <c r="EQ54" s="41"/>
+      <c r="ER54" s="41"/>
+      <c r="ES54" s="41"/>
+      <c r="ET54" s="41"/>
+      <c r="EU54" s="41"/>
+      <c r="EV54" s="41"/>
+      <c r="EW54" s="41"/>
+      <c r="EX54" s="41"/>
+      <c r="EY54" s="41"/>
+      <c r="EZ54" s="41"/>
+      <c r="FA54" s="41"/>
+      <c r="FB54" s="41"/>
+      <c r="FC54" s="41"/>
+      <c r="FD54" s="41"/>
+      <c r="FE54" s="41"/>
+      <c r="FF54" s="41"/>
+      <c r="FG54" s="41"/>
+      <c r="FH54" s="41"/>
+      <c r="FI54" s="41"/>
+      <c r="FJ54" s="41"/>
+      <c r="FK54" s="41"/>
+      <c r="FL54" s="41"/>
+      <c r="FM54" s="41"/>
+      <c r="FN54" s="41"/>
+      <c r="FO54" s="41"/>
+      <c r="FP54" s="41"/>
+      <c r="FQ54" s="41"/>
+      <c r="FR54" s="41"/>
+      <c r="FS54" s="41"/>
+      <c r="FT54" s="41"/>
+      <c r="FU54" s="41"/>
+      <c r="FV54" s="41"/>
+      <c r="FW54" s="41"/>
+      <c r="FX54" s="41"/>
+      <c r="FY54" s="41"/>
+      <c r="FZ54" s="41"/>
+      <c r="GA54" s="41"/>
+      <c r="GB54" s="41"/>
+      <c r="GC54" s="41"/>
+      <c r="GD54" s="41"/>
+      <c r="GE54" s="41"/>
+      <c r="GF54" s="41"/>
+      <c r="GG54" s="41"/>
+      <c r="GH54" s="41"/>
+      <c r="GI54" s="41"/>
+      <c r="GJ54" s="41"/>
+      <c r="GK54" s="41"/>
+      <c r="GL54" s="41"/>
+      <c r="GM54" s="41"/>
+      <c r="GN54" s="41"/>
+      <c r="GO54" s="41"/>
+      <c r="GP54" s="41"/>
+      <c r="GQ54" s="41"/>
+      <c r="GR54" s="41"/>
+      <c r="GS54" s="41"/>
+      <c r="GT54" s="41"/>
+      <c r="GU54" s="41"/>
+      <c r="GV54" s="41"/>
+      <c r="GW54" s="41"/>
+      <c r="GX54" s="41"/>
+      <c r="GY54" s="41"/>
+      <c r="GZ54" s="41"/>
+      <c r="HA54" s="41"/>
+      <c r="HB54" s="41"/>
+      <c r="HC54" s="41"/>
+      <c r="HD54" s="41"/>
+      <c r="HE54" s="41"/>
+      <c r="HF54" s="41"/>
+      <c r="HG54" s="41"/>
+      <c r="HH54" s="41"/>
+      <c r="HI54" s="41"/>
+      <c r="HJ54" s="41"/>
+      <c r="HK54" s="41"/>
+      <c r="HL54" s="41"/>
+      <c r="HM54" s="41"/>
+      <c r="HN54" s="41"/>
+      <c r="HO54" s="41"/>
+      <c r="HP54" s="41"/>
+      <c r="HQ54" s="41"/>
+      <c r="HR54" s="41"/>
+      <c r="HS54" s="41"/>
+      <c r="HT54" s="41"/>
+      <c r="HU54" s="41"/>
+      <c r="HV54" s="41"/>
+      <c r="HW54" s="41"/>
+      <c r="HX54" s="41"/>
+      <c r="HY54" s="41"/>
+      <c r="HZ54" s="41"/>
+      <c r="IA54" s="41"/>
+      <c r="IB54" s="41"/>
+      <c r="IC54" s="41"/>
+      <c r="ID54" s="41"/>
+      <c r="IE54" s="41"/>
+      <c r="IF54" s="41"/>
+      <c r="IG54" s="41"/>
+      <c r="IH54" s="41"/>
+      <c r="II54" s="41"/>
+      <c r="IJ54" s="41"/>
+      <c r="IK54" s="41"/>
+      <c r="IL54" s="41"/>
+      <c r="IM54" s="41"/>
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="21"/>
+      <c r="B55" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C55" s="65">
+        <v>53</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21">
+        <v>-46.91</v>
+      </c>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -6003,11 +6470,21 @@
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="21"/>
+      <c r="B56" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C56" s="65">
+        <v>54</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="21">
+        <v>-25</v>
+      </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
@@ -6018,11 +6495,21 @@
     </row>
     <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="21"/>
+      <c r="B57" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C57" s="65">
+        <v>55</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="21">
+        <v>-25</v>
+      </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -6033,12 +6520,22 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="43"/>
+      <c r="B58" s="15">
+        <v>43223</v>
+      </c>
+      <c r="C58" s="65">
+        <v>56</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="G58" s="22">
+        <v>-500</v>
+      </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="23"/>
@@ -33461,11 +33958,11 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-2154.1999999999998</v>
+        <v>-2297.1099999999997</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-1995.37</v>
+        <v>-2843.06</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -35395,39 +35892,87 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A235 E51:E169">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E59:E169 A55:A235">
+    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E169">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E56:E169">
       <formula1>$M$1:$M$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55">
+      <formula1>$K$1:$K$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Telekom April</t>
+  </si>
+  <si>
+    <t>Porto&amp;Umschläge Wolfgang</t>
   </si>
 </sst>
 </file>
@@ -735,67 +738,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3876,7 +3819,7 @@
       <c r="D106" s="56"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>462.98000000000138</v>
+        <v>441.28000000000156</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
@@ -3918,7 +3861,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5372.5300000000079</v>
+        <v>5350.8300000000081</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4713,22 +4656,22 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 D33:G103 E28:G28 G29 E30:G32">
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4738,12 +4681,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4773,7 +4716,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6545,11 +6488,21 @@
     </row>
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="21"/>
+      <c r="B59" s="15">
+        <v>43229</v>
+      </c>
+      <c r="C59" s="65">
+        <v>57</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="21">
+        <v>-21.7</v>
+      </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -33958,7 +33911,7 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-2297.1099999999997</v>
+        <v>-2318.8099999999995</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
@@ -35892,77 +35845,82 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E59:E169 A55:A235">
-    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E60:E169 A55:A235">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>Porto&amp;Umschläge Wolfgang</t>
+  </si>
+  <si>
+    <t>Telekom Mai</t>
+  </si>
+  <si>
+    <t>Zinsen Darlehen an Kreisverband</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2048,8 +2084,8 @@
   <dimension ref="A1:IK168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2845,12 +2881,22 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="15">
+        <v>43248</v>
+      </c>
+      <c r="B33" s="16">
+        <v>30</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="19">
+        <v>55</v>
+      </c>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="20"/>
@@ -3780,7 +3826,7 @@
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
-        <v>3672.8200000000065</v>
+        <v>3727.8200000000065</v>
       </c>
       <c r="G104" s="29">
         <f>SUM(G3:G103)</f>
@@ -3823,7 +3869,7 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>829.76000000000658</v>
+        <v>570.07000000000653</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -3861,7 +3907,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5350.8300000000081</v>
+        <v>5091.1400000000085</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4655,38 +4701,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 D33:G103 E28:G28 G29 E30:G32">
-    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G103">
+    <cfRule type="cellIs" dxfId="29" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4715,8 +4761,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6513,12 +6559,22 @@
     </row>
     <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="B60" s="15">
+        <v>43238</v>
+      </c>
+      <c r="C60" s="65">
+        <v>58</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="G60" s="22">
+        <v>-22.69</v>
+      </c>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="23"/>
@@ -6762,12 +6818,22 @@
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="43"/>
+      <c r="B61" s="15">
+        <v>43252</v>
+      </c>
+      <c r="C61" s="65">
+        <v>59</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
+      <c r="G61" s="22">
+        <v>-12</v>
+      </c>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="23"/>
@@ -7011,12 +7077,22 @@
     </row>
     <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
+      <c r="B62" s="15">
+        <v>43256</v>
+      </c>
+      <c r="C62" s="65">
+        <v>60</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
+      <c r="G62" s="22">
+        <v>-280</v>
+      </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="23"/>
@@ -33915,7 +33991,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-2843.06</v>
+        <v>-3157.75</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -35845,82 +35921,97 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E60:E169 A55:A235">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E63:E169 A55:A235">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -381,6 +381,21 @@
   </si>
   <si>
     <t>Zinsen Darlehen an Kreisverband</t>
+  </si>
+  <si>
+    <t>Telekom Juni</t>
+  </si>
+  <si>
+    <t>Bank Porto</t>
+  </si>
+  <si>
+    <t>AWO Bundesverband</t>
+  </si>
+  <si>
+    <t>Miete Juni 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Miete Juli 2018 Stadt Wabu</t>
   </si>
 </sst>
 </file>
@@ -744,7 +759,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3869,7 +3914,7 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>570.07000000000653</v>
+        <v>37.800000000007003</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -3907,7 +3952,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5091.1400000000085</v>
+        <v>4558.8700000000081</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4702,37 +4747,37 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G103">
-    <cfRule type="cellIs" dxfId="29" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="28" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="24" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4761,8 +4806,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6825,7 +6870,7 @@
         <v>59</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>21</v>
@@ -7336,12 +7381,22 @@
     </row>
     <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
+      <c r="B63" s="15">
+        <v>43269</v>
+      </c>
+      <c r="C63" s="66">
+        <v>61</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
+      <c r="G63" s="22">
+        <v>-17.87</v>
+      </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="23"/>
@@ -7585,12 +7640,22 @@
     </row>
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
+      <c r="B64" s="15">
+        <v>43281</v>
+      </c>
+      <c r="C64" s="66">
+        <v>61</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
+      <c r="G64" s="22">
+        <v>-0.7</v>
+      </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
       <c r="J64" s="23"/>
@@ -7834,12 +7899,22 @@
     </row>
     <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
+      <c r="B65" s="15">
+        <v>43283</v>
+      </c>
+      <c r="C65" s="65">
+        <v>62</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
+      <c r="G65" s="22">
+        <v>-191.7</v>
+      </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
       <c r="J65" s="23"/>
@@ -8083,12 +8158,22 @@
     </row>
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
+      <c r="B66" s="15">
+        <v>43283</v>
+      </c>
+      <c r="C66" s="65">
+        <v>63</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="G66" s="22">
+        <v>-30</v>
+      </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="23"/>
@@ -8332,12 +8417,22 @@
     </row>
     <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="15">
+        <v>43283</v>
+      </c>
+      <c r="C67" s="65">
+        <v>64</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="G67" s="22">
+        <v>-12</v>
+      </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
       <c r="J67" s="23"/>
@@ -8581,12 +8676,22 @@
     </row>
     <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="43"/>
+      <c r="B68" s="15">
+        <v>43285</v>
+      </c>
+      <c r="C68" s="65">
+        <v>65</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="G68" s="22">
+        <v>-280</v>
+      </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
       <c r="J68" s="23"/>
@@ -33991,7 +34096,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-3157.75</v>
+        <v>-3690.0199999999995</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -35921,97 +36026,122 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E63:E169 A55:A235">
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E69:E169">
+    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
+  <conditionalFormatting sqref="E67">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
+  <conditionalFormatting sqref="E68">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="129">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -397,6 +397,21 @@
   <si>
     <t>Miete Juli 2018 Stadt Wabu</t>
   </si>
+  <si>
+    <t>Rundfunkgeb. 3/2018-05/2018</t>
+  </si>
+  <si>
+    <t>Rundfunkgeb. 6/2018-08/2018</t>
+  </si>
+  <si>
+    <t>Telekom Juli</t>
+  </si>
+  <si>
+    <t>sonstiges</t>
+  </si>
+  <si>
+    <t>Übertrag Tagesgeld/Voba</t>
+  </si>
 </sst>
 </file>
 
@@ -759,7 +774,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2128,9 +2158,9 @@
   </sheetPr>
   <dimension ref="A1:IK168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2949,12 +2979,22 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="15">
+        <v>43298</v>
+      </c>
+      <c r="B34" s="16">
+        <v>31</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="19">
+        <v>1000</v>
+      </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="20"/>
@@ -3871,7 +3911,7 @@
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
-        <v>3727.8200000000065</v>
+        <v>4727.820000000007</v>
       </c>
       <c r="G104" s="29">
         <f>SUM(G3:G103)</f>
@@ -3914,11 +3954,11 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>37.800000000007003</v>
+        <v>810.23000000000775</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
-        <v>3000.5</v>
+        <v>2000.5</v>
       </c>
       <c r="H106" s="29">
         <f>H104+Ausgaben!I170</f>
@@ -3952,7 +3992,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>4558.8700000000081</v>
+        <v>4331.3000000000093</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4746,44 +4786,52 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G103">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 D35:G103 E34:G34">
+    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="E29:F29">
     <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D30">
     <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D103">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D33 D35:D103">
       <formula1>$K$1:$K$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
+      <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -4805,9 +4853,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6102,7 +6150,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>22</v>
@@ -8935,12 +8983,22 @@
     </row>
     <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
+      <c r="B69" s="15">
+        <v>43297</v>
+      </c>
+      <c r="C69" s="65">
+        <v>66</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="G69" s="22">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
       <c r="J69" s="23"/>
@@ -9184,12 +9242,22 @@
     </row>
     <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
+      <c r="B70" s="15">
+        <v>43298</v>
+      </c>
+      <c r="C70" s="65">
+        <v>67</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
+      <c r="G70" s="22">
+        <v>-16.59</v>
+      </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="23"/>
@@ -9433,13 +9501,22 @@
     </row>
     <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="21"/>
+      <c r="B71" s="15">
+        <v>43298</v>
+      </c>
+      <c r="C71" s="65">
+        <v>68</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
+      <c r="H71" s="21">
+        <v>-1000</v>
+      </c>
       <c r="I71" s="22"/>
       <c r="J71" s="23"/>
       <c r="K71" s="4"/>
@@ -9682,12 +9759,22 @@
     </row>
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
+      <c r="B72" s="15">
+        <v>43304</v>
+      </c>
+      <c r="C72" s="65">
+        <v>69</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
+      <c r="G72" s="22">
+        <v>-193.49</v>
+      </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="23"/>
@@ -34096,11 +34183,11 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-3690.0199999999995</v>
+        <v>-3917.5899999999992</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="I170" s="35">
         <f>SUM(I3:I169)</f>
@@ -36026,123 +36113,138 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E69:E169">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E71 E73:E169">
+    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="132">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -412,6 +412,15 @@
   <si>
     <t>Übertrag Tagesgeld/Voba</t>
   </si>
+  <si>
+    <t>Miete August 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Telekom August</t>
+  </si>
+  <si>
+    <t>Awo Bund Rueckverteilung</t>
+  </si>
 </sst>
 </file>
 
@@ -774,7 +783,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2159,8 +2208,8 @@
   <dimension ref="A1:IK168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2988,8 +3037,8 @@
       <c r="C34" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="43" t="s">
-        <v>127</v>
+      <c r="D34" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="19">
@@ -3002,12 +3051,22 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="15">
+        <v>43305</v>
+      </c>
+      <c r="B35" s="16">
+        <v>32</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="19">
+        <v>1578.18</v>
+      </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="20"/>
@@ -3911,7 +3970,7 @@
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
-        <v>4727.820000000007</v>
+        <v>6306.0000000000073</v>
       </c>
       <c r="G104" s="29">
         <f>SUM(G3:G103)</f>
@@ -3954,7 +4013,7 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>810.23000000000775</v>
+        <v>2079.3900000000076</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -3992,7 +4051,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>4331.3000000000093</v>
+        <v>5600.4600000000091</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4786,38 +4845,48 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 D35:G103 E34:G34">
-    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 D36:G103 E34:G34 G35">
+    <cfRule type="cellIs" dxfId="46" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:F35">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4827,10 +4896,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D33 D35:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D103">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -4854,8 +4923,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71:E71"/>
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9511,7 +9580,7 @@
         <v>128</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="21">
@@ -10018,12 +10087,22 @@
     </row>
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
+      <c r="B73" s="15">
+        <v>43313</v>
+      </c>
+      <c r="C73" s="65">
+        <v>70</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
+      <c r="G73" s="22">
+        <v>-12</v>
+      </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="23"/>
@@ -10267,12 +10346,22 @@
     </row>
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="15">
+        <v>43314</v>
+      </c>
+      <c r="C74" s="65">
+        <v>71</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
+      <c r="G74" s="22">
+        <v>-280</v>
+      </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="23"/>
@@ -10516,12 +10605,22 @@
     </row>
     <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
+      <c r="B75" s="15">
+        <v>43329</v>
+      </c>
+      <c r="C75" s="65">
+        <v>72</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
+      <c r="G75" s="22">
+        <v>-17.02</v>
+      </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="23"/>
@@ -34183,7 +34282,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-3917.5899999999992</v>
+        <v>-4226.6099999999997</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -36113,138 +36212,153 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E71 E73:E169">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E71 E76:E169">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="27" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="139">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -421,6 +421,27 @@
   <si>
     <t>Awo Bund Rueckverteilung</t>
   </si>
+  <si>
+    <t>Port&amp;Co Wolfgang</t>
+  </si>
+  <si>
+    <t>Jahrgangstreffen 2.8.</t>
+  </si>
+  <si>
+    <t>Anonyme Spende 6.9.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 10.07.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 24.07.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 07.08.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 21.08.2018</t>
+  </si>
 </sst>
 </file>
 
@@ -783,7 +804,82 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2207,9 +2303,9 @@
   </sheetPr>
   <dimension ref="A1:IK168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="A41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3074,11 +3170,21 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="52"/>
+      <c r="A36" s="15">
+        <v>43349</v>
+      </c>
+      <c r="B36" s="16">
+        <v>33</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="52">
+        <v>50.2</v>
+      </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
@@ -3087,11 +3193,21 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="18"/>
+      <c r="A37" s="15">
+        <v>43349</v>
+      </c>
+      <c r="B37" s="16">
+        <v>34</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="18">
+        <v>42</v>
+      </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
@@ -3100,11 +3216,21 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="15">
+        <v>43349</v>
+      </c>
+      <c r="B38" s="65">
+        <v>35</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>208.11</v>
+      </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -3113,11 +3239,21 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="15">
+        <v>43349</v>
+      </c>
+      <c r="B39" s="65">
+        <v>36</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <v>177.12</v>
+      </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
@@ -3126,11 +3262,21 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="18"/>
+      <c r="A40" s="15">
+        <v>43349</v>
+      </c>
+      <c r="B40" s="65">
+        <v>37</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <v>178.64</v>
+      </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
@@ -3139,11 +3285,21 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="18"/>
+      <c r="A41" s="15">
+        <v>43349</v>
+      </c>
+      <c r="B41" s="65">
+        <v>38</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>173.05</v>
+      </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
@@ -3966,7 +4122,7 @@
       <c r="D104" s="27"/>
       <c r="E104" s="28">
         <f>SUM(E3:E103)</f>
-        <v>2760.0900000000011</v>
+        <v>3589.2100000000009</v>
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
@@ -4009,7 +4165,7 @@
       <c r="D106" s="56"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>441.28000000000156</v>
+        <v>1041.2200000000016</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
@@ -4051,7 +4207,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5600.4600000000091</v>
+        <v>6200.4000000000096</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -4845,61 +5001,91 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 D36:G103 E34:G34 G35">
-    <cfRule type="cellIs" dxfId="46" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D42:G103 E38:G38 F39:G39 E40:G40 F41:G41">
+    <cfRule type="cellIs" dxfId="61" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D42:D103">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D41">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -4922,9 +5108,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10864,11 +11050,21 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="21"/>
+      <c r="B76" s="15">
+        <v>43340</v>
+      </c>
+      <c r="C76" s="65">
+        <v>73</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="21">
+        <v>-17</v>
+      </c>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -11113,11 +11309,21 @@
     </row>
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="21"/>
+      <c r="B77" s="15">
+        <v>43349</v>
+      </c>
+      <c r="C77" s="65">
+        <v>74</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="21">
+        <v>-54.67</v>
+      </c>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -11362,11 +11568,21 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="21"/>
+      <c r="B78" s="15">
+        <v>43349</v>
+      </c>
+      <c r="C78" s="65">
+        <v>75</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21">
+        <v>-65.72</v>
+      </c>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -11611,11 +11827,21 @@
     </row>
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="21"/>
+      <c r="B79" s="15">
+        <v>43349</v>
+      </c>
+      <c r="C79" s="65">
+        <v>76</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="21">
+        <v>-43.24</v>
+      </c>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -11860,11 +12086,21 @@
     </row>
     <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="21"/>
+      <c r="B80" s="15">
+        <v>43349</v>
+      </c>
+      <c r="C80" s="65">
+        <v>77</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="21">
+        <v>-48.55</v>
+      </c>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -34278,7 +34514,7 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-2318.8099999999995</v>
+        <v>-2547.9899999999993</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
@@ -36212,153 +36448,178 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E71 E76:E169">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E71 E81:E169">
+    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
     <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="E79">
     <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -442,6 +442,18 @@
   <si>
     <t>Treff d.g.Laune 21.08.2018</t>
   </si>
+  <si>
+    <t>Miete Sept 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Abfallgeb 2017</t>
+  </si>
+  <si>
+    <t>Awo Bawue Mitglzeitung</t>
+  </si>
+  <si>
+    <t>Behindertensonntag Kamelhof</t>
+  </si>
 </sst>
 </file>
 
@@ -705,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -769,7 +781,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -804,7 +815,72 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2303,9 +2379,9 @@
   </sheetPr>
   <dimension ref="A1:IK168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="A41:D41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2325,17 +2401,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -2379,7 +2455,7 @@
         <v>43100</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="11"/>
@@ -2424,7 +2500,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="20"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2435,7 +2511,7 @@
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -2449,7 +2525,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2460,7 +2536,7 @@
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -2474,7 +2550,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="56" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2485,10 +2561,10 @@
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="18">
@@ -2499,7 +2575,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2510,10 +2586,10 @@
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="60" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="18">
@@ -2524,7 +2600,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2535,7 +2611,7 @@
       <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -2549,7 +2625,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="56" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2560,10 +2636,10 @@
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="59" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="18"/>
@@ -2574,7 +2650,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="56" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2585,10 +2661,10 @@
       <c r="B11" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="18"/>
@@ -2599,7 +2675,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="56" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2610,10 +2686,10 @@
       <c r="B12" s="16">
         <v>9</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="18"/>
@@ -2624,7 +2700,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2635,14 +2711,14 @@
       <c r="B13" s="16">
         <v>10</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="62"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20">
@@ -2660,7 +2736,7 @@
       <c r="B14" s="16">
         <v>11</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -2685,7 +2761,7 @@
       <c r="B15" s="16">
         <v>12</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2710,7 +2786,7 @@
       <c r="B16" s="16">
         <v>13</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -2735,7 +2811,7 @@
       <c r="B17" s="16">
         <v>14</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -2760,7 +2836,7 @@
       <c r="B18" s="16">
         <v>15</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -2785,7 +2861,7 @@
       <c r="B19" s="16">
         <v>16</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -3058,10 +3134,10 @@
       <c r="A31" s="15">
         <v>43223</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="64">
         <v>28</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -3084,7 +3160,7 @@
       <c r="B32" s="16">
         <v>29</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -3219,10 +3295,10 @@
       <c r="A38" s="15">
         <v>43349</v>
       </c>
-      <c r="B38" s="65">
+      <c r="B38" s="64">
         <v>35</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -3242,10 +3318,10 @@
       <c r="A39" s="15">
         <v>43349</v>
       </c>
-      <c r="B39" s="65">
+      <c r="B39" s="64">
         <v>36</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -3265,10 +3341,10 @@
       <c r="A40" s="15">
         <v>43349</v>
       </c>
-      <c r="B40" s="65">
+      <c r="B40" s="64">
         <v>37</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -3288,10 +3364,10 @@
       <c r="A41" s="15">
         <v>43349</v>
       </c>
-      <c r="B41" s="65">
+      <c r="B41" s="64">
         <v>38</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -3496,7 +3572,7 @@
       <c r="D56" s="20"/>
       <c r="E56" s="18"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="62"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="19"/>
       <c r="I56" s="20"/>
       <c r="J56" s="2"/>
@@ -3599,7 +3675,7 @@
       <c r="C64" s="44"/>
       <c r="D64" s="20"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="62"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="20"/>
@@ -4162,14 +4238,14 @@
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="26"/>
-      <c r="D106" s="56"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>1041.2200000000016</v>
+        <v>841.22000000000162</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>2079.3900000000076</v>
+        <v>1538.490000000008</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -4207,7 +4283,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>6200.4000000000096</v>
+        <v>5459.50000000001</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -5002,82 +5078,82 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D42:G103 E38:G38 F39:G39 E40:G40 F41:G41">
-    <cfRule type="cellIs" dxfId="61" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="60" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="59" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="58" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="57" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="56" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="55" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="54" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="53" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5108,9 +5184,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5132,17 +5208,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -5154,7 +5230,7 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -5189,10 +5265,10 @@
       <c r="B3" s="15">
         <v>43102</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="64">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="43" t="s">
@@ -5216,10 +5292,10 @@
       <c r="B4" s="45">
         <v>43102</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="64">
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="43" t="s">
@@ -5234,7 +5310,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5243,10 +5319,10 @@
       <c r="B5" s="15">
         <v>43102</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="64">
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -5261,7 +5337,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="4"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="56" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5270,10 +5346,10 @@
       <c r="B6" s="15">
         <v>43102</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>4</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="43" t="s">
@@ -5288,7 +5364,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="56" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5297,13 +5373,13 @@
       <c r="B7" s="45">
         <v>43104</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>5</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="21"/>
@@ -5315,7 +5391,7 @@
       <c r="J7" s="23"/>
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="56" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5324,10 +5400,10 @@
       <c r="B8" s="15">
         <v>43105</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="43" t="s">
@@ -5342,7 +5418,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5351,10 +5427,10 @@
       <c r="B9" s="15">
         <v>43109</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>7</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="43" t="s">
@@ -5369,7 +5445,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="56" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5378,10 +5454,10 @@
       <c r="B10" s="15">
         <v>43117</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>8</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="43" t="s">
@@ -5396,7 +5472,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="56" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5405,10 +5481,10 @@
       <c r="B11" s="45">
         <v>43115</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>9</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -5423,7 +5499,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="57" t="s">
+      <c r="M11" s="56" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5432,10 +5508,10 @@
       <c r="B12" s="15">
         <v>43130</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>10</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -5450,7 +5526,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5459,10 +5535,10 @@
       <c r="B13" s="15">
         <v>43130</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="64">
         <v>11</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -5486,10 +5562,10 @@
       <c r="B14" s="15">
         <v>43130</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="64">
         <v>12</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="43" t="s">
@@ -5513,13 +5589,13 @@
       <c r="B15" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <v>13</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="21">
@@ -5540,10 +5616,10 @@
       <c r="B16" s="15">
         <v>43134</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>14</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="43" t="s">
@@ -5567,10 +5643,10 @@
       <c r="B17" s="45">
         <v>43134</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="64">
         <v>15</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="43" t="s">
@@ -5594,10 +5670,10 @@
       <c r="B18" s="15">
         <v>43137</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="64">
         <v>16</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="43" t="s">
@@ -5621,10 +5697,10 @@
       <c r="B19" s="15">
         <v>43145</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="64">
         <v>17</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -5646,10 +5722,10 @@
       <c r="B20" s="15">
         <v>43145</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="64">
         <v>18</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -5671,10 +5747,10 @@
       <c r="B21" s="15">
         <v>43145</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="64">
         <v>19</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="20" t="s">
@@ -5696,10 +5772,10 @@
       <c r="B22" s="15">
         <v>43145</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="64">
         <v>20</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -5721,10 +5797,10 @@
       <c r="B23" s="45">
         <v>43146</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="64">
         <v>21</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -5746,10 +5822,10 @@
       <c r="B24" s="15">
         <v>43146</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="64">
         <v>22</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -5771,10 +5847,10 @@
       <c r="B25" s="15">
         <v>43147</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="64">
         <v>23</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -5796,10 +5872,10 @@
       <c r="B26" s="45">
         <v>43160</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="64">
         <v>24</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -5821,10 +5897,10 @@
       <c r="B27" s="45">
         <v>43161</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="64">
         <v>25</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -5846,10 +5922,10 @@
       <c r="B28" s="15">
         <v>43165</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="64">
         <v>26</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -5871,10 +5947,10 @@
       <c r="B29" s="15">
         <v>43174</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="64">
         <v>27</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -5896,10 +5972,10 @@
       <c r="B30" s="15">
         <v>43174</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="64">
         <v>28</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -5921,10 +5997,10 @@
       <c r="B31" s="15">
         <v>43175</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="64">
         <v>29</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -5946,10 +6022,10 @@
       <c r="B32" s="15">
         <v>43188</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="64">
         <v>30</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -5971,10 +6047,10 @@
       <c r="B33" s="45">
         <v>43188</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="64">
         <v>31</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -5996,10 +6072,10 @@
       <c r="B34" s="15">
         <v>43188</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="64">
         <v>32</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="20" t="s">
@@ -6021,10 +6097,10 @@
       <c r="B35" s="15">
         <v>43188</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="64">
         <v>33</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>79</v>
       </c>
       <c r="E35" s="43" t="s">
@@ -6046,7 +6122,7 @@
       <c r="B36" s="15">
         <v>43188</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="64">
         <v>34</v>
       </c>
       <c r="D36" s="42" t="s">
@@ -6071,7 +6147,7 @@
       <c r="B37" s="45">
         <v>43188</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="64">
         <v>35</v>
       </c>
       <c r="D37" s="42" t="s">
@@ -6096,7 +6172,7 @@
       <c r="B38" s="15">
         <v>43188</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="64">
         <v>36</v>
       </c>
       <c r="D38" s="42" t="s">
@@ -6121,7 +6197,7 @@
       <c r="B39" s="15">
         <v>43188</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="64">
         <v>37</v>
       </c>
       <c r="D39" s="42" t="s">
@@ -6144,7 +6220,7 @@
       <c r="B40" s="15">
         <v>43188</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="64">
         <v>38</v>
       </c>
       <c r="D40" s="42" t="s">
@@ -6173,7 +6249,7 @@
       <c r="B41" s="15">
         <v>43188</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="64">
         <v>39</v>
       </c>
       <c r="D41" s="42" t="s">
@@ -6200,7 +6276,7 @@
       <c r="B42" s="15">
         <v>43188</v>
       </c>
-      <c r="C42" s="66">
+      <c r="C42" s="65">
         <v>40</v>
       </c>
       <c r="D42" s="42" t="s">
@@ -6229,7 +6305,7 @@
       <c r="B43" s="15">
         <v>43188</v>
       </c>
-      <c r="C43" s="65">
+      <c r="C43" s="64">
         <v>41</v>
       </c>
       <c r="D43" s="42" t="s">
@@ -6258,7 +6334,7 @@
       <c r="B44" s="45">
         <v>43188</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="64">
         <v>42</v>
       </c>
       <c r="D44" s="42" t="s">
@@ -6287,7 +6363,7 @@
       <c r="B45" s="15">
         <v>43194</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="64">
         <v>43</v>
       </c>
       <c r="D45" s="42" t="s">
@@ -6316,10 +6392,10 @@
       <c r="B46" s="15">
         <v>43194</v>
       </c>
-      <c r="C46" s="65">
+      <c r="C46" s="64">
         <v>44</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="20" t="s">
@@ -6347,10 +6423,10 @@
       <c r="B47" s="15">
         <v>43194</v>
       </c>
-      <c r="C47" s="65">
+      <c r="C47" s="64">
         <v>45</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="20" t="s">
@@ -6374,7 +6450,7 @@
       <c r="B48" s="15">
         <v>43195</v>
       </c>
-      <c r="C48" s="65">
+      <c r="C48" s="64">
         <v>46</v>
       </c>
       <c r="D48" s="42" t="s">
@@ -6401,10 +6477,10 @@
       <c r="B49" s="15">
         <v>43206</v>
       </c>
-      <c r="C49" s="65">
+      <c r="C49" s="64">
         <v>47</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="58" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="20" t="s">
@@ -6426,7 +6502,7 @@
       <c r="B50" s="15">
         <v>43208</v>
       </c>
-      <c r="C50" s="65">
+      <c r="C50" s="64">
         <v>48</v>
       </c>
       <c r="D50" s="42" t="s">
@@ -6451,10 +6527,10 @@
       <c r="B51" s="15">
         <v>43222</v>
       </c>
-      <c r="C51" s="65">
+      <c r="C51" s="64">
         <v>49</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="58" t="s">
         <v>109</v>
       </c>
       <c r="E51" s="20" t="s">
@@ -6476,7 +6552,7 @@
       <c r="B52" s="15">
         <v>43223</v>
       </c>
-      <c r="C52" s="65">
+      <c r="C52" s="64">
         <v>50</v>
       </c>
       <c r="D52" s="42" t="s">
@@ -6501,10 +6577,10 @@
       <c r="B53" s="15">
         <v>43223</v>
       </c>
-      <c r="C53" s="65">
+      <c r="C53" s="64">
         <v>51</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>71</v>
       </c>
       <c r="E53" s="20" t="s">
@@ -6526,10 +6602,10 @@
       <c r="B54" s="15">
         <v>43223</v>
       </c>
-      <c r="C54" s="65">
+      <c r="C54" s="64">
         <v>52</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="58" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="20" t="s">
@@ -6785,10 +6861,10 @@
       <c r="B55" s="15">
         <v>43223</v>
       </c>
-      <c r="C55" s="65">
+      <c r="C55" s="64">
         <v>53</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="58" t="s">
         <v>111</v>
       </c>
       <c r="E55" s="20" t="s">
@@ -6810,7 +6886,7 @@
       <c r="B56" s="15">
         <v>43223</v>
       </c>
-      <c r="C56" s="65">
+      <c r="C56" s="64">
         <v>54</v>
       </c>
       <c r="D56" s="42" t="s">
@@ -6835,7 +6911,7 @@
       <c r="B57" s="15">
         <v>43223</v>
       </c>
-      <c r="C57" s="65">
+      <c r="C57" s="64">
         <v>55</v>
       </c>
       <c r="D57" s="42" t="s">
@@ -6860,7 +6936,7 @@
       <c r="B58" s="15">
         <v>43223</v>
       </c>
-      <c r="C58" s="65">
+      <c r="C58" s="64">
         <v>56</v>
       </c>
       <c r="D58" s="42" t="s">
@@ -6885,7 +6961,7 @@
       <c r="B59" s="15">
         <v>43229</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="64">
         <v>57</v>
       </c>
       <c r="D59" s="42" t="s">
@@ -6910,7 +6986,7 @@
       <c r="B60" s="15">
         <v>43238</v>
       </c>
-      <c r="C60" s="65">
+      <c r="C60" s="64">
         <v>58</v>
       </c>
       <c r="D60" s="42" t="s">
@@ -7169,10 +7245,10 @@
       <c r="B61" s="15">
         <v>43252</v>
       </c>
-      <c r="C61" s="65">
+      <c r="C61" s="64">
         <v>59</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="58" t="s">
         <v>122</v>
       </c>
       <c r="E61" s="20" t="s">
@@ -7428,7 +7504,7 @@
       <c r="B62" s="15">
         <v>43256</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="64">
         <v>60</v>
       </c>
       <c r="D62" s="42" t="s">
@@ -7687,7 +7763,7 @@
       <c r="B63" s="15">
         <v>43269</v>
       </c>
-      <c r="C63" s="66">
+      <c r="C63" s="65">
         <v>61</v>
       </c>
       <c r="D63" s="42" t="s">
@@ -7946,7 +8022,7 @@
       <c r="B64" s="15">
         <v>43281</v>
       </c>
-      <c r="C64" s="66">
+      <c r="C64" s="65">
         <v>61</v>
       </c>
       <c r="D64" s="42" t="s">
@@ -8205,7 +8281,7 @@
       <c r="B65" s="15">
         <v>43283</v>
       </c>
-      <c r="C65" s="65">
+      <c r="C65" s="64">
         <v>62</v>
       </c>
       <c r="D65" s="42" t="s">
@@ -8464,10 +8540,10 @@
       <c r="B66" s="15">
         <v>43283</v>
       </c>
-      <c r="C66" s="65">
+      <c r="C66" s="64">
         <v>63</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -8723,10 +8799,10 @@
       <c r="B67" s="15">
         <v>43283</v>
       </c>
-      <c r="C67" s="65">
+      <c r="C67" s="64">
         <v>64</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="58" t="s">
         <v>123</v>
       </c>
       <c r="E67" s="20" t="s">
@@ -8982,7 +9058,7 @@
       <c r="B68" s="15">
         <v>43285</v>
       </c>
-      <c r="C68" s="65">
+      <c r="C68" s="64">
         <v>65</v>
       </c>
       <c r="D68" s="42" t="s">
@@ -9241,10 +9317,10 @@
       <c r="B69" s="15">
         <v>43297</v>
       </c>
-      <c r="C69" s="65">
+      <c r="C69" s="64">
         <v>66</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="58" t="s">
         <v>125</v>
       </c>
       <c r="E69" s="20" t="s">
@@ -9500,7 +9576,7 @@
       <c r="B70" s="15">
         <v>43298</v>
       </c>
-      <c r="C70" s="65">
+      <c r="C70" s="64">
         <v>67</v>
       </c>
       <c r="D70" s="42" t="s">
@@ -9759,7 +9835,7 @@
       <c r="B71" s="15">
         <v>43298</v>
       </c>
-      <c r="C71" s="65">
+      <c r="C71" s="64">
         <v>68</v>
       </c>
       <c r="D71" s="42" t="s">
@@ -10017,10 +10093,10 @@
       <c r="B72" s="15">
         <v>43304</v>
       </c>
-      <c r="C72" s="65">
+      <c r="C72" s="64">
         <v>69</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="58" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="20" t="s">
@@ -10276,10 +10352,10 @@
       <c r="B73" s="15">
         <v>43313</v>
       </c>
-      <c r="C73" s="65">
+      <c r="C73" s="64">
         <v>70</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>129</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -10535,7 +10611,7 @@
       <c r="B74" s="15">
         <v>43314</v>
       </c>
-      <c r="C74" s="65">
+      <c r="C74" s="64">
         <v>71</v>
       </c>
       <c r="D74" s="42" t="s">
@@ -10794,7 +10870,7 @@
       <c r="B75" s="15">
         <v>43329</v>
       </c>
-      <c r="C75" s="65">
+      <c r="C75" s="64">
         <v>72</v>
       </c>
       <c r="D75" s="42" t="s">
@@ -11053,7 +11129,7 @@
       <c r="B76" s="15">
         <v>43340</v>
       </c>
-      <c r="C76" s="65">
+      <c r="C76" s="64">
         <v>73</v>
       </c>
       <c r="D76" s="42" t="s">
@@ -11312,10 +11388,10 @@
       <c r="B77" s="15">
         <v>43349</v>
       </c>
-      <c r="C77" s="65">
+      <c r="C77" s="64">
         <v>74</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="58" t="s">
         <v>135</v>
       </c>
       <c r="E77" s="20" t="s">
@@ -11571,10 +11647,10 @@
       <c r="B78" s="15">
         <v>43349</v>
       </c>
-      <c r="C78" s="65">
+      <c r="C78" s="64">
         <v>75</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="58" t="s">
         <v>136</v>
       </c>
       <c r="E78" s="20" t="s">
@@ -11830,10 +11906,10 @@
       <c r="B79" s="15">
         <v>43349</v>
       </c>
-      <c r="C79" s="65">
+      <c r="C79" s="64">
         <v>76</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="58" t="s">
         <v>137</v>
       </c>
       <c r="E79" s="20" t="s">
@@ -12089,10 +12165,10 @@
       <c r="B80" s="15">
         <v>43349</v>
       </c>
-      <c r="C80" s="65">
+      <c r="C80" s="64">
         <v>77</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="58" t="s">
         <v>138</v>
       </c>
       <c r="E80" s="20" t="s">
@@ -12345,12 +12421,22 @@
     </row>
     <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="15">
+        <v>43346</v>
+      </c>
+      <c r="C81" s="64">
+        <v>78</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
+      <c r="G81" s="22">
+        <v>-12</v>
+      </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="23"/>
@@ -12594,12 +12680,22 @@
     </row>
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
+      <c r="B82" s="15">
+        <v>43347</v>
+      </c>
+      <c r="C82" s="64">
+        <v>79</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="22">
+        <v>-280</v>
+      </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="23"/>
@@ -12843,12 +12939,21 @@
     </row>
     <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
+      <c r="B83" s="15">
+        <v>43356</v>
+      </c>
+      <c r="C83" s="64">
+        <v>80</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="22">
+        <v>-108.9</v>
+      </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="23"/>
@@ -13092,11 +13197,21 @@
     </row>
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="53"/>
+      <c r="B84" s="15">
+        <v>43359</v>
+      </c>
+      <c r="C84" s="64">
+        <v>81</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="21">
+        <v>-200</v>
+      </c>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -13341,12 +13456,22 @@
     </row>
     <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
+      <c r="B85" s="15">
+        <v>43360</v>
+      </c>
+      <c r="C85" s="64">
+        <v>82</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="41"/>
+      <c r="G85" s="22">
+        <v>-140</v>
+      </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
       <c r="J85" s="23"/>
@@ -13591,7 +13716,7 @@
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49"/>
       <c r="B86" s="15"/>
-      <c r="C86" s="65"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="42"/>
       <c r="E86" s="43"/>
       <c r="F86" s="21"/>
@@ -13840,7 +13965,7 @@
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49"/>
       <c r="B87" s="15"/>
-      <c r="C87" s="65"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="42"/>
       <c r="E87" s="43"/>
       <c r="F87" s="21"/>
@@ -14089,7 +14214,7 @@
     <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49"/>
       <c r="B88" s="15"/>
-      <c r="C88" s="65"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="42"/>
       <c r="E88" s="43"/>
       <c r="F88" s="21"/>
@@ -14338,7 +14463,7 @@
     <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="15"/>
-      <c r="C89" s="65"/>
+      <c r="C89" s="64"/>
       <c r="D89" s="42"/>
       <c r="E89" s="43"/>
       <c r="F89" s="21"/>
@@ -14587,7 +14712,7 @@
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="65"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="42"/>
       <c r="E90" s="43"/>
       <c r="F90" s="21"/>
@@ -14836,7 +14961,7 @@
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="65"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="42"/>
       <c r="E91" s="43"/>
       <c r="F91" s="21"/>
@@ -15085,7 +15210,7 @@
     <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49"/>
       <c r="B92" s="15"/>
-      <c r="C92" s="65"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="42"/>
       <c r="E92" s="43"/>
       <c r="F92" s="21"/>
@@ -15334,7 +15459,7 @@
     <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
       <c r="B93" s="15"/>
-      <c r="C93" s="65"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="42"/>
       <c r="E93" s="43"/>
       <c r="F93" s="21"/>
@@ -15583,7 +15708,7 @@
     <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
       <c r="B94" s="15"/>
-      <c r="C94" s="65"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="42"/>
       <c r="E94" s="43"/>
       <c r="F94" s="21"/>
@@ -15832,7 +15957,7 @@
     <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49"/>
       <c r="B95" s="15"/>
-      <c r="C95" s="65"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="42"/>
       <c r="E95" s="43"/>
       <c r="F95" s="21"/>
@@ -16081,7 +16206,7 @@
     <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="65"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="42"/>
       <c r="E96" s="43"/>
       <c r="F96" s="21"/>
@@ -16330,11 +16455,11 @@
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49"/>
       <c r="B97" s="15"/>
-      <c r="C97" s="65"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="42"/>
       <c r="E97" s="43"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="63"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="23"/>
@@ -16579,7 +16704,7 @@
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49"/>
       <c r="B98" s="15"/>
-      <c r="C98" s="65"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="42"/>
       <c r="E98" s="43"/>
       <c r="F98" s="21"/>
@@ -16828,7 +16953,7 @@
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="65"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="42"/>
       <c r="E99" s="43"/>
       <c r="F99" s="21"/>
@@ -17077,7 +17202,7 @@
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="65"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="42"/>
       <c r="E100" s="43"/>
       <c r="F100" s="21"/>
@@ -17326,7 +17451,7 @@
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="65"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="42"/>
       <c r="E101" s="43"/>
       <c r="F101" s="21"/>
@@ -17575,7 +17700,7 @@
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="65"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="42"/>
       <c r="E102" s="43"/>
       <c r="F102" s="21"/>
@@ -17824,7 +17949,7 @@
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49"/>
       <c r="B103" s="15"/>
-      <c r="C103" s="65"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="42"/>
       <c r="E103" s="43"/>
       <c r="F103" s="21"/>
@@ -18073,7 +18198,7 @@
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
       <c r="B104" s="15"/>
-      <c r="C104" s="65"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="42"/>
       <c r="E104" s="43"/>
       <c r="F104" s="21"/>
@@ -18322,7 +18447,7 @@
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="65"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="42"/>
       <c r="E105" s="43"/>
       <c r="F105" s="21"/>
@@ -18571,7 +18696,7 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="65"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="42"/>
       <c r="E106" s="43"/>
       <c r="F106" s="21"/>
@@ -18820,7 +18945,7 @@
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49"/>
       <c r="B107" s="15"/>
-      <c r="C107" s="65"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="42"/>
       <c r="E107" s="43"/>
       <c r="F107" s="21"/>
@@ -19069,7 +19194,7 @@
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="65"/>
+      <c r="C108" s="64"/>
       <c r="D108" s="42"/>
       <c r="E108" s="43"/>
       <c r="F108" s="21"/>
@@ -19318,7 +19443,7 @@
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="65"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="42"/>
       <c r="E109" s="43"/>
       <c r="F109" s="21"/>
@@ -19567,7 +19692,7 @@
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="65"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="42"/>
       <c r="E110" s="43"/>
       <c r="F110" s="21"/>
@@ -19816,7 +19941,7 @@
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="65"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="42"/>
       <c r="E111" s="43"/>
       <c r="F111" s="21"/>
@@ -20065,7 +20190,7 @@
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="65"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="42"/>
       <c r="E112" s="43"/>
       <c r="F112" s="21"/>
@@ -20314,7 +20439,7 @@
     <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="65"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="42"/>
       <c r="E113" s="43"/>
       <c r="F113" s="21"/>
@@ -20563,7 +20688,7 @@
     <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49"/>
       <c r="B114" s="15"/>
-      <c r="C114" s="65"/>
+      <c r="C114" s="64"/>
       <c r="D114" s="42"/>
       <c r="E114" s="43"/>
       <c r="F114" s="21"/>
@@ -20812,7 +20937,7 @@
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="49"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="65"/>
+      <c r="C115" s="64"/>
       <c r="D115" s="42"/>
       <c r="E115" s="43"/>
       <c r="F115" s="21"/>
@@ -21061,7 +21186,7 @@
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="65"/>
+      <c r="C116" s="64"/>
       <c r="D116" s="42"/>
       <c r="E116" s="43"/>
       <c r="F116" s="21"/>
@@ -21310,7 +21435,7 @@
     <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49"/>
       <c r="B117" s="15"/>
-      <c r="C117" s="65"/>
+      <c r="C117" s="64"/>
       <c r="D117" s="42"/>
       <c r="E117" s="43"/>
       <c r="F117" s="21"/>
@@ -21559,7 +21684,7 @@
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="65"/>
+      <c r="C118" s="64"/>
       <c r="D118" s="42"/>
       <c r="E118" s="43"/>
       <c r="F118" s="21"/>
@@ -21808,7 +21933,7 @@
     <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49"/>
       <c r="B119" s="15"/>
-      <c r="C119" s="65"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="42"/>
       <c r="E119" s="43"/>
       <c r="F119" s="21"/>
@@ -22057,7 +22182,7 @@
     <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49"/>
       <c r="B120" s="45"/>
-      <c r="C120" s="65"/>
+      <c r="C120" s="64"/>
       <c r="D120" s="42"/>
       <c r="E120" s="43"/>
       <c r="F120" s="21"/>
@@ -22306,7 +22431,7 @@
     <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="65"/>
+      <c r="C121" s="64"/>
       <c r="D121" s="42"/>
       <c r="E121" s="43"/>
       <c r="F121" s="21"/>
@@ -22555,7 +22680,7 @@
     <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="65"/>
+      <c r="C122" s="64"/>
       <c r="D122" s="42"/>
       <c r="E122" s="43"/>
       <c r="F122" s="21"/>
@@ -22804,7 +22929,7 @@
     <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="65"/>
+      <c r="C123" s="64"/>
       <c r="D123" s="42"/>
       <c r="E123" s="43"/>
       <c r="F123" s="21"/>
@@ -23053,7 +23178,7 @@
     <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="65"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="42"/>
       <c r="E124" s="43"/>
       <c r="F124" s="21"/>
@@ -23302,7 +23427,7 @@
     <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="49"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="65"/>
+      <c r="C125" s="64"/>
       <c r="D125" s="42"/>
       <c r="E125" s="43"/>
       <c r="F125" s="21"/>
@@ -23551,7 +23676,7 @@
     <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="65"/>
+      <c r="C126" s="64"/>
       <c r="D126" s="42"/>
       <c r="E126" s="43"/>
       <c r="F126" s="21"/>
@@ -23800,7 +23925,7 @@
     <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="65"/>
+      <c r="C127" s="64"/>
       <c r="D127" s="42"/>
       <c r="E127" s="43"/>
       <c r="F127" s="21"/>
@@ -24049,7 +24174,7 @@
     <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="65"/>
+      <c r="C128" s="64"/>
       <c r="D128" s="42"/>
       <c r="E128" s="43"/>
       <c r="F128" s="21"/>
@@ -24298,7 +24423,7 @@
     <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="49"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="65"/>
+      <c r="C129" s="64"/>
       <c r="D129" s="42"/>
       <c r="E129" s="43"/>
       <c r="F129" s="21"/>
@@ -24547,7 +24672,7 @@
     <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="65"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="42"/>
       <c r="E130" s="43"/>
       <c r="F130" s="21"/>
@@ -24796,7 +24921,7 @@
     <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="49"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="65"/>
+      <c r="C131" s="64"/>
       <c r="D131" s="42"/>
       <c r="E131" s="43"/>
       <c r="F131" s="21"/>
@@ -25045,7 +25170,7 @@
     <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="65"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="42"/>
       <c r="E132" s="43"/>
       <c r="F132" s="21"/>
@@ -25294,7 +25419,7 @@
     <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="65"/>
+      <c r="C133" s="64"/>
       <c r="D133" s="42"/>
       <c r="E133" s="43"/>
       <c r="F133" s="21"/>
@@ -25543,7 +25668,7 @@
     <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="B134" s="15"/>
-      <c r="C134" s="65"/>
+      <c r="C134" s="64"/>
       <c r="D134" s="42"/>
       <c r="E134" s="43"/>
       <c r="F134" s="21"/>
@@ -25792,7 +25917,7 @@
     <row r="135" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="65"/>
+      <c r="C135" s="64"/>
       <c r="D135" s="42"/>
       <c r="E135" s="43"/>
       <c r="F135" s="21"/>
@@ -26041,7 +26166,7 @@
     <row r="136" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="65"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="42"/>
       <c r="E136" s="43"/>
       <c r="F136" s="21"/>
@@ -26290,7 +26415,7 @@
     <row r="137" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="49"/>
       <c r="B137" s="15"/>
-      <c r="C137" s="65"/>
+      <c r="C137" s="64"/>
       <c r="D137" s="42"/>
       <c r="E137" s="43"/>
       <c r="F137" s="21"/>
@@ -26539,7 +26664,7 @@
     <row r="138" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="65"/>
+      <c r="C138" s="64"/>
       <c r="D138" s="42"/>
       <c r="E138" s="43"/>
       <c r="F138" s="21"/>
@@ -26788,7 +26913,7 @@
     <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="65"/>
+      <c r="C139" s="64"/>
       <c r="D139" s="42"/>
       <c r="E139" s="43"/>
       <c r="F139" s="21"/>
@@ -27037,7 +27162,7 @@
     <row r="140" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="65"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="42"/>
       <c r="E140" s="43"/>
       <c r="F140" s="21"/>
@@ -27286,7 +27411,7 @@
     <row r="141" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49"/>
       <c r="B141" s="15"/>
-      <c r="C141" s="65"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="42"/>
       <c r="E141" s="43"/>
       <c r="F141" s="21"/>
@@ -27535,7 +27660,7 @@
     <row r="142" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="65"/>
+      <c r="C142" s="64"/>
       <c r="D142" s="42"/>
       <c r="E142" s="43"/>
       <c r="F142" s="21"/>
@@ -27784,7 +27909,7 @@
     <row r="143" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
       <c r="B143" s="15"/>
-      <c r="C143" s="65"/>
+      <c r="C143" s="64"/>
       <c r="D143" s="42"/>
       <c r="E143" s="43"/>
       <c r="F143" s="21"/>
@@ -28033,7 +28158,7 @@
     <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="65"/>
+      <c r="C144" s="64"/>
       <c r="D144" s="42"/>
       <c r="E144" s="43"/>
       <c r="F144" s="21"/>
@@ -28282,7 +28407,7 @@
     <row r="145" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="65"/>
+      <c r="C145" s="64"/>
       <c r="D145" s="42"/>
       <c r="E145" s="43"/>
       <c r="F145" s="21"/>
@@ -28531,7 +28656,7 @@
     <row r="146" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
       <c r="B146" s="15"/>
-      <c r="C146" s="65"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="42"/>
       <c r="E146" s="43"/>
       <c r="F146" s="21"/>
@@ -28780,7 +28905,7 @@
     <row r="147" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49"/>
       <c r="B147" s="45"/>
-      <c r="C147" s="65"/>
+      <c r="C147" s="64"/>
       <c r="D147" s="42"/>
       <c r="E147" s="43"/>
       <c r="F147" s="21"/>
@@ -29029,7 +29154,7 @@
     <row r="148" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="65"/>
+      <c r="C148" s="64"/>
       <c r="D148" s="42"/>
       <c r="E148" s="43"/>
       <c r="F148" s="21"/>
@@ -29278,7 +29403,7 @@
     <row r="149" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49"/>
       <c r="B149" s="15"/>
-      <c r="C149" s="65"/>
+      <c r="C149" s="64"/>
       <c r="D149" s="42"/>
       <c r="E149" s="43"/>
       <c r="F149" s="21"/>
@@ -29527,7 +29652,7 @@
     <row r="150" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="65"/>
+      <c r="C150" s="64"/>
       <c r="D150" s="42"/>
       <c r="E150" s="43"/>
       <c r="F150" s="21"/>
@@ -29776,7 +29901,7 @@
     <row r="151" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="65"/>
+      <c r="C151" s="64"/>
       <c r="D151" s="42"/>
       <c r="E151" s="43"/>
       <c r="F151" s="21"/>
@@ -30025,7 +30150,7 @@
     <row r="152" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="65"/>
+      <c r="C152" s="64"/>
       <c r="D152" s="42"/>
       <c r="E152" s="43"/>
       <c r="F152" s="21"/>
@@ -30274,7 +30399,7 @@
     <row r="153" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="65"/>
+      <c r="C153" s="64"/>
       <c r="D153" s="42"/>
       <c r="E153" s="43"/>
       <c r="F153" s="21"/>
@@ -30523,7 +30648,7 @@
     <row r="154" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="15"/>
-      <c r="C154" s="65"/>
+      <c r="C154" s="64"/>
       <c r="D154" s="42"/>
       <c r="E154" s="43"/>
       <c r="F154" s="21"/>
@@ -30772,7 +30897,7 @@
     <row r="155" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="15"/>
-      <c r="C155" s="65"/>
+      <c r="C155" s="64"/>
       <c r="D155" s="42"/>
       <c r="E155" s="43"/>
       <c r="F155" s="21"/>
@@ -31021,7 +31146,7 @@
     <row r="156" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="49"/>
       <c r="B156" s="15"/>
-      <c r="C156" s="65"/>
+      <c r="C156" s="64"/>
       <c r="D156" s="42"/>
       <c r="E156" s="43"/>
       <c r="F156" s="21"/>
@@ -31270,7 +31395,7 @@
     <row r="157" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="15"/>
-      <c r="C157" s="65"/>
+      <c r="C157" s="64"/>
       <c r="D157" s="42"/>
       <c r="E157" s="43"/>
       <c r="F157" s="21"/>
@@ -31519,7 +31644,7 @@
     <row r="158" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="15"/>
-      <c r="C158" s="65"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="42"/>
       <c r="E158" s="43"/>
       <c r="F158" s="21"/>
@@ -31768,7 +31893,7 @@
     <row r="159" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="15"/>
-      <c r="C159" s="65"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="42"/>
       <c r="E159" s="43"/>
       <c r="F159" s="21"/>
@@ -32017,7 +32142,7 @@
     <row r="160" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
       <c r="B160" s="15"/>
-      <c r="C160" s="65"/>
+      <c r="C160" s="64"/>
       <c r="D160" s="42"/>
       <c r="E160" s="43"/>
       <c r="F160" s="21"/>
@@ -32266,7 +32391,7 @@
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="65"/>
+      <c r="C161" s="64"/>
       <c r="D161" s="42"/>
       <c r="E161" s="43"/>
       <c r="F161" s="21"/>
@@ -32515,7 +32640,7 @@
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="65"/>
+      <c r="C162" s="64"/>
       <c r="D162" s="42"/>
       <c r="E162" s="43"/>
       <c r="F162" s="21"/>
@@ -32764,7 +32889,7 @@
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="65"/>
+      <c r="C163" s="64"/>
       <c r="D163" s="42"/>
       <c r="E163" s="43"/>
       <c r="F163" s="21"/>
@@ -33013,7 +33138,7 @@
     <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="49"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="65"/>
+      <c r="C164" s="64"/>
       <c r="D164" s="42"/>
       <c r="E164" s="43"/>
       <c r="F164" s="21"/>
@@ -33262,7 +33387,7 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="65"/>
+      <c r="C165" s="64"/>
       <c r="D165" s="42"/>
       <c r="E165" s="43"/>
       <c r="F165" s="21"/>
@@ -33511,7 +33636,7 @@
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="65"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="42"/>
       <c r="E166" s="43"/>
       <c r="F166" s="21"/>
@@ -33760,7 +33885,7 @@
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="65"/>
+      <c r="C167" s="64"/>
       <c r="D167" s="42"/>
       <c r="E167" s="43"/>
       <c r="F167" s="21"/>
@@ -34009,7 +34134,7 @@
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49"/>
       <c r="B168" s="45"/>
-      <c r="C168" s="65"/>
+      <c r="C168" s="64"/>
       <c r="D168" s="42"/>
       <c r="E168" s="43"/>
       <c r="F168" s="21"/>
@@ -34258,7 +34383,7 @@
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="65"/>
+      <c r="C169" s="64"/>
       <c r="D169" s="42"/>
       <c r="E169" s="43"/>
       <c r="F169" s="21"/>
@@ -34509,16 +34634,16 @@
       <c r="B170" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="67"/>
+      <c r="C170" s="66"/>
       <c r="D170" s="32"/>
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-2547.9899999999993</v>
+        <v>-2747.9899999999993</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-4226.6099999999997</v>
+        <v>-4767.5099999999993</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -34528,11 +34653,11 @@
         <f>SUM(I3:I169)</f>
         <v>-163.41</v>
       </c>
-      <c r="J170" s="55">
+      <c r="J170" s="54">
         <f>SUM(J3:J169)</f>
         <v>0</v>
       </c>
-      <c r="K170" s="54"/>
+      <c r="K170" s="53"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="IM170"/>
@@ -36448,177 +36573,207 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A235 E71 E81:E169">
-    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E86:E169 A85:A235">
+    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="49" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="48" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="41" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="39" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="35" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="145">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -454,6 +454,12 @@
   <si>
     <t>Behindertensonntag Kamelhof</t>
   </si>
+  <si>
+    <t>Telekom Sept</t>
+  </si>
+  <si>
+    <t>Miete Okt 2018 Stadt Wabu</t>
+  </si>
 </sst>
 </file>
 
@@ -815,47 +821,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4245,7 +4211,7 @@
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>1538.490000000008</v>
+        <v>1095.8900000000076</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -4283,7 +4249,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5459.50000000001</v>
+        <v>5016.9000000000087</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -5078,82 +5044,82 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D42:G103 E38:G38 F39:G39 E40:G40 F41:G41">
-    <cfRule type="cellIs" dxfId="71" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="70" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="69" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="68" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="67" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="66" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="65" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="64" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="62" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="61" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="60" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="59" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="57" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5185,8 +5151,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <pane ySplit="2" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13715,12 +13681,22 @@
     </row>
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
+      <c r="B86" s="15">
+        <v>43361</v>
+      </c>
+      <c r="C86" s="64">
+        <v>83</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
+      <c r="G86" s="22">
+        <v>-16.71</v>
+      </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="23"/>
@@ -13964,12 +13940,22 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="43"/>
+      <c r="B87" s="15">
+        <v>43374</v>
+      </c>
+      <c r="C87" s="64">
+        <v>84</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
+      <c r="G87" s="22">
+        <v>-12</v>
+      </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="23"/>
@@ -14213,12 +14199,22 @@
     </row>
     <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="43"/>
+      <c r="B88" s="15">
+        <v>43374</v>
+      </c>
+      <c r="C88" s="64">
+        <v>85</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
+      <c r="G88" s="22">
+        <v>-30</v>
+      </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="23"/>
@@ -14462,12 +14458,22 @@
     </row>
     <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="43"/>
+      <c r="B89" s="15">
+        <v>43377</v>
+      </c>
+      <c r="C89" s="64">
+        <v>86</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
+      <c r="G89" s="22">
+        <v>-280</v>
+      </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
       <c r="J89" s="23"/>
@@ -14711,12 +14717,22 @@
     </row>
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="43"/>
+      <c r="B90" s="15">
+        <v>43381</v>
+      </c>
+      <c r="C90" s="64">
+        <v>87</v>
+      </c>
+      <c r="D90" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="F90" s="21"/>
-      <c r="G90" s="22"/>
+      <c r="G90" s="22">
+        <v>-103.89</v>
+      </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
       <c r="J90" s="23"/>
@@ -34643,7 +34659,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-4767.5099999999993</v>
+        <v>-5210.1099999999997</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -36573,207 +36589,232 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E86:E169 A85:A235">
-    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E91:E169 A85:A235">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -460,6 +460,21 @@
   <si>
     <t>Miete Okt 2018 Stadt Wabu</t>
   </si>
+  <si>
+    <t>Awo Ehrennadeln</t>
+  </si>
+  <si>
+    <t>Rundfunkgeb. 9/2018-11/2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 2.10.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 9.10.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 23.10.2018</t>
+  </si>
 </sst>
 </file>
 
@@ -821,7 +836,102 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2347,7 +2457,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H117" sqref="H117"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3350,11 +3460,21 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="15">
+        <v>43402</v>
+      </c>
+      <c r="B42" s="16">
+        <v>39</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21">
+        <v>169.55</v>
+      </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
@@ -3363,11 +3483,21 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="18"/>
+      <c r="A43" s="15">
+        <v>43402</v>
+      </c>
+      <c r="B43" s="16">
+        <v>40</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
+        <v>165.15</v>
+      </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
@@ -3376,11 +3506,21 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="52"/>
+      <c r="A44" s="15">
+        <v>43402</v>
+      </c>
+      <c r="B44" s="16">
+        <v>41</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>159.33000000000001</v>
+      </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -3389,11 +3529,21 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="18"/>
+      <c r="A45" s="15">
+        <v>43392</v>
+      </c>
+      <c r="B45" s="16">
+        <v>42</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>51.3</v>
+      </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
@@ -4164,7 +4314,7 @@
       <c r="D104" s="27"/>
       <c r="E104" s="28">
         <f>SUM(E3:E103)</f>
-        <v>3589.2100000000009</v>
+        <v>4134.5400000000009</v>
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
@@ -4207,11 +4357,11 @@
       <c r="D106" s="55"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>841.22000000000162</v>
+        <v>1235.2200000000012</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>1095.8900000000076</v>
+        <v>1046.0700000000079</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -4249,7 +4399,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5016.9000000000087</v>
+        <v>5361.080000000009</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -5043,91 +5193,116 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D42:G103 E38:G38 F39:G39 E40:G40 F41:G41">
-    <cfRule type="cellIs" dxfId="66" priority="17" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D46:G103 E38:G38 F39:G39 E40:G40 F41:G45">
+    <cfRule type="cellIs" dxfId="85" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="65" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="63" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="62" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="61" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="60" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="59" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="58" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="57" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="56" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="52" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D42:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D45:D103">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D44">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5151,8 +5326,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G181" sqref="G181"/>
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14976,12 +15151,22 @@
     </row>
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="43"/>
+      <c r="B91" s="15">
+        <v>43384</v>
+      </c>
+      <c r="C91" s="64">
+        <v>88</v>
+      </c>
+      <c r="D91" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="F91" s="21"/>
-      <c r="G91" s="22"/>
+      <c r="G91" s="22">
+        <v>-15.5</v>
+      </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
       <c r="J91" s="23"/>
@@ -15225,12 +15410,22 @@
     </row>
     <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="43"/>
+      <c r="B92" s="15">
+        <v>43388</v>
+      </c>
+      <c r="C92" s="64">
+        <v>89</v>
+      </c>
+      <c r="D92" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="21"/>
-      <c r="G92" s="22"/>
+      <c r="G92" s="22">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
       <c r="J92" s="23"/>
@@ -15474,12 +15669,22 @@
     </row>
     <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="43"/>
+      <c r="B93" s="15">
+        <v>43390</v>
+      </c>
+      <c r="C93" s="64">
+        <v>90</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F93" s="21"/>
-      <c r="G93" s="22"/>
+      <c r="G93" s="22">
+        <v>-16.829999999999998</v>
+      </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
       <c r="J93" s="23"/>
@@ -15723,11 +15928,21 @@
     </row>
     <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="21"/>
+      <c r="B94" s="15">
+        <v>43402</v>
+      </c>
+      <c r="C94" s="64">
+        <v>91</v>
+      </c>
+      <c r="D94" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="21">
+        <v>-46.05</v>
+      </c>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -15972,11 +16187,21 @@
     </row>
     <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="21"/>
+      <c r="B95" s="15">
+        <v>43402</v>
+      </c>
+      <c r="C95" s="64">
+        <v>92</v>
+      </c>
+      <c r="D95" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="21">
+        <v>-47.25</v>
+      </c>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -16221,11 +16446,21 @@
     </row>
     <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="21"/>
+      <c r="B96" s="15">
+        <v>43402</v>
+      </c>
+      <c r="C96" s="64">
+        <v>93</v>
+      </c>
+      <c r="D96" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="21">
+        <v>-58.03</v>
+      </c>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -34655,11 +34890,11 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-2747.9899999999993</v>
+        <v>-2899.3199999999997</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-5210.1099999999997</v>
+        <v>-5259.9299999999994</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -36589,233 +36824,263 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E91:E169 A85:A235">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E97:E169 A85:A235">
+    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="45" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="44" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="43" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="42" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="23" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="21" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="155">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -475,6 +475,21 @@
   <si>
     <t>Treff d.g.Laune 23.10.2018</t>
   </si>
+  <si>
+    <t>Miete nov 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Porto W.Schwarz</t>
+  </si>
+  <si>
+    <t>Trauerfall Lorch 29.10.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 6.11.2018</t>
+  </si>
+  <si>
+    <t>Schokolade Päckchen</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -811,7 +826,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,27 +850,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2455,9 +2449,9 @@
   </sheetPr>
   <dimension ref="A1:IK168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2477,17 +2471,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -3210,7 +3204,7 @@
       <c r="A31" s="15">
         <v>43223</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="63">
         <v>28</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -3371,7 +3365,7 @@
       <c r="A38" s="15">
         <v>43349</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>35</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -3394,7 +3388,7 @@
       <c r="A39" s="15">
         <v>43349</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="63">
         <v>36</v>
       </c>
       <c r="C39" s="58" t="s">
@@ -3417,7 +3411,7 @@
       <c r="A40" s="15">
         <v>43349</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40" s="63">
         <v>37</v>
       </c>
       <c r="C40" s="58" t="s">
@@ -3440,7 +3434,7 @@
       <c r="A41" s="15">
         <v>43349</v>
       </c>
-      <c r="B41" s="64">
+      <c r="B41" s="63">
         <v>38</v>
       </c>
       <c r="C41" s="58" t="s">
@@ -3552,11 +3546,21 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="18"/>
+      <c r="A46" s="15">
+        <v>43410</v>
+      </c>
+      <c r="B46" s="16">
+        <v>43</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>182.4</v>
+      </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
@@ -4314,7 +4318,7 @@
       <c r="D104" s="27"/>
       <c r="E104" s="28">
         <f>SUM(E3:E103)</f>
-        <v>4134.5400000000009</v>
+        <v>4316.9400000000005</v>
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
@@ -4357,11 +4361,11 @@
       <c r="D106" s="55"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>1235.2200000000012</v>
+        <v>1261.5200000000009</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>1046.0700000000079</v>
+        <v>722.79000000000815</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -4399,7 +4403,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5361.080000000009</v>
+        <v>5064.1000000000095</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -5193,116 +5197,121 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D46:G103 E38:G38 F39:G39 E40:G40 F41:G45">
-    <cfRule type="cellIs" dxfId="85" priority="22" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D47:G103 E38:G38 F39:G39 E40:G40 F41:G46">
+    <cfRule type="cellIs" dxfId="81" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="84" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="83" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="82" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="81" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="80" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="79" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="78" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="77" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="76" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="75" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="74" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="73" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="72" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="71" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="70" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D45:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D45 D47:D103">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D44 D46">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5325,9 +5334,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5349,17 +5358,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -5371,7 +5380,7 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -5406,7 +5415,7 @@
       <c r="B3" s="15">
         <v>43102</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <v>1</v>
       </c>
       <c r="D3" s="58" t="s">
@@ -5433,7 +5442,7 @@
       <c r="B4" s="45">
         <v>43102</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <v>2</v>
       </c>
       <c r="D4" s="58" t="s">
@@ -5460,7 +5469,7 @@
       <c r="B5" s="15">
         <v>43102</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <v>3</v>
       </c>
       <c r="D5" s="58" t="s">
@@ -5487,7 +5496,7 @@
       <c r="B6" s="15">
         <v>43102</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <v>4</v>
       </c>
       <c r="D6" s="58" t="s">
@@ -5514,7 +5523,7 @@
       <c r="B7" s="45">
         <v>43104</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>5</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -5541,7 +5550,7 @@
       <c r="B8" s="15">
         <v>43105</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>6</v>
       </c>
       <c r="D8" s="58" t="s">
@@ -5568,7 +5577,7 @@
       <c r="B9" s="15">
         <v>43109</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <v>7</v>
       </c>
       <c r="D9" s="58" t="s">
@@ -5595,7 +5604,7 @@
       <c r="B10" s="15">
         <v>43117</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>8</v>
       </c>
       <c r="D10" s="58" t="s">
@@ -5622,7 +5631,7 @@
       <c r="B11" s="45">
         <v>43115</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>9</v>
       </c>
       <c r="D11" s="58" t="s">
@@ -5649,7 +5658,7 @@
       <c r="B12" s="15">
         <v>43130</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <v>10</v>
       </c>
       <c r="D12" s="58" t="s">
@@ -5676,7 +5685,7 @@
       <c r="B13" s="15">
         <v>43130</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <v>11</v>
       </c>
       <c r="D13" s="58" t="s">
@@ -5703,7 +5712,7 @@
       <c r="B14" s="15">
         <v>43130</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="63">
         <v>12</v>
       </c>
       <c r="D14" s="58" t="s">
@@ -5730,7 +5739,7 @@
       <c r="B15" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="63">
         <v>13</v>
       </c>
       <c r="D15" s="58" t="s">
@@ -5757,7 +5766,7 @@
       <c r="B16" s="15">
         <v>43134</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>14</v>
       </c>
       <c r="D16" s="58" t="s">
@@ -5784,7 +5793,7 @@
       <c r="B17" s="45">
         <v>43134</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="63">
         <v>15</v>
       </c>
       <c r="D17" s="58" t="s">
@@ -5811,7 +5820,7 @@
       <c r="B18" s="15">
         <v>43137</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="63">
         <v>16</v>
       </c>
       <c r="D18" s="58" t="s">
@@ -5838,7 +5847,7 @@
       <c r="B19" s="15">
         <v>43145</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>17</v>
       </c>
       <c r="D19" s="58" t="s">
@@ -5863,7 +5872,7 @@
       <c r="B20" s="15">
         <v>43145</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="63">
         <v>18</v>
       </c>
       <c r="D20" s="58" t="s">
@@ -5888,7 +5897,7 @@
       <c r="B21" s="15">
         <v>43145</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="63">
         <v>19</v>
       </c>
       <c r="D21" s="58" t="s">
@@ -5913,7 +5922,7 @@
       <c r="B22" s="15">
         <v>43145</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="63">
         <v>20</v>
       </c>
       <c r="D22" s="58" t="s">
@@ -5938,7 +5947,7 @@
       <c r="B23" s="45">
         <v>43146</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="63">
         <v>21</v>
       </c>
       <c r="D23" s="58" t="s">
@@ -5963,7 +5972,7 @@
       <c r="B24" s="15">
         <v>43146</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="63">
         <v>22</v>
       </c>
       <c r="D24" s="58" t="s">
@@ -5988,7 +5997,7 @@
       <c r="B25" s="15">
         <v>43147</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="63">
         <v>23</v>
       </c>
       <c r="D25" s="58" t="s">
@@ -6013,7 +6022,7 @@
       <c r="B26" s="45">
         <v>43160</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="63">
         <v>24</v>
       </c>
       <c r="D26" s="58" t="s">
@@ -6038,7 +6047,7 @@
       <c r="B27" s="45">
         <v>43161</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="63">
         <v>25</v>
       </c>
       <c r="D27" s="58" t="s">
@@ -6063,7 +6072,7 @@
       <c r="B28" s="15">
         <v>43165</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="63">
         <v>26</v>
       </c>
       <c r="D28" s="58" t="s">
@@ -6088,7 +6097,7 @@
       <c r="B29" s="15">
         <v>43174</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="63">
         <v>27</v>
       </c>
       <c r="D29" s="58" t="s">
@@ -6113,7 +6122,7 @@
       <c r="B30" s="15">
         <v>43174</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="63">
         <v>28</v>
       </c>
       <c r="D30" s="58" t="s">
@@ -6138,7 +6147,7 @@
       <c r="B31" s="15">
         <v>43175</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="63">
         <v>29</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -6163,7 +6172,7 @@
       <c r="B32" s="15">
         <v>43188</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="63">
         <v>30</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -6188,7 +6197,7 @@
       <c r="B33" s="45">
         <v>43188</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="63">
         <v>31</v>
       </c>
       <c r="D33" s="58" t="s">
@@ -6213,7 +6222,7 @@
       <c r="B34" s="15">
         <v>43188</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <v>32</v>
       </c>
       <c r="D34" s="58" t="s">
@@ -6238,7 +6247,7 @@
       <c r="B35" s="15">
         <v>43188</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="63">
         <v>33</v>
       </c>
       <c r="D35" s="58" t="s">
@@ -6263,7 +6272,7 @@
       <c r="B36" s="15">
         <v>43188</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <v>34</v>
       </c>
       <c r="D36" s="42" t="s">
@@ -6288,7 +6297,7 @@
       <c r="B37" s="45">
         <v>43188</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <v>35</v>
       </c>
       <c r="D37" s="42" t="s">
@@ -6313,7 +6322,7 @@
       <c r="B38" s="15">
         <v>43188</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="63">
         <v>36</v>
       </c>
       <c r="D38" s="42" t="s">
@@ -6338,7 +6347,7 @@
       <c r="B39" s="15">
         <v>43188</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <v>37</v>
       </c>
       <c r="D39" s="42" t="s">
@@ -6361,7 +6370,7 @@
       <c r="B40" s="15">
         <v>43188</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="63">
         <v>38</v>
       </c>
       <c r="D40" s="42" t="s">
@@ -6390,7 +6399,7 @@
       <c r="B41" s="15">
         <v>43188</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="63">
         <v>39</v>
       </c>
       <c r="D41" s="42" t="s">
@@ -6417,7 +6426,7 @@
       <c r="B42" s="15">
         <v>43188</v>
       </c>
-      <c r="C42" s="65">
+      <c r="C42" s="64">
         <v>40</v>
       </c>
       <c r="D42" s="42" t="s">
@@ -6446,7 +6455,7 @@
       <c r="B43" s="15">
         <v>43188</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="63">
         <v>41</v>
       </c>
       <c r="D43" s="42" t="s">
@@ -6475,7 +6484,7 @@
       <c r="B44" s="45">
         <v>43188</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="63">
         <v>42</v>
       </c>
       <c r="D44" s="42" t="s">
@@ -6504,7 +6513,7 @@
       <c r="B45" s="15">
         <v>43194</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="63">
         <v>43</v>
       </c>
       <c r="D45" s="42" t="s">
@@ -6533,7 +6542,7 @@
       <c r="B46" s="15">
         <v>43194</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="63">
         <v>44</v>
       </c>
       <c r="D46" s="58" t="s">
@@ -6564,7 +6573,7 @@
       <c r="B47" s="15">
         <v>43194</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="63">
         <v>45</v>
       </c>
       <c r="D47" s="58" t="s">
@@ -6591,7 +6600,7 @@
       <c r="B48" s="15">
         <v>43195</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="63">
         <v>46</v>
       </c>
       <c r="D48" s="42" t="s">
@@ -6618,7 +6627,7 @@
       <c r="B49" s="15">
         <v>43206</v>
       </c>
-      <c r="C49" s="64">
+      <c r="C49" s="63">
         <v>47</v>
       </c>
       <c r="D49" s="58" t="s">
@@ -6643,7 +6652,7 @@
       <c r="B50" s="15">
         <v>43208</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="63">
         <v>48</v>
       </c>
       <c r="D50" s="42" t="s">
@@ -6668,7 +6677,7 @@
       <c r="B51" s="15">
         <v>43222</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="63">
         <v>49</v>
       </c>
       <c r="D51" s="58" t="s">
@@ -6693,7 +6702,7 @@
       <c r="B52" s="15">
         <v>43223</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="63">
         <v>50</v>
       </c>
       <c r="D52" s="42" t="s">
@@ -6718,7 +6727,7 @@
       <c r="B53" s="15">
         <v>43223</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="63">
         <v>51</v>
       </c>
       <c r="D53" s="58" t="s">
@@ -6743,7 +6752,7 @@
       <c r="B54" s="15">
         <v>43223</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="63">
         <v>52</v>
       </c>
       <c r="D54" s="58" t="s">
@@ -7002,7 +7011,7 @@
       <c r="B55" s="15">
         <v>43223</v>
       </c>
-      <c r="C55" s="64">
+      <c r="C55" s="63">
         <v>53</v>
       </c>
       <c r="D55" s="58" t="s">
@@ -7027,7 +7036,7 @@
       <c r="B56" s="15">
         <v>43223</v>
       </c>
-      <c r="C56" s="64">
+      <c r="C56" s="63">
         <v>54</v>
       </c>
       <c r="D56" s="42" t="s">
@@ -7052,7 +7061,7 @@
       <c r="B57" s="15">
         <v>43223</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="63">
         <v>55</v>
       </c>
       <c r="D57" s="42" t="s">
@@ -7077,7 +7086,7 @@
       <c r="B58" s="15">
         <v>43223</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="63">
         <v>56</v>
       </c>
       <c r="D58" s="42" t="s">
@@ -7102,7 +7111,7 @@
       <c r="B59" s="15">
         <v>43229</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="63">
         <v>57</v>
       </c>
       <c r="D59" s="42" t="s">
@@ -7127,7 +7136,7 @@
       <c r="B60" s="15">
         <v>43238</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="63">
         <v>58</v>
       </c>
       <c r="D60" s="42" t="s">
@@ -7386,7 +7395,7 @@
       <c r="B61" s="15">
         <v>43252</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="63">
         <v>59</v>
       </c>
       <c r="D61" s="58" t="s">
@@ -7645,7 +7654,7 @@
       <c r="B62" s="15">
         <v>43256</v>
       </c>
-      <c r="C62" s="64">
+      <c r="C62" s="63">
         <v>60</v>
       </c>
       <c r="D62" s="42" t="s">
@@ -7904,7 +7913,7 @@
       <c r="B63" s="15">
         <v>43269</v>
       </c>
-      <c r="C63" s="65">
+      <c r="C63" s="64">
         <v>61</v>
       </c>
       <c r="D63" s="42" t="s">
@@ -8163,7 +8172,7 @@
       <c r="B64" s="15">
         <v>43281</v>
       </c>
-      <c r="C64" s="65">
+      <c r="C64" s="64">
         <v>61</v>
       </c>
       <c r="D64" s="42" t="s">
@@ -8422,7 +8431,7 @@
       <c r="B65" s="15">
         <v>43283</v>
       </c>
-      <c r="C65" s="64">
+      <c r="C65" s="63">
         <v>62</v>
       </c>
       <c r="D65" s="42" t="s">
@@ -8681,7 +8690,7 @@
       <c r="B66" s="15">
         <v>43283</v>
       </c>
-      <c r="C66" s="64">
+      <c r="C66" s="63">
         <v>63</v>
       </c>
       <c r="D66" s="58" t="s">
@@ -8940,7 +8949,7 @@
       <c r="B67" s="15">
         <v>43283</v>
       </c>
-      <c r="C67" s="64">
+      <c r="C67" s="63">
         <v>64</v>
       </c>
       <c r="D67" s="58" t="s">
@@ -9199,7 +9208,7 @@
       <c r="B68" s="15">
         <v>43285</v>
       </c>
-      <c r="C68" s="64">
+      <c r="C68" s="63">
         <v>65</v>
       </c>
       <c r="D68" s="42" t="s">
@@ -9458,7 +9467,7 @@
       <c r="B69" s="15">
         <v>43297</v>
       </c>
-      <c r="C69" s="64">
+      <c r="C69" s="63">
         <v>66</v>
       </c>
       <c r="D69" s="58" t="s">
@@ -9717,7 +9726,7 @@
       <c r="B70" s="15">
         <v>43298</v>
       </c>
-      <c r="C70" s="64">
+      <c r="C70" s="63">
         <v>67</v>
       </c>
       <c r="D70" s="42" t="s">
@@ -9976,7 +9985,7 @@
       <c r="B71" s="15">
         <v>43298</v>
       </c>
-      <c r="C71" s="64">
+      <c r="C71" s="63">
         <v>68</v>
       </c>
       <c r="D71" s="42" t="s">
@@ -10234,7 +10243,7 @@
       <c r="B72" s="15">
         <v>43304</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="63">
         <v>69</v>
       </c>
       <c r="D72" s="58" t="s">
@@ -10493,7 +10502,7 @@
       <c r="B73" s="15">
         <v>43313</v>
       </c>
-      <c r="C73" s="64">
+      <c r="C73" s="63">
         <v>70</v>
       </c>
       <c r="D73" s="58" t="s">
@@ -10752,7 +10761,7 @@
       <c r="B74" s="15">
         <v>43314</v>
       </c>
-      <c r="C74" s="64">
+      <c r="C74" s="63">
         <v>71</v>
       </c>
       <c r="D74" s="42" t="s">
@@ -11011,7 +11020,7 @@
       <c r="B75" s="15">
         <v>43329</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="63">
         <v>72</v>
       </c>
       <c r="D75" s="42" t="s">
@@ -11270,7 +11279,7 @@
       <c r="B76" s="15">
         <v>43340</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="63">
         <v>73</v>
       </c>
       <c r="D76" s="42" t="s">
@@ -11529,7 +11538,7 @@
       <c r="B77" s="15">
         <v>43349</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="63">
         <v>74</v>
       </c>
       <c r="D77" s="58" t="s">
@@ -11788,7 +11797,7 @@
       <c r="B78" s="15">
         <v>43349</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="63">
         <v>75</v>
       </c>
       <c r="D78" s="58" t="s">
@@ -12047,7 +12056,7 @@
       <c r="B79" s="15">
         <v>43349</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="63">
         <v>76</v>
       </c>
       <c r="D79" s="58" t="s">
@@ -12306,7 +12315,7 @@
       <c r="B80" s="15">
         <v>43349</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="63">
         <v>77</v>
       </c>
       <c r="D80" s="58" t="s">
@@ -12565,7 +12574,7 @@
       <c r="B81" s="15">
         <v>43346</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="63">
         <v>78</v>
       </c>
       <c r="D81" s="58" t="s">
@@ -12824,7 +12833,7 @@
       <c r="B82" s="15">
         <v>43347</v>
       </c>
-      <c r="C82" s="64">
+      <c r="C82" s="63">
         <v>79</v>
       </c>
       <c r="D82" s="42" t="s">
@@ -13083,7 +13092,7 @@
       <c r="B83" s="15">
         <v>43356</v>
       </c>
-      <c r="C83" s="64">
+      <c r="C83" s="63">
         <v>80</v>
       </c>
       <c r="D83" s="42" t="s">
@@ -13341,7 +13350,7 @@
       <c r="B84" s="15">
         <v>43359</v>
       </c>
-      <c r="C84" s="64">
+      <c r="C84" s="63">
         <v>81</v>
       </c>
       <c r="D84" s="42" t="s">
@@ -13600,7 +13609,7 @@
       <c r="B85" s="15">
         <v>43360</v>
       </c>
-      <c r="C85" s="64">
+      <c r="C85" s="63">
         <v>82</v>
       </c>
       <c r="D85" s="42" t="s">
@@ -13859,7 +13868,7 @@
       <c r="B86" s="15">
         <v>43361</v>
       </c>
-      <c r="C86" s="64">
+      <c r="C86" s="63">
         <v>83</v>
       </c>
       <c r="D86" s="42" t="s">
@@ -14118,7 +14127,7 @@
       <c r="B87" s="15">
         <v>43374</v>
       </c>
-      <c r="C87" s="64">
+      <c r="C87" s="63">
         <v>84</v>
       </c>
       <c r="D87" s="58" t="s">
@@ -14377,7 +14386,7 @@
       <c r="B88" s="15">
         <v>43374</v>
       </c>
-      <c r="C88" s="64">
+      <c r="C88" s="63">
         <v>85</v>
       </c>
       <c r="D88" s="58" t="s">
@@ -14636,7 +14645,7 @@
       <c r="B89" s="15">
         <v>43377</v>
       </c>
-      <c r="C89" s="64">
+      <c r="C89" s="63">
         <v>86</v>
       </c>
       <c r="D89" s="42" t="s">
@@ -14895,7 +14904,7 @@
       <c r="B90" s="15">
         <v>43381</v>
       </c>
-      <c r="C90" s="64">
+      <c r="C90" s="63">
         <v>87</v>
       </c>
       <c r="D90" s="58" t="s">
@@ -15154,7 +15163,7 @@
       <c r="B91" s="15">
         <v>43384</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="63">
         <v>88</v>
       </c>
       <c r="D91" s="58" t="s">
@@ -15413,7 +15422,7 @@
       <c r="B92" s="15">
         <v>43388</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="63">
         <v>89</v>
       </c>
       <c r="D92" s="58" t="s">
@@ -15672,7 +15681,7 @@
       <c r="B93" s="15">
         <v>43390</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="63">
         <v>90</v>
       </c>
       <c r="D93" s="42" t="s">
@@ -15931,7 +15940,7 @@
       <c r="B94" s="15">
         <v>43402</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="63">
         <v>91</v>
       </c>
       <c r="D94" s="58" t="s">
@@ -16190,7 +16199,7 @@
       <c r="B95" s="15">
         <v>43402</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="63">
         <v>92</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -16449,7 +16458,7 @@
       <c r="B96" s="15">
         <v>43402</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="63">
         <v>93</v>
       </c>
       <c r="D96" s="58" t="s">
@@ -16705,12 +16714,24 @@
     </row>
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="62"/>
+      <c r="B97" s="15">
+        <v>43403</v>
+      </c>
+      <c r="C97" s="63">
+        <v>94</v>
+      </c>
+      <c r="D97" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="21">
+        <v>-7</v>
+      </c>
+      <c r="G97" s="22">
+        <v>-12</v>
+      </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="23"/>
@@ -16954,12 +16975,22 @@
     </row>
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="43"/>
+      <c r="B98" s="15">
+        <v>43406</v>
+      </c>
+      <c r="C98" s="63">
+        <v>95</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F98" s="21"/>
-      <c r="G98" s="22"/>
+      <c r="G98" s="22">
+        <v>-12</v>
+      </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
       <c r="J98" s="23"/>
@@ -17203,12 +17234,22 @@
     </row>
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="43"/>
+      <c r="B99" s="15">
+        <v>43409</v>
+      </c>
+      <c r="C99" s="63">
+        <v>96</v>
+      </c>
+      <c r="D99" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
+      <c r="G99" s="22">
+        <v>-19.28</v>
+      </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
       <c r="J99" s="23"/>
@@ -17452,11 +17493,21 @@
     </row>
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="21"/>
+      <c r="B100" s="15">
+        <v>43410</v>
+      </c>
+      <c r="C100" s="63">
+        <v>97</v>
+      </c>
+      <c r="D100" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="21">
+        <v>-76.900000000000006</v>
+      </c>
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -17701,11 +17752,21 @@
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="21"/>
+      <c r="B101" s="15">
+        <v>43410</v>
+      </c>
+      <c r="C101" s="63">
+        <v>98</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="21">
+        <v>-25</v>
+      </c>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -17950,11 +18011,21 @@
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="21"/>
+      <c r="B102" s="15">
+        <v>43412</v>
+      </c>
+      <c r="C102" s="63">
+        <v>99</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="21">
+        <v>-47.2</v>
+      </c>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
@@ -18199,12 +18270,22 @@
     </row>
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="43"/>
+      <c r="B103" s="15">
+        <v>43409</v>
+      </c>
+      <c r="C103" s="63">
+        <v>100</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
+      <c r="G103" s="22">
+        <v>-280</v>
+      </c>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
       <c r="J103" s="23"/>
@@ -18449,7 +18530,7 @@
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
       <c r="B104" s="15"/>
-      <c r="C104" s="64"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="42"/>
       <c r="E104" s="43"/>
       <c r="F104" s="21"/>
@@ -18698,7 +18779,7 @@
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="64"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="42"/>
       <c r="E105" s="43"/>
       <c r="F105" s="21"/>
@@ -18947,7 +19028,7 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="64"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="42"/>
       <c r="E106" s="43"/>
       <c r="F106" s="21"/>
@@ -19196,7 +19277,7 @@
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49"/>
       <c r="B107" s="15"/>
-      <c r="C107" s="64"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="42"/>
       <c r="E107" s="43"/>
       <c r="F107" s="21"/>
@@ -19445,7 +19526,7 @@
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="64"/>
+      <c r="C108" s="63"/>
       <c r="D108" s="42"/>
       <c r="E108" s="43"/>
       <c r="F108" s="21"/>
@@ -19694,7 +19775,7 @@
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="64"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="42"/>
       <c r="E109" s="43"/>
       <c r="F109" s="21"/>
@@ -19943,7 +20024,7 @@
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="64"/>
+      <c r="C110" s="63"/>
       <c r="D110" s="42"/>
       <c r="E110" s="43"/>
       <c r="F110" s="21"/>
@@ -20192,7 +20273,7 @@
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="64"/>
+      <c r="C111" s="63"/>
       <c r="D111" s="42"/>
       <c r="E111" s="43"/>
       <c r="F111" s="21"/>
@@ -20441,7 +20522,7 @@
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="64"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="42"/>
       <c r="E112" s="43"/>
       <c r="F112" s="21"/>
@@ -20690,7 +20771,7 @@
     <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="64"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="42"/>
       <c r="E113" s="43"/>
       <c r="F113" s="21"/>
@@ -20939,7 +21020,7 @@
     <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49"/>
       <c r="B114" s="15"/>
-      <c r="C114" s="64"/>
+      <c r="C114" s="63"/>
       <c r="D114" s="42"/>
       <c r="E114" s="43"/>
       <c r="F114" s="21"/>
@@ -21188,7 +21269,7 @@
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="49"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="64"/>
+      <c r="C115" s="63"/>
       <c r="D115" s="42"/>
       <c r="E115" s="43"/>
       <c r="F115" s="21"/>
@@ -21437,7 +21518,7 @@
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="64"/>
+      <c r="C116" s="63"/>
       <c r="D116" s="42"/>
       <c r="E116" s="43"/>
       <c r="F116" s="21"/>
@@ -21686,7 +21767,7 @@
     <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49"/>
       <c r="B117" s="15"/>
-      <c r="C117" s="64"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="42"/>
       <c r="E117" s="43"/>
       <c r="F117" s="21"/>
@@ -21935,7 +22016,7 @@
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="64"/>
+      <c r="C118" s="63"/>
       <c r="D118" s="42"/>
       <c r="E118" s="43"/>
       <c r="F118" s="21"/>
@@ -22184,7 +22265,7 @@
     <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49"/>
       <c r="B119" s="15"/>
-      <c r="C119" s="64"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="42"/>
       <c r="E119" s="43"/>
       <c r="F119" s="21"/>
@@ -22433,7 +22514,7 @@
     <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49"/>
       <c r="B120" s="45"/>
-      <c r="C120" s="64"/>
+      <c r="C120" s="63"/>
       <c r="D120" s="42"/>
       <c r="E120" s="43"/>
       <c r="F120" s="21"/>
@@ -22682,7 +22763,7 @@
     <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="64"/>
+      <c r="C121" s="63"/>
       <c r="D121" s="42"/>
       <c r="E121" s="43"/>
       <c r="F121" s="21"/>
@@ -22931,7 +23012,7 @@
     <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="64"/>
+      <c r="C122" s="63"/>
       <c r="D122" s="42"/>
       <c r="E122" s="43"/>
       <c r="F122" s="21"/>
@@ -23180,7 +23261,7 @@
     <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="64"/>
+      <c r="C123" s="63"/>
       <c r="D123" s="42"/>
       <c r="E123" s="43"/>
       <c r="F123" s="21"/>
@@ -23429,7 +23510,7 @@
     <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="64"/>
+      <c r="C124" s="63"/>
       <c r="D124" s="42"/>
       <c r="E124" s="43"/>
       <c r="F124" s="21"/>
@@ -23678,7 +23759,7 @@
     <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="49"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="64"/>
+      <c r="C125" s="63"/>
       <c r="D125" s="42"/>
       <c r="E125" s="43"/>
       <c r="F125" s="21"/>
@@ -23927,7 +24008,7 @@
     <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="64"/>
+      <c r="C126" s="63"/>
       <c r="D126" s="42"/>
       <c r="E126" s="43"/>
       <c r="F126" s="21"/>
@@ -24176,7 +24257,7 @@
     <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="64"/>
+      <c r="C127" s="63"/>
       <c r="D127" s="42"/>
       <c r="E127" s="43"/>
       <c r="F127" s="21"/>
@@ -24425,7 +24506,7 @@
     <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="64"/>
+      <c r="C128" s="63"/>
       <c r="D128" s="42"/>
       <c r="E128" s="43"/>
       <c r="F128" s="21"/>
@@ -24674,7 +24755,7 @@
     <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="49"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="64"/>
+      <c r="C129" s="63"/>
       <c r="D129" s="42"/>
       <c r="E129" s="43"/>
       <c r="F129" s="21"/>
@@ -24923,7 +25004,7 @@
     <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="64"/>
+      <c r="C130" s="63"/>
       <c r="D130" s="42"/>
       <c r="E130" s="43"/>
       <c r="F130" s="21"/>
@@ -25172,7 +25253,7 @@
     <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="49"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="64"/>
+      <c r="C131" s="63"/>
       <c r="D131" s="42"/>
       <c r="E131" s="43"/>
       <c r="F131" s="21"/>
@@ -25421,7 +25502,7 @@
     <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="64"/>
+      <c r="C132" s="63"/>
       <c r="D132" s="42"/>
       <c r="E132" s="43"/>
       <c r="F132" s="21"/>
@@ -25670,7 +25751,7 @@
     <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="64"/>
+      <c r="C133" s="63"/>
       <c r="D133" s="42"/>
       <c r="E133" s="43"/>
       <c r="F133" s="21"/>
@@ -25919,7 +26000,7 @@
     <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="B134" s="15"/>
-      <c r="C134" s="64"/>
+      <c r="C134" s="63"/>
       <c r="D134" s="42"/>
       <c r="E134" s="43"/>
       <c r="F134" s="21"/>
@@ -26168,7 +26249,7 @@
     <row r="135" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="64"/>
+      <c r="C135" s="63"/>
       <c r="D135" s="42"/>
       <c r="E135" s="43"/>
       <c r="F135" s="21"/>
@@ -26417,7 +26498,7 @@
     <row r="136" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="64"/>
+      <c r="C136" s="63"/>
       <c r="D136" s="42"/>
       <c r="E136" s="43"/>
       <c r="F136" s="21"/>
@@ -26666,7 +26747,7 @@
     <row r="137" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="49"/>
       <c r="B137" s="15"/>
-      <c r="C137" s="64"/>
+      <c r="C137" s="63"/>
       <c r="D137" s="42"/>
       <c r="E137" s="43"/>
       <c r="F137" s="21"/>
@@ -26915,7 +26996,7 @@
     <row r="138" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="64"/>
+      <c r="C138" s="63"/>
       <c r="D138" s="42"/>
       <c r="E138" s="43"/>
       <c r="F138" s="21"/>
@@ -27164,7 +27245,7 @@
     <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="64"/>
+      <c r="C139" s="63"/>
       <c r="D139" s="42"/>
       <c r="E139" s="43"/>
       <c r="F139" s="21"/>
@@ -27413,7 +27494,7 @@
     <row r="140" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="64"/>
+      <c r="C140" s="63"/>
       <c r="D140" s="42"/>
       <c r="E140" s="43"/>
       <c r="F140" s="21"/>
@@ -27662,7 +27743,7 @@
     <row r="141" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49"/>
       <c r="B141" s="15"/>
-      <c r="C141" s="64"/>
+      <c r="C141" s="63"/>
       <c r="D141" s="42"/>
       <c r="E141" s="43"/>
       <c r="F141" s="21"/>
@@ -27911,7 +27992,7 @@
     <row r="142" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="64"/>
+      <c r="C142" s="63"/>
       <c r="D142" s="42"/>
       <c r="E142" s="43"/>
       <c r="F142" s="21"/>
@@ -28160,7 +28241,7 @@
     <row r="143" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
       <c r="B143" s="15"/>
-      <c r="C143" s="64"/>
+      <c r="C143" s="63"/>
       <c r="D143" s="42"/>
       <c r="E143" s="43"/>
       <c r="F143" s="21"/>
@@ -28409,7 +28490,7 @@
     <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="64"/>
+      <c r="C144" s="63"/>
       <c r="D144" s="42"/>
       <c r="E144" s="43"/>
       <c r="F144" s="21"/>
@@ -28658,7 +28739,7 @@
     <row r="145" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="64"/>
+      <c r="C145" s="63"/>
       <c r="D145" s="42"/>
       <c r="E145" s="43"/>
       <c r="F145" s="21"/>
@@ -28907,7 +28988,7 @@
     <row r="146" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
       <c r="B146" s="15"/>
-      <c r="C146" s="64"/>
+      <c r="C146" s="63"/>
       <c r="D146" s="42"/>
       <c r="E146" s="43"/>
       <c r="F146" s="21"/>
@@ -29156,7 +29237,7 @@
     <row r="147" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49"/>
       <c r="B147" s="45"/>
-      <c r="C147" s="64"/>
+      <c r="C147" s="63"/>
       <c r="D147" s="42"/>
       <c r="E147" s="43"/>
       <c r="F147" s="21"/>
@@ -29405,7 +29486,7 @@
     <row r="148" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="49"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="64"/>
+      <c r="C148" s="63"/>
       <c r="D148" s="42"/>
       <c r="E148" s="43"/>
       <c r="F148" s="21"/>
@@ -29654,7 +29735,7 @@
     <row r="149" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49"/>
       <c r="B149" s="15"/>
-      <c r="C149" s="64"/>
+      <c r="C149" s="63"/>
       <c r="D149" s="42"/>
       <c r="E149" s="43"/>
       <c r="F149" s="21"/>
@@ -29903,7 +29984,7 @@
     <row r="150" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="64"/>
+      <c r="C150" s="63"/>
       <c r="D150" s="42"/>
       <c r="E150" s="43"/>
       <c r="F150" s="21"/>
@@ -30152,7 +30233,7 @@
     <row r="151" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="64"/>
+      <c r="C151" s="63"/>
       <c r="D151" s="42"/>
       <c r="E151" s="43"/>
       <c r="F151" s="21"/>
@@ -30401,7 +30482,7 @@
     <row r="152" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="64"/>
+      <c r="C152" s="63"/>
       <c r="D152" s="42"/>
       <c r="E152" s="43"/>
       <c r="F152" s="21"/>
@@ -30650,7 +30731,7 @@
     <row r="153" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="64"/>
+      <c r="C153" s="63"/>
       <c r="D153" s="42"/>
       <c r="E153" s="43"/>
       <c r="F153" s="21"/>
@@ -30899,7 +30980,7 @@
     <row r="154" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="15"/>
-      <c r="C154" s="64"/>
+      <c r="C154" s="63"/>
       <c r="D154" s="42"/>
       <c r="E154" s="43"/>
       <c r="F154" s="21"/>
@@ -31148,7 +31229,7 @@
     <row r="155" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="15"/>
-      <c r="C155" s="64"/>
+      <c r="C155" s="63"/>
       <c r="D155" s="42"/>
       <c r="E155" s="43"/>
       <c r="F155" s="21"/>
@@ -31397,7 +31478,7 @@
     <row r="156" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="49"/>
       <c r="B156" s="15"/>
-      <c r="C156" s="64"/>
+      <c r="C156" s="63"/>
       <c r="D156" s="42"/>
       <c r="E156" s="43"/>
       <c r="F156" s="21"/>
@@ -31646,7 +31727,7 @@
     <row r="157" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="15"/>
-      <c r="C157" s="64"/>
+      <c r="C157" s="63"/>
       <c r="D157" s="42"/>
       <c r="E157" s="43"/>
       <c r="F157" s="21"/>
@@ -31895,7 +31976,7 @@
     <row r="158" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="15"/>
-      <c r="C158" s="64"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="42"/>
       <c r="E158" s="43"/>
       <c r="F158" s="21"/>
@@ -32144,7 +32225,7 @@
     <row r="159" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="15"/>
-      <c r="C159" s="64"/>
+      <c r="C159" s="63"/>
       <c r="D159" s="42"/>
       <c r="E159" s="43"/>
       <c r="F159" s="21"/>
@@ -32393,7 +32474,7 @@
     <row r="160" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
       <c r="B160" s="15"/>
-      <c r="C160" s="64"/>
+      <c r="C160" s="63"/>
       <c r="D160" s="42"/>
       <c r="E160" s="43"/>
       <c r="F160" s="21"/>
@@ -32642,7 +32723,7 @@
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="64"/>
+      <c r="C161" s="63"/>
       <c r="D161" s="42"/>
       <c r="E161" s="43"/>
       <c r="F161" s="21"/>
@@ -32891,7 +32972,7 @@
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="64"/>
+      <c r="C162" s="63"/>
       <c r="D162" s="42"/>
       <c r="E162" s="43"/>
       <c r="F162" s="21"/>
@@ -33140,7 +33221,7 @@
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="64"/>
+      <c r="C163" s="63"/>
       <c r="D163" s="42"/>
       <c r="E163" s="43"/>
       <c r="F163" s="21"/>
@@ -33389,7 +33470,7 @@
     <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="49"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="64"/>
+      <c r="C164" s="63"/>
       <c r="D164" s="42"/>
       <c r="E164" s="43"/>
       <c r="F164" s="21"/>
@@ -33638,7 +33719,7 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="64"/>
+      <c r="C165" s="63"/>
       <c r="D165" s="42"/>
       <c r="E165" s="43"/>
       <c r="F165" s="21"/>
@@ -33887,7 +33968,7 @@
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="64"/>
+      <c r="C166" s="63"/>
       <c r="D166" s="42"/>
       <c r="E166" s="43"/>
       <c r="F166" s="21"/>
@@ -34136,7 +34217,7 @@
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="64"/>
+      <c r="C167" s="63"/>
       <c r="D167" s="42"/>
       <c r="E167" s="43"/>
       <c r="F167" s="21"/>
@@ -34385,7 +34466,7 @@
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49"/>
       <c r="B168" s="45"/>
-      <c r="C168" s="64"/>
+      <c r="C168" s="63"/>
       <c r="D168" s="42"/>
       <c r="E168" s="43"/>
       <c r="F168" s="21"/>
@@ -34634,7 +34715,7 @@
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="64"/>
+      <c r="C169" s="63"/>
       <c r="D169" s="42"/>
       <c r="E169" s="43"/>
       <c r="F169" s="21"/>
@@ -34885,16 +34966,16 @@
       <c r="B170" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="66"/>
+      <c r="C170" s="65"/>
       <c r="D170" s="32"/>
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-2899.3199999999997</v>
+        <v>-3055.4199999999996</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-5259.9299999999994</v>
+        <v>-5583.2099999999991</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -36824,263 +36905,298 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E97:E169 A85:A235">
-    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E104:E169 A85:A235">
+    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="36" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="160">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -490,6 +490,21 @@
   <si>
     <t>Schokolade Päckchen</t>
   </si>
+  <si>
+    <t>Spende Ruckh</t>
+  </si>
+  <si>
+    <t>Telekom Okt</t>
+  </si>
+  <si>
+    <t>Essen Vorstand Sandäcker</t>
+  </si>
+  <si>
+    <t>Tragetaschen</t>
+  </si>
+  <si>
+    <t>Ausgaben Blümel</t>
+  </si>
 </sst>
 </file>
 
@@ -850,7 +865,92 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2449,9 +2549,9 @@
   </sheetPr>
   <dimension ref="A1:IK168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3569,12 +3669,22 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="15">
+        <v>43416</v>
+      </c>
+      <c r="B47" s="16">
+        <v>44</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="19">
+        <v>100</v>
+      </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="20"/>
@@ -4322,7 +4432,7 @@
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
-        <v>6306.0000000000073</v>
+        <v>6406.0000000000073</v>
       </c>
       <c r="G104" s="29">
         <f>SUM(G3:G103)</f>
@@ -4361,11 +4471,11 @@
       <c r="D106" s="55"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>1261.5200000000009</v>
+        <v>403.38000000000056</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>722.79000000000815</v>
+        <v>817.37000000000808</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -4403,7 +4513,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>5064.1000000000095</v>
+        <v>4300.5400000000081</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -5197,113 +5307,118 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D47:G103 E38:G38 F39:G39 E40:G40 F41:G46">
-    <cfRule type="cellIs" dxfId="81" priority="23" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D48:G103 E38:G38 F39:G39 E40:G40 F41:G47">
+    <cfRule type="cellIs" dxfId="98" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="80" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="79" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="78" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="77" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="76" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="75" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="73" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="72" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="71" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="70" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="69" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="67" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="66" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="65" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="64" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="63" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5334,9 +5449,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16729,9 +16844,7 @@
       <c r="F97" s="21">
         <v>-7</v>
       </c>
-      <c r="G97" s="22">
-        <v>-12</v>
-      </c>
+      <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="23"/>
@@ -18529,12 +18642,22 @@
     </row>
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="43"/>
+      <c r="B104" s="15">
+        <v>43419</v>
+      </c>
+      <c r="C104" s="63">
+        <v>101</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
+      <c r="G104" s="22">
+        <v>-17.420000000000002</v>
+      </c>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
       <c r="J104" s="23"/>
@@ -18778,11 +18901,21 @@
     </row>
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="21"/>
+      <c r="B105" s="15">
+        <v>43429</v>
+      </c>
+      <c r="C105" s="63">
+        <v>102</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="21">
+        <v>-310</v>
+      </c>
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
@@ -19027,11 +19160,21 @@
     </row>
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="21"/>
+      <c r="B106" s="15">
+        <v>43429</v>
+      </c>
+      <c r="C106" s="63">
+        <v>103</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="21">
+        <v>-32.5</v>
+      </c>
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
@@ -19276,11 +19419,21 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="21"/>
+      <c r="B107" s="15">
+        <v>43429</v>
+      </c>
+      <c r="C107" s="63">
+        <v>104</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="21">
+        <v>-502.34</v>
+      </c>
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
@@ -19525,11 +19678,21 @@
     </row>
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="21"/>
+      <c r="B108" s="15">
+        <v>43429</v>
+      </c>
+      <c r="C108" s="63">
+        <v>105</v>
+      </c>
+      <c r="D108" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="21">
+        <v>-13.3</v>
+      </c>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
@@ -34971,11 +35134,11 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-3055.4199999999996</v>
+        <v>-3913.56</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-5583.2099999999991</v>
+        <v>-5588.6299999999992</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -36905,302 +37068,337 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 D106:E171 E3:E45 C106:C235 B106:B236 A3:A53 E65 A55:A83 E71 E104:E169 A85:A235">
-    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109:B236 A3:A53 E65 A55:A83 E71 D109:E171 A85:A235 C106:D106 C109:C235">
+    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="51" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="50" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="49" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="48" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="47" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="46" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="44" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="43" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="42" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="41" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="40" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="39" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="38" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="37" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="36" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="35" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="34" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="33" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="32" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="31" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="29" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="28" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="27" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="26" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="25" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="23" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="22" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E56:E169">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="169">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -505,6 +505,33 @@
   <si>
     <t>Ausgaben Blümel</t>
   </si>
+  <si>
+    <t>Miete dez 2018 Stadt Wabu</t>
+  </si>
+  <si>
+    <t>Umbbuchung KSK Giro</t>
+  </si>
+  <si>
+    <t>Spende Lutz</t>
+  </si>
+  <si>
+    <t>Spende Heimann</t>
+  </si>
+  <si>
+    <t>Anonyme Spende</t>
+  </si>
+  <si>
+    <t>Ausgaben Alex</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 27.11.2018</t>
+  </si>
+  <si>
+    <t>Treff d.g.Laune 4.12.2018</t>
+  </si>
+  <si>
+    <t>Obst-u.Gartenbauverein , 19.11.2018</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +892,137 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="125">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3692,25 +3849,45 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="15">
+        <v>43430</v>
+      </c>
+      <c r="B48" s="16">
+        <v>45</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="E48" s="18"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="H48" s="19">
+        <v>100</v>
+      </c>
       <c r="I48" s="20"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="15">
+        <v>43444</v>
+      </c>
+      <c r="B49" s="16">
+        <v>46</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="19">
+        <v>200</v>
+      </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="20"/>
@@ -3718,11 +3895,21 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="18"/>
+      <c r="A50" s="15">
+        <v>43447</v>
+      </c>
+      <c r="B50" s="16">
+        <v>47</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>174.43</v>
+      </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
@@ -3731,11 +3918,21 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="18"/>
+      <c r="A51" s="15">
+        <v>43447</v>
+      </c>
+      <c r="B51" s="16">
+        <v>48</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="18">
+        <v>161.66999999999999</v>
+      </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
@@ -3744,11 +3941,21 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="18"/>
+      <c r="A52" s="15">
+        <v>43447</v>
+      </c>
+      <c r="B52" s="16">
+        <v>49</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="18">
+        <v>49.8</v>
+      </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -3757,11 +3964,21 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="18"/>
+      <c r="A53" s="15">
+        <v>43447</v>
+      </c>
+      <c r="B53" s="16">
+        <v>50</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="21">
+        <v>50</v>
+      </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -3770,11 +3987,21 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="18"/>
+      <c r="A54" s="15">
+        <v>43447</v>
+      </c>
+      <c r="B54" s="16">
+        <v>51</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="19">
+        <v>128.5</v>
+      </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -3785,9 +4012,9 @@
     <row r="55" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="18"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
@@ -3799,8 +4026,8 @@
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="44"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="18"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="19"/>
       <c r="G56" s="61"/>
       <c r="H56" s="19"/>
@@ -4428,11 +4655,11 @@
       <c r="D104" s="27"/>
       <c r="E104" s="28">
         <f>SUM(E3:E103)</f>
-        <v>4316.9400000000005</v>
+        <v>4881.3400000000011</v>
       </c>
       <c r="F104" s="29">
         <f>SUM(F3:F103)</f>
-        <v>6406.0000000000073</v>
+        <v>6606.0000000000073</v>
       </c>
       <c r="G104" s="29">
         <f>SUM(G3:G103)</f>
@@ -4440,7 +4667,7 @@
       </c>
       <c r="H104" s="29">
         <f>SUM(H3:H103)</f>
-        <v>293.61</v>
+        <v>393.61</v>
       </c>
       <c r="I104" s="30">
         <f>SUM(I3:I103)</f>
@@ -4471,11 +4698,11 @@
       <c r="D106" s="55"/>
       <c r="E106" s="29">
         <f>E104+Ausgaben!F170</f>
-        <v>403.38000000000056</v>
+        <v>430.1800000000012</v>
       </c>
       <c r="F106" s="29">
         <f>F104+Ausgaben!G170</f>
-        <v>817.37000000000808</v>
+        <v>625.37000000000808</v>
       </c>
       <c r="G106" s="29">
         <f>G104+Ausgaben!H170</f>
@@ -4483,7 +4710,7 @@
       </c>
       <c r="H106" s="29">
         <f>H104+Ausgaben!I170</f>
-        <v>130.20000000000002</v>
+        <v>230.20000000000002</v>
       </c>
       <c r="I106" s="30">
         <f>I104+Ausgaben!K171</f>
@@ -4513,7 +4740,7 @@
       <c r="C108" s="25"/>
       <c r="D108" s="30">
         <f>SUM(E106:I106)</f>
-        <v>4300.5400000000081</v>
+        <v>4235.3400000000092</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="19"/>
@@ -5307,126 +5534,211 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 D48:G103 E38:G38 F39:G39 E40:G40 F41:G47">
-    <cfRule type="cellIs" dxfId="98" priority="25" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G47 E48:G48 D57:G103 G53:G56 G49 F50:G50 E51:G51 F52:G52">
+    <cfRule type="cellIs" dxfId="124" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="97" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="96" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="95" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="94" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="93" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="92" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="91" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="90" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="89" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="88" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="87" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="86" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="85" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="84" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="83" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="81" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="80" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="79" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="78" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="77" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="101" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="99" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="95" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="93" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D45 D47:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D45 D47 D49 D52:D103">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D44 D46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D44 D46 D48 D50:D51">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5450,8 +5762,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19937,12 +20249,22 @@
     </row>
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="43"/>
+      <c r="B109" s="15">
+        <v>43437</v>
+      </c>
+      <c r="C109" s="63">
+        <v>106</v>
+      </c>
+      <c r="D109" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
+      <c r="G109" s="22">
+        <v>-12</v>
+      </c>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
       <c r="J109" s="23"/>
@@ -20186,12 +20508,22 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="43"/>
+      <c r="B110" s="15">
+        <v>43429</v>
+      </c>
+      <c r="C110" s="63">
+        <v>107</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
+      <c r="G110" s="22">
+        <v>-100</v>
+      </c>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
       <c r="J110" s="23"/>
@@ -20435,12 +20767,22 @@
     </row>
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="49"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="63"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="43"/>
+      <c r="B111" s="15">
+        <v>43438</v>
+      </c>
+      <c r="C111" s="63">
+        <v>108</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F111" s="21"/>
-      <c r="G111" s="22"/>
+      <c r="G111" s="22">
+        <v>-280</v>
+      </c>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
       <c r="J111" s="23"/>
@@ -20684,11 +21026,21 @@
     </row>
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="63"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="21"/>
+      <c r="B112" s="15">
+        <v>43444</v>
+      </c>
+      <c r="C112" s="63">
+        <v>109</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="21">
+        <v>-432</v>
+      </c>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -20933,11 +21285,21 @@
     </row>
     <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="21"/>
+      <c r="B113" s="15">
+        <v>43447</v>
+      </c>
+      <c r="C113" s="63">
+        <v>110</v>
+      </c>
+      <c r="D113" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="21">
+        <v>-68.430000000000007</v>
+      </c>
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -21182,11 +21544,21 @@
     </row>
     <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="21"/>
+      <c r="B114" s="15">
+        <v>43447</v>
+      </c>
+      <c r="C114" s="63">
+        <v>111</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="21">
+        <v>-37.17</v>
+      </c>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -35134,11 +35506,11 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-3913.56</v>
+        <v>-4451.16</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-5588.6299999999992</v>
+        <v>-5980.6299999999992</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -37068,337 +37440,372 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109:B236 A3:A53 E65 A55:A83 E71 D109:E171 A85:A235 C106:D106 C109:C235">
-    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D115:E171 A85:A235 C106:D106 C109:C110 B115:B236 D110 C113 C115:C235">
+    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="67" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="66" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="65" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="63" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="61" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="58" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="57" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="55" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E56:E169">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$168</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="180">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -532,6 +532,39 @@
   <si>
     <t>Obst-u.Gartenbauverein , 19.11.2018</t>
   </si>
+  <si>
+    <t>Mitglbeitrag Lutz von Indiv.hilfe</t>
+  </si>
+  <si>
+    <t>Versteigerung</t>
+  </si>
+  <si>
+    <t>Blumensträusse</t>
+  </si>
+  <si>
+    <t>Weihnachtssterne, Clementinen</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Tombola</t>
+  </si>
+  <si>
+    <t>38A</t>
+  </si>
+  <si>
+    <t>Mitglbeitrag Redemann</t>
+  </si>
+  <si>
+    <t>Baecker Raisch, Früchtebrot</t>
+  </si>
+  <si>
+    <t>Spende Löffler</t>
+  </si>
+  <si>
+    <t>Individualhilfe 5x75</t>
+  </si>
 </sst>
 </file>
 
@@ -892,7 +925,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="131">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2704,11 +2767,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK168"/>
+  <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3712,23 +3775,23 @@
     </row>
     <row r="42" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>43402</v>
-      </c>
-      <c r="B42" s="16">
-        <v>39</v>
+        <v>43364</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>175</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="21">
-        <v>169.55</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="18"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="H42" s="19">
+        <v>30</v>
+      </c>
       <c r="I42" s="20"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -3738,16 +3801,16 @@
         <v>43402</v>
       </c>
       <c r="B43" s="16">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="21">
-        <v>165.15</v>
+        <v>169.55</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -3761,16 +3824,16 @@
         <v>43402</v>
       </c>
       <c r="B44" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E44" s="21">
-        <v>159.33000000000001</v>
+        <v>165.15</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -3781,19 +3844,19 @@
     </row>
     <row r="45" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>43392</v>
+        <v>43402</v>
       </c>
       <c r="B45" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="18">
-        <v>51.3</v>
+      <c r="E45" s="21">
+        <v>159.33000000000001</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -3804,19 +3867,19 @@
     </row>
     <row r="46" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <v>43410</v>
+        <v>43392</v>
       </c>
       <c r="B46" s="16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="21">
-        <v>182.4</v>
+      <c r="E46" s="18">
+        <v>51.3</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -3827,21 +3890,21 @@
     </row>
     <row r="47" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>43416</v>
+        <v>43410</v>
       </c>
       <c r="B47" s="16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="19">
-        <v>100</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
+        <v>182.4</v>
+      </c>
+      <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="20"/>
@@ -3850,67 +3913,67 @@
     </row>
     <row r="48" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>43430</v>
+        <v>43416</v>
       </c>
       <c r="B48" s="16">
-        <v>45</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="19">
+        <v>100</v>
+      </c>
       <c r="G48" s="19"/>
-      <c r="H48" s="19">
-        <v>100</v>
-      </c>
+      <c r="H48" s="19"/>
       <c r="I48" s="20"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>43444</v>
+        <v>43430</v>
       </c>
       <c r="B49" s="16">
-        <v>46</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="19">
-        <v>200</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="19">
+        <v>100</v>
+      </c>
       <c r="I49" s="20"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>43447</v>
+        <v>43444</v>
       </c>
       <c r="B50" s="16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="21">
-        <v>174.43</v>
-      </c>
-      <c r="F50" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="19">
+        <v>200</v>
+      </c>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="20"/>
@@ -3922,16 +3985,16 @@
         <v>43447</v>
       </c>
       <c r="B51" s="16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="18">
-        <v>161.66999999999999</v>
+      <c r="E51" s="21">
+        <v>174.43</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -3945,16 +4008,16 @@
         <v>43447</v>
       </c>
       <c r="B52" s="16">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="18">
-        <v>49.8</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -3968,16 +4031,16 @@
         <v>43447</v>
       </c>
       <c r="B53" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="21">
-        <v>50</v>
+        <v>168</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="18">
+        <v>49.8</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -3991,16 +4054,16 @@
         <v>43447</v>
       </c>
       <c r="B54" s="16">
-        <v>51</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>164</v>
+        <v>50</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>163</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="19">
-        <v>128.5</v>
+      <c r="E54" s="21">
+        <v>50</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -4010,11 +4073,21 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="21"/>
+      <c r="A55" s="15">
+        <v>43447</v>
+      </c>
+      <c r="B55" s="16">
+        <v>51</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="19">
+        <v>128.5</v>
+      </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
@@ -4023,37 +4096,67 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="21"/>
+      <c r="A56" s="15">
+        <v>43450</v>
+      </c>
+      <c r="B56" s="44">
+        <v>52</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="21">
+        <v>30</v>
+      </c>
       <c r="F56" s="19"/>
-      <c r="G56" s="61"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="20"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="18"/>
+      <c r="A57" s="15">
+        <v>43450</v>
+      </c>
+      <c r="B57" s="16">
+        <v>53</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="21">
+        <v>145</v>
+      </c>
       <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="19"/>
       <c r="I57" s="20"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="18"/>
+      <c r="A58" s="15">
+        <v>43450</v>
+      </c>
+      <c r="B58" s="16">
+        <v>54</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="18">
+        <v>624.76</v>
+      </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
@@ -4062,12 +4165,22 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="20"/>
+      <c r="A59" s="15">
+        <v>43445</v>
+      </c>
+      <c r="B59" s="16">
+        <v>55</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
+      <c r="F59" s="19">
+        <v>500</v>
+      </c>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="20"/>
@@ -4102,7 +4215,7 @@
     </row>
     <row r="62" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="44"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="44"/>
       <c r="D62" s="20"/>
       <c r="E62" s="18"/>
@@ -4115,7 +4228,7 @@
     </row>
     <row r="63" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="44"/>
       <c r="D63" s="20"/>
       <c r="E63" s="18"/>
@@ -4132,7 +4245,7 @@
       <c r="C64" s="44"/>
       <c r="D64" s="20"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="61"/>
+      <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="20"/>
@@ -4145,7 +4258,7 @@
       <c r="C65" s="44"/>
       <c r="D65" s="20"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="20"/>
@@ -4179,7 +4292,7 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="44"/>
       <c r="D68" s="20"/>
@@ -4192,7 +4305,7 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="16"/>
       <c r="C69" s="44"/>
       <c r="D69" s="20"/>
@@ -4261,7 +4374,7 @@
       <c r="B74" s="16"/>
       <c r="C74" s="44"/>
       <c r="D74" s="20"/>
-      <c r="E74" s="52"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
@@ -4274,7 +4387,7 @@
       <c r="B75" s="16"/>
       <c r="C75" s="44"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="18"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
@@ -4296,7 +4409,7 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="44"/>
       <c r="D77" s="20"/>
@@ -4309,7 +4422,7 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="16"/>
       <c r="C78" s="44"/>
       <c r="D78" s="20"/>
@@ -4322,7 +4435,7 @@
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="44"/>
       <c r="D79" s="20"/>
@@ -4361,7 +4474,7 @@
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="16"/>
       <c r="C82" s="44"/>
       <c r="D82" s="20"/>
@@ -4452,7 +4565,7 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="44"/>
       <c r="D89" s="20"/>
@@ -4465,7 +4578,7 @@
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="16"/>
       <c r="C90" s="44"/>
       <c r="D90" s="20"/>
@@ -4647,115 +4760,115 @@
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="28">
-        <f>SUM(E3:E103)</f>
-        <v>4881.3400000000011</v>
-      </c>
-      <c r="F104" s="29">
-        <f>SUM(F3:F103)</f>
-        <v>6606.0000000000073</v>
-      </c>
-      <c r="G104" s="29">
-        <f>SUM(G3:G103)</f>
-        <v>3000.5</v>
-      </c>
-      <c r="H104" s="29">
-        <f>SUM(H3:H103)</f>
-        <v>393.61</v>
-      </c>
-      <c r="I104" s="30">
-        <f>SUM(I3:I103)</f>
-        <v>949.09</v>
-      </c>
+      <c r="A104" s="15"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="20"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
+      <c r="A105" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="28">
+        <f>SUM(E3:E104)</f>
+        <v>5681.1000000000013</v>
+      </c>
+      <c r="F105" s="29">
+        <f>SUM(F3:F104)</f>
+        <v>7106.0000000000073</v>
+      </c>
+      <c r="G105" s="29">
+        <f>SUM(G3:G104)</f>
+        <v>3000.5</v>
+      </c>
+      <c r="H105" s="29">
+        <f>SUM(H3:H104)</f>
+        <v>423.61</v>
+      </c>
+      <c r="I105" s="30">
+        <f>SUM(I3:I104)</f>
+        <v>949.09</v>
+      </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="29">
-        <f>E104+Ausgaben!F170</f>
-        <v>430.1800000000012</v>
-      </c>
-      <c r="F106" s="29">
-        <f>F104+Ausgaben!G170</f>
-        <v>625.37000000000808</v>
-      </c>
-      <c r="G106" s="29">
-        <f>G104+Ausgaben!H170</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H106" s="29">
-        <f>H104+Ausgaben!I170</f>
-        <v>230.20000000000002</v>
-      </c>
-      <c r="I106" s="30">
-        <f>I104+Ausgaben!K171</f>
-        <v>949.09</v>
-      </c>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="A107" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="29">
+        <f>E105+Ausgaben!F170</f>
+        <v>1009.3400000000011</v>
+      </c>
+      <c r="F107" s="29">
+        <f>F105+Ausgaben!G170</f>
+        <v>373.47000000000844</v>
+      </c>
+      <c r="G107" s="29">
+        <f>G105+Ausgaben!H170</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H107" s="29">
+        <f>H105+Ausgaben!I170</f>
+        <v>260.20000000000005</v>
+      </c>
+      <c r="I107" s="30">
+        <f>I105+Ausgaben!K171</f>
+        <v>949.09</v>
+      </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="30">
-        <f>SUM(E106:I106)</f>
-        <v>4235.3400000000092</v>
-      </c>
-      <c r="E108" s="18"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="19"/>
+      <c r="A109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="30">
+        <f>SUM(E107:I107)</f>
+        <v>4592.6000000000095</v>
+      </c>
+      <c r="E109" s="18"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
@@ -4764,10 +4877,10 @@
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
@@ -5530,215 +5643,238 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
+    <row r="169" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D108 E3:F4 G4 G3:I3 E104:I168 D103:I103 D5:G27 H4:I103 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G47 E48:G48 D57:G103 G53:G56 G49 F50:G50 E51:G51 F52:G52">
-    <cfRule type="cellIs" dxfId="124" priority="43" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G104 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58">
+    <cfRule type="cellIs" dxfId="121" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="123" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="122" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="121" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="120" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="119" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="117" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="116" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="115" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="114" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="113" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="112" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="111" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="110" priority="28" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="cellIs" dxfId="107" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="109" priority="27" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D41 D43">
+    <cfRule type="cellIs" dxfId="106" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="105" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="104" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="103" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="102" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="101" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="100" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="99" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="98" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="97" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="96" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="95" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="94" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="93" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="92" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="91" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="90" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="89" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="88" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="87" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="86" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="85" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="84" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="82" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="81" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="108" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="107" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="106" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="105" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="104" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="103" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="102" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="101" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="99" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="95" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="93" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D45 D47 D49 D52:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D46 D48 D50 D53:D104">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D38:D44 D46 D48 D50:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D45">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5749,7 +5885,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="116" max="18" man="1"/>
+    <brk id="117" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5762,8 +5898,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114:E114"/>
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21803,11 +21939,21 @@
     </row>
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="49"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="63"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="21"/>
+      <c r="B115" s="15">
+        <v>43450</v>
+      </c>
+      <c r="C115" s="63">
+        <v>112</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="21">
+        <v>-60</v>
+      </c>
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -22052,11 +22198,21 @@
     </row>
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="21"/>
+      <c r="B116" s="15">
+        <v>43450</v>
+      </c>
+      <c r="C116" s="63">
+        <v>113</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="21">
+        <v>-40.6</v>
+      </c>
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -22301,11 +22457,21 @@
     </row>
     <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="49"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="21"/>
+      <c r="B117" s="15">
+        <v>43450</v>
+      </c>
+      <c r="C117" s="63">
+        <v>114</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="21">
+        <v>-120</v>
+      </c>
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -22550,12 +22716,21 @@
     </row>
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="63"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="22"/>
+      <c r="B118" s="15">
+        <v>43444</v>
+      </c>
+      <c r="C118" s="63">
+        <v>115</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="21">
+        <v>-360</v>
+      </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
       <c r="J118" s="23"/>
@@ -22799,12 +22974,21 @@
     </row>
     <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="49"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="63"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="22"/>
+      <c r="B119" s="15">
+        <v>43445</v>
+      </c>
+      <c r="C119" s="63">
+        <v>116</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="21">
+        <v>-375</v>
+      </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
       <c r="J119" s="23"/>
@@ -23048,12 +23232,22 @@
     </row>
     <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="63"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="43"/>
+      <c r="B120" s="15">
+        <v>43447</v>
+      </c>
+      <c r="C120" s="63">
+        <v>117</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="F120" s="21"/>
-      <c r="G120" s="22"/>
+      <c r="G120" s="22">
+        <v>-16.899999999999999</v>
+      </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
       <c r="J120" s="23"/>
@@ -35506,11 +35700,11 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-4451.16</v>
+        <v>-4671.76</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-5980.6299999999992</v>
+        <v>-6732.5299999999988</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -37440,368 +37634,403 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D115:E171 A85:A235 C106:D106 C109:C110 B115:B236 D110 C113 C115:C235">
-    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D121:E171 E120 B121:B236 C121:C235">
+    <cfRule type="cellIs" dxfId="79" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="89" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="75" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="74" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="64" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="61" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="60" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="59" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="57" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="54" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="52" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="51" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="50" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="49" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="46" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="45" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="44" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="43" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="42" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="40" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="37" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="34" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="32" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="31" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="30" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="28" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -565,6 +565,9 @@
   <si>
     <t>Individualhilfe 5x75</t>
   </si>
+  <si>
+    <t>Umbbuchung Giro</t>
+  </si>
 </sst>
 </file>
 
@@ -925,12 +928,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="130">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2769,9 +2767,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4188,12 +4186,22 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="20"/>
+      <c r="A60" s="15">
+        <v>43451</v>
+      </c>
+      <c r="B60" s="16">
+        <v>56</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
+      <c r="F60" s="19">
+        <v>845</v>
+      </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="20"/>
@@ -4785,7 +4793,7 @@
       </c>
       <c r="F105" s="29">
         <f>SUM(F3:F104)</f>
-        <v>7106.0000000000073</v>
+        <v>7951.0000000000073</v>
       </c>
       <c r="G105" s="29">
         <f>SUM(G3:G104)</f>
@@ -4824,11 +4832,11 @@
       <c r="D107" s="55"/>
       <c r="E107" s="29">
         <f>E105+Ausgaben!F170</f>
-        <v>1009.3400000000011</v>
+        <v>164.34000000000106</v>
       </c>
       <c r="F107" s="29">
         <f>F105+Ausgaben!G170</f>
-        <v>373.47000000000844</v>
+        <v>1085.7800000000088</v>
       </c>
       <c r="G107" s="29">
         <f>G105+Ausgaben!H170</f>
@@ -4866,7 +4874,7 @@
       <c r="C109" s="25"/>
       <c r="D109" s="30">
         <f>SUM(E107:I107)</f>
-        <v>4592.6000000000095</v>
+        <v>4459.9100000000099</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="19"/>
@@ -5660,213 +5668,218 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G104 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58">
-    <cfRule type="cellIs" dxfId="121" priority="45" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G104 E60:G60">
+    <cfRule type="cellIs" dxfId="126" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="120" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="119" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="118" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="117" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="116" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="115" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="114" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="113" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="112" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="111" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="110" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="109" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="108" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="107" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="106" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="105" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="104" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="103" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="102" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="101" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="100" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="99" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="98" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="97" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="96" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="95" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="94" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="93" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="92" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="91" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="90" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="89" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="88" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="87" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="86" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="85" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="84" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="82" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="81" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="84" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5897,9 +5910,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23491,12 +23504,21 @@
     </row>
     <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="63"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="22"/>
+      <c r="B121" s="15">
+        <v>43451</v>
+      </c>
+      <c r="C121" s="63">
+        <v>118</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="22">
+        <v>-132.69</v>
+      </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
       <c r="J121" s="23"/>
@@ -23740,11 +23762,21 @@
     </row>
     <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="21"/>
+      <c r="B122" s="15">
+        <v>43451</v>
+      </c>
+      <c r="C122" s="63">
+        <v>119</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="21">
+        <v>-845</v>
+      </c>
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -35700,11 +35732,11 @@
       <c r="E170" s="33"/>
       <c r="F170" s="34">
         <f>SUM(F3:F169)</f>
-        <v>-4671.76</v>
+        <v>-5516.76</v>
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-6732.5299999999988</v>
+        <v>-6865.2199999999984</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -37634,408 +37666,423 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D121:E171 E120 B121:B236 C121:C235">
-    <cfRule type="cellIs" dxfId="79" priority="90" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D123:E171 E120 B123:B236 C123:C235">
+    <cfRule type="cellIs" dxfId="83" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="77" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="75" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="73" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="72" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="71" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="70" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="69" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="68" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="67" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="66" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="65" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="64" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="63" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="62" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="61" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="60" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="51" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="50" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="49" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="48" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="46" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="45" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="44" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="43" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="42" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E56:E169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E122:E169 E56:E120">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55">

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="182">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -568,6 +568,9 @@
   <si>
     <t>Umbbuchung Giro</t>
   </si>
+  <si>
+    <t>Spende A.Müssle</t>
+  </si>
 </sst>
 </file>
 
@@ -928,27 +931,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2767,9 +2750,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4193,7 +4176,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>14</v>
@@ -4209,11 +4192,21 @@
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="18"/>
+      <c r="A61" s="15">
+        <v>43456</v>
+      </c>
+      <c r="B61" s="16">
+        <v>57</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="18">
+        <v>50</v>
+      </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
@@ -4789,7 +4782,7 @@
       <c r="D105" s="27"/>
       <c r="E105" s="28">
         <f>SUM(E3:E104)</f>
-        <v>5681.1000000000013</v>
+        <v>5731.1000000000013</v>
       </c>
       <c r="F105" s="29">
         <f>SUM(F3:F104)</f>
@@ -4832,7 +4825,7 @@
       <c r="D107" s="55"/>
       <c r="E107" s="29">
         <f>E105+Ausgaben!F170</f>
-        <v>164.34000000000106</v>
+        <v>214.34000000000106</v>
       </c>
       <c r="F107" s="29">
         <f>F105+Ausgaben!G170</f>
@@ -4874,7 +4867,7 @@
       <c r="C109" s="25"/>
       <c r="D109" s="30">
         <f>SUM(E107:I107)</f>
-        <v>4459.9100000000099</v>
+        <v>4509.9100000000099</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="19"/>
@@ -5669,217 +5662,217 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G104 E60:G60">
-    <cfRule type="cellIs" dxfId="126" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="125" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="124" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="123" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="122" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="121" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="120" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="119" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="117" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="116" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="115" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="114" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="113" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="112" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="111" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="110" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="109" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="108" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="107" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="106" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="105" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="104" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="103" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="102" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="101" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="99" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="98" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="95" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="93" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="91" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="90" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="89" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="88" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="84" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5910,9 +5903,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37667,417 +37660,417 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D123:E171 E120 B123:B236 C123:C235">
-    <cfRule type="cellIs" dxfId="83" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="82" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="81" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="80" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="79" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="78" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="77" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="76" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="75" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="74" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="73" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="72" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="71" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="70" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="69" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="68" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="67" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="66" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="65" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="64" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="63" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="62" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="61" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="60" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="59" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="58" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="57" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="56" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="55" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="53" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="52" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="51" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="50" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="49" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="48" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="47" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="46" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="184">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -571,6 +571,12 @@
   <si>
     <t>Spende A.Müssle</t>
   </si>
+  <si>
+    <t>Miete Musikerheim</t>
+  </si>
+  <si>
+    <t>Spende Heißwolf</t>
+  </si>
 </sst>
 </file>
 
@@ -931,7 +937,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2751,8 +2777,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4215,12 +4241,22 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="20"/>
+      <c r="A62" s="15">
+        <v>43461</v>
+      </c>
+      <c r="B62" s="16">
+        <v>58</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
+      <c r="F62" s="19">
+        <v>120</v>
+      </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="20"/>
@@ -4786,7 +4822,7 @@
       </c>
       <c r="F105" s="29">
         <f>SUM(F3:F104)</f>
-        <v>7951.0000000000073</v>
+        <v>8071.0000000000073</v>
       </c>
       <c r="G105" s="29">
         <f>SUM(G3:G104)</f>
@@ -4829,7 +4865,7 @@
       </c>
       <c r="F107" s="29">
         <f>F105+Ausgaben!G170</f>
-        <v>1085.7800000000088</v>
+        <v>712.08000000000902</v>
       </c>
       <c r="G107" s="29">
         <f>G105+Ausgaben!H170</f>
@@ -4867,7 +4903,7 @@
       <c r="C109" s="25"/>
       <c r="D109" s="30">
         <f>SUM(E107:I107)</f>
-        <v>4509.9100000000099</v>
+        <v>4136.21000000001</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="19"/>
@@ -5661,218 +5697,223 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G104 E60:G60">
-    <cfRule type="cellIs" dxfId="125" priority="46" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62">
+    <cfRule type="cellIs" dxfId="129" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="124" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="123" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="122" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="121" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="120" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="119" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="118" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="117" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="116" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="115" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="114" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="113" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="112" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="111" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="110" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="109" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="108" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="107" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="106" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="105" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="104" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="103" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="101" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="100" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="99" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="98" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="97" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="96" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="95" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="94" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="93" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="92" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="91" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="90" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="89" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="88" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="87" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="86" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="85" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="84" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="83" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5904,8 +5945,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24014,12 +24055,22 @@
     </row>
     <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="63"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="43"/>
+      <c r="B123" s="15">
+        <v>43461</v>
+      </c>
+      <c r="C123" s="63">
+        <v>120</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="F123" s="21"/>
-      <c r="G123" s="22"/>
+      <c r="G123" s="22">
+        <v>-493.7</v>
+      </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
       <c r="J123" s="23"/>
@@ -35729,7 +35780,7 @@
       </c>
       <c r="G170" s="35">
         <f>SUM(G3:G169)</f>
-        <v>-6865.2199999999984</v>
+        <v>-7358.9199999999983</v>
       </c>
       <c r="H170" s="35">
         <f>SUM(H3:H169)</f>
@@ -37659,423 +37710,428 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D123:E171 E120 B123:B236 C123:C235">
-    <cfRule type="cellIs" dxfId="82" priority="93" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123">
+    <cfRule type="cellIs" dxfId="86" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="81" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="80" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="79" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="77" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="75" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="73" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="72" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="71" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="70" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="69" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="68" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="67" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="66" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="65" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="64" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="63" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="62" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="61" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="60" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="56" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="50" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="49" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="48" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="46" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="45" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E122:E169 E56:E120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53 E56:E120 E122:E169">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55">

--- a/AWO_Einnahmen_Ausgaben_2018.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2018.xlsx
@@ -937,7 +937,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="133">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2777,8 +2792,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3791,7 +3806,7 @@
         <v>176</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19"/>
@@ -4113,7 +4128,7 @@
         <v>169</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E56" s="21">
         <v>30</v>
@@ -5698,230 +5713,230 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:F4 G4 G3:I3 E105:I169 D104:I104 D5:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62">
-    <cfRule type="cellIs" dxfId="129" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="128" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="127" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="126" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="125" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="124" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="123" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="122" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="121" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="120" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="119" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="118" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="117" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="116" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="115" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="114" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="113" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="112" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="111" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="110" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="109" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="108" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="107" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="106" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="105" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="103" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="102" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="101" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="100" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="99" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="98" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="97" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="96" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="94" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="91" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="90" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="89" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="90" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="89" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="87" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D46 D48 D50 D53:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34 D36:D37 D46 D48 D50 D53:D104 D42">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -37711,422 +37726,422 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 E3:E45 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123">
-    <cfRule type="cellIs" dxfId="86" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="85" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="84" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="83" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="82" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="81" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="80" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="79" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="78" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="77" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="76" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="75" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="74" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="73" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="72" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="71" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="70" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="69" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="68" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="67" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="66" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="65" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="64" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="63" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="62" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="61" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="60" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="59" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="58" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="57" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="56" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="53" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="52" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="51" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
